--- a/Dang-Vu-Duc/mon/temps-1.2/étudiants_Do-It_23_24.xlsx
+++ b/Dang-Vu-Duc/mon/temps-1.2/étudiants_Do-It_23_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duc15\Documents\Centrale Marseille\3A\DO IT\MON\MON1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB3F41-9D9F-4A69-BDE5-72C3667FA09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCE9A8-69BC-4D35-91A0-D24886F36E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="effectif" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
     <t>people analytics</t>
   </si>
   <si>
-    <t>IT et dynamique organisationnelle</t>
+    <t>IT &amp; dynamique organisationnelle</t>
   </si>
 </sst>
 </file>
@@ -803,47 +803,47 @@
   <dimension ref="A1:AD1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="36.140625" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" customWidth="1"/>
-    <col min="16" max="16" width="31.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="49.42578125" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="36.42578125" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" customWidth="1"/>
-    <col min="28" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="36.1796875" customWidth="1"/>
+    <col min="13" max="13" width="24.26953125" customWidth="1"/>
+    <col min="14" max="14" width="30.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" customWidth="1"/>
+    <col min="16" max="16" width="31.1796875" customWidth="1"/>
+    <col min="17" max="17" width="13.1796875" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="19" max="19" width="21.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" customWidth="1"/>
+    <col min="21" max="21" width="16.7265625" customWidth="1"/>
+    <col min="22" max="22" width="49.453125" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" customWidth="1"/>
+    <col min="24" max="24" width="36.453125" customWidth="1"/>
+    <col min="25" max="25" width="14.1796875" customWidth="1"/>
+    <col min="26" max="26" width="10.26953125" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" customWidth="1"/>
+    <col min="28" max="28" width="34.7265625" customWidth="1"/>
+    <col min="29" max="29" width="27.26953125" customWidth="1"/>
     <col min="30" max="30" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -881,7 +881,7 @@
       <c r="AC1" s="20"/>
       <c r="AD1" s="20"/>
     </row>
-    <row r="2" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -973,7 +973,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="AD8" s="16"/>
     </row>
-    <row r="9" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>44</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="AC18" s="16"/>
       <c r="AD18" s="16"/>
     </row>
-    <row r="19" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>73</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>76</v>
       </c>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="AD20" s="16"/>
     </row>
-    <row r="21" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="AC23" s="16"/>
       <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>89</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="AC24" s="16"/>
       <c r="AD24" s="16"/>
     </row>
-    <row r="25" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
@@ -2577,21 +2577,21 @@
       </c>
       <c r="AD26" s="16"/>
     </row>
-    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="L27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="13"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
       <c r="L28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="1"/>
@@ -2599,7 +2599,7 @@
       <c r="L29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="1"/>
@@ -2607,7 +2607,7 @@
       <c r="L30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="L31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="1"/>
@@ -2623,7 +2623,7 @@
       <c r="L32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="1"/>
@@ -2631,7 +2631,7 @@
       <c r="L33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
       <c r="E34" s="1"/>
@@ -2639,7 +2639,7 @@
       <c r="L34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1"/>
@@ -2647,7 +2647,7 @@
       <c r="L35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="1"/>
@@ -2655,7 +2655,7 @@
       <c r="L36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="1"/>
@@ -2663,7 +2663,7 @@
       <c r="L37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="1"/>
@@ -2671,7 +2671,7 @@
       <c r="L38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="L39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="1"/>
@@ -2687,7 +2687,7 @@
       <c r="L40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="1"/>
@@ -2695,7 +2695,7 @@
       <c r="L41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="1"/>
@@ -2703,7 +2703,7 @@
       <c r="L42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="1"/>
@@ -2711,7 +2711,7 @@
       <c r="L43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="1"/>
@@ -2719,7 +2719,7 @@
       <c r="L44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="1"/>
@@ -2727,7 +2727,7 @@
       <c r="L45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="1"/>
@@ -2735,7 +2735,7 @@
       <c r="L46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="1"/>
@@ -2743,7 +2743,7 @@
       <c r="L47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="1"/>
@@ -2751,7 +2751,7 @@
       <c r="L48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="1"/>
@@ -2759,7 +2759,7 @@
       <c r="L49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="1"/>
@@ -2767,7 +2767,7 @@
       <c r="L50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="1"/>
@@ -2775,7 +2775,7 @@
       <c r="L51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="1"/>
@@ -2783,7 +2783,7 @@
       <c r="L52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="1"/>
@@ -2791,7 +2791,7 @@
       <c r="L53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="1"/>
@@ -2799,7 +2799,7 @@
       <c r="L54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="1"/>
@@ -2807,7 +2807,7 @@
       <c r="L55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="1"/>
@@ -2815,7 +2815,7 @@
       <c r="L56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="1"/>
@@ -2823,7 +2823,7 @@
       <c r="L57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="1"/>
@@ -2831,7 +2831,7 @@
       <c r="L58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="1"/>
@@ -2839,7 +2839,7 @@
       <c r="L59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="1"/>
@@ -2847,7 +2847,7 @@
       <c r="L60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="1"/>
@@ -2855,7 +2855,7 @@
       <c r="L61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="1"/>
@@ -2863,7 +2863,7 @@
       <c r="L62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="1"/>
@@ -2871,7 +2871,7 @@
       <c r="L63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="1"/>
@@ -2879,7 +2879,7 @@
       <c r="L64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="1"/>
@@ -2887,7 +2887,7 @@
       <c r="L65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="1"/>
@@ -2895,7 +2895,7 @@
       <c r="L66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="L67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="1"/>
@@ -2911,7 +2911,7 @@
       <c r="L68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="L69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="1"/>
@@ -2927,7 +2927,7 @@
       <c r="L70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="1"/>
@@ -2935,7 +2935,7 @@
       <c r="L71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="L72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="1"/>
@@ -2951,7 +2951,7 @@
       <c r="L73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="1"/>
@@ -2959,7 +2959,7 @@
       <c r="L74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="1"/>
@@ -2967,7 +2967,7 @@
       <c r="L75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="1"/>
@@ -2975,7 +2975,7 @@
       <c r="L76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="1"/>
@@ -2983,7 +2983,7 @@
       <c r="L77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="1"/>
@@ -2991,7 +2991,7 @@
       <c r="L78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="1"/>
@@ -2999,7 +2999,7 @@
       <c r="L79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="1"/>
@@ -3007,7 +3007,7 @@
       <c r="L80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="1"/>
@@ -3015,7 +3015,7 @@
       <c r="L81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="1"/>
@@ -3023,7 +3023,7 @@
       <c r="L82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="1"/>
@@ -3031,7 +3031,7 @@
       <c r="L83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="1"/>
@@ -3039,7 +3039,7 @@
       <c r="L84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="1"/>
@@ -3047,7 +3047,7 @@
       <c r="L85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="1"/>
@@ -3055,7 +3055,7 @@
       <c r="L86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="L87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="1"/>
@@ -3071,7 +3071,7 @@
       <c r="L88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="1"/>
@@ -3079,7 +3079,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="1"/>
@@ -3087,7 +3087,7 @@
       <c r="L90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="1"/>
@@ -3095,7 +3095,7 @@
       <c r="L91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="1"/>
@@ -3103,7 +3103,7 @@
       <c r="L92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="1"/>
@@ -3111,7 +3111,7 @@
       <c r="L93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="1"/>
@@ -3119,7 +3119,7 @@
       <c r="L94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="1"/>
@@ -3127,7 +3127,7 @@
       <c r="L95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="1"/>
@@ -3135,7 +3135,7 @@
       <c r="L96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="1"/>
@@ -3143,7 +3143,7 @@
       <c r="L97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="1"/>
@@ -3151,7 +3151,7 @@
       <c r="L98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="1"/>
@@ -3159,7 +3159,7 @@
       <c r="L99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="1"/>
@@ -3167,7 +3167,7 @@
       <c r="L100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="1"/>
@@ -3175,7 +3175,7 @@
       <c r="L101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="1"/>
@@ -3183,7 +3183,7 @@
       <c r="L102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="1"/>
@@ -3191,7 +3191,7 @@
       <c r="L103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="1"/>
@@ -3199,7 +3199,7 @@
       <c r="L104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="1"/>
@@ -3207,7 +3207,7 @@
       <c r="L105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="1"/>
@@ -3215,7 +3215,7 @@
       <c r="L106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="1"/>
@@ -3223,7 +3223,7 @@
       <c r="L107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="1"/>
@@ -3231,7 +3231,7 @@
       <c r="L108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="1"/>
@@ -3239,7 +3239,7 @@
       <c r="L109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="1"/>
@@ -3247,7 +3247,7 @@
       <c r="L110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="1"/>
@@ -3255,7 +3255,7 @@
       <c r="L111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="1"/>
@@ -3263,7 +3263,7 @@
       <c r="L112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="L113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="1"/>
@@ -3279,7 +3279,7 @@
       <c r="L114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="1"/>
@@ -3287,7 +3287,7 @@
       <c r="L115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="1"/>
@@ -3295,7 +3295,7 @@
       <c r="L116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="1"/>
@@ -3303,7 +3303,7 @@
       <c r="L117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="1"/>
@@ -3311,7 +3311,7 @@
       <c r="L118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C119" s="14"/>
       <c r="D119" s="13"/>
       <c r="E119" s="1"/>
@@ -3319,7 +3319,7 @@
       <c r="L119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="1"/>
@@ -3327,7 +3327,7 @@
       <c r="L120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="1"/>
@@ -3335,7 +3335,7 @@
       <c r="L121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="1"/>
@@ -3343,7 +3343,7 @@
       <c r="L122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="1"/>
@@ -3351,7 +3351,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="L124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="1"/>
@@ -3367,7 +3367,7 @@
       <c r="L125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="1"/>
@@ -3375,7 +3375,7 @@
       <c r="L126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="1"/>
@@ -3383,7 +3383,7 @@
       <c r="L127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="1"/>
@@ -3391,7 +3391,7 @@
       <c r="L128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="1"/>
@@ -3399,7 +3399,7 @@
       <c r="L129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="1"/>
@@ -3407,7 +3407,7 @@
       <c r="L130" s="2"/>
       <c r="U130" s="2"/>
     </row>
-    <row r="131" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="1"/>
@@ -3415,7 +3415,7 @@
       <c r="L131" s="2"/>
       <c r="U131" s="2"/>
     </row>
-    <row r="132" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="1"/>
@@ -3423,7 +3423,7 @@
       <c r="L132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="1"/>
@@ -3431,7 +3431,7 @@
       <c r="L133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="1"/>
@@ -3439,7 +3439,7 @@
       <c r="L134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="1"/>
@@ -3447,7 +3447,7 @@
       <c r="L135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="1"/>
@@ -3455,7 +3455,7 @@
       <c r="L136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="L137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="1"/>
@@ -3471,7 +3471,7 @@
       <c r="L138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="1"/>
@@ -3479,7 +3479,7 @@
       <c r="L139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="1"/>
@@ -3487,7 +3487,7 @@
       <c r="L140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="1"/>
@@ -3495,7 +3495,7 @@
       <c r="L141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="1"/>
@@ -3503,7 +3503,7 @@
       <c r="L142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="1"/>
@@ -3511,7 +3511,7 @@
       <c r="L143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="1"/>
@@ -3519,7 +3519,7 @@
       <c r="L144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="1"/>
@@ -3527,7 +3527,7 @@
       <c r="L145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="L146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="1"/>
@@ -3543,7 +3543,7 @@
       <c r="L147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="1"/>
@@ -3551,7 +3551,7 @@
       <c r="L148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="1"/>
@@ -3559,7 +3559,7 @@
       <c r="L149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="1"/>
@@ -3567,7 +3567,7 @@
       <c r="L150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="1"/>
@@ -3575,7 +3575,7 @@
       <c r="L151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="1"/>
@@ -3583,7 +3583,7 @@
       <c r="L152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="L153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="1"/>
@@ -3599,7 +3599,7 @@
       <c r="L154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="1"/>
@@ -3607,7 +3607,7 @@
       <c r="L155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="1"/>
@@ -3615,7 +3615,7 @@
       <c r="L156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="1"/>
@@ -3623,7 +3623,7 @@
       <c r="L157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="1"/>
@@ -3631,7 +3631,7 @@
       <c r="L158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="L159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="1"/>
@@ -3647,7 +3647,7 @@
       <c r="L160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="1"/>
@@ -3655,7 +3655,7 @@
       <c r="L161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="1"/>
@@ -3663,7 +3663,7 @@
       <c r="L162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="1"/>
@@ -3671,7 +3671,7 @@
       <c r="L163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="164" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="1"/>
@@ -3679,7 +3679,7 @@
       <c r="L164" s="2"/>
       <c r="U164" s="2"/>
     </row>
-    <row r="165" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="1"/>
@@ -3687,7 +3687,7 @@
       <c r="L165" s="2"/>
       <c r="U165" s="2"/>
     </row>
-    <row r="166" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="1"/>
@@ -3695,7 +3695,7 @@
       <c r="L166" s="2"/>
       <c r="U166" s="2"/>
     </row>
-    <row r="167" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="1"/>
@@ -3703,7 +3703,7 @@
       <c r="L167" s="2"/>
       <c r="U167" s="2"/>
     </row>
-    <row r="168" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="1"/>
@@ -3711,7 +3711,7 @@
       <c r="L168" s="2"/>
       <c r="U168" s="2"/>
     </row>
-    <row r="169" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="1"/>
@@ -3719,7 +3719,7 @@
       <c r="L169" s="2"/>
       <c r="U169" s="2"/>
     </row>
-    <row r="170" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="1"/>
@@ -3727,7 +3727,7 @@
       <c r="L170" s="2"/>
       <c r="U170" s="2"/>
     </row>
-    <row r="171" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="1"/>
@@ -3735,7 +3735,7 @@
       <c r="L171" s="2"/>
       <c r="U171" s="2"/>
     </row>
-    <row r="172" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="1"/>
@@ -3743,7 +3743,7 @@
       <c r="L172" s="2"/>
       <c r="U172" s="2"/>
     </row>
-    <row r="173" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="1"/>
@@ -3751,7 +3751,7 @@
       <c r="L173" s="2"/>
       <c r="U173" s="2"/>
     </row>
-    <row r="174" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="1"/>
@@ -3759,7 +3759,7 @@
       <c r="L174" s="2"/>
       <c r="U174" s="2"/>
     </row>
-    <row r="175" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="L175" s="2"/>
       <c r="U175" s="2"/>
     </row>
-    <row r="176" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="1"/>
@@ -3775,7 +3775,7 @@
       <c r="L176" s="2"/>
       <c r="U176" s="2"/>
     </row>
-    <row r="177" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="1"/>
@@ -3783,7 +3783,7 @@
       <c r="L177" s="2"/>
       <c r="U177" s="2"/>
     </row>
-    <row r="178" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="1"/>
@@ -3791,7 +3791,7 @@
       <c r="L178" s="2"/>
       <c r="U178" s="2"/>
     </row>
-    <row r="179" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="1"/>
@@ -3799,7 +3799,7 @@
       <c r="L179" s="2"/>
       <c r="U179" s="2"/>
     </row>
-    <row r="180" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="1"/>
@@ -3807,7 +3807,7 @@
       <c r="L180" s="2"/>
       <c r="U180" s="2"/>
     </row>
-    <row r="181" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="L181" s="2"/>
       <c r="U181" s="2"/>
     </row>
-    <row r="182" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="1"/>
@@ -3823,7 +3823,7 @@
       <c r="L182" s="2"/>
       <c r="U182" s="2"/>
     </row>
-    <row r="183" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="1"/>
@@ -3831,7 +3831,7 @@
       <c r="L183" s="2"/>
       <c r="U183" s="2"/>
     </row>
-    <row r="184" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="1"/>
@@ -3839,7 +3839,7 @@
       <c r="L184" s="2"/>
       <c r="U184" s="2"/>
     </row>
-    <row r="185" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="1"/>
@@ -3847,7 +3847,7 @@
       <c r="L185" s="2"/>
       <c r="U185" s="2"/>
     </row>
-    <row r="186" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="1"/>
@@ -3855,7 +3855,7 @@
       <c r="L186" s="2"/>
       <c r="U186" s="2"/>
     </row>
-    <row r="187" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="L187" s="2"/>
       <c r="U187" s="2"/>
     </row>
-    <row r="188" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="1"/>
@@ -3871,7 +3871,7 @@
       <c r="L188" s="2"/>
       <c r="U188" s="2"/>
     </row>
-    <row r="189" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="1"/>
@@ -3879,7 +3879,7 @@
       <c r="L189" s="2"/>
       <c r="U189" s="2"/>
     </row>
-    <row r="190" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="1"/>
@@ -3887,7 +3887,7 @@
       <c r="L190" s="2"/>
       <c r="U190" s="2"/>
     </row>
-    <row r="191" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="1"/>
@@ -3895,7 +3895,7 @@
       <c r="L191" s="2"/>
       <c r="U191" s="2"/>
     </row>
-    <row r="192" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="1"/>
@@ -3903,7 +3903,7 @@
       <c r="L192" s="2"/>
       <c r="U192" s="2"/>
     </row>
-    <row r="193" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="1"/>
@@ -3911,7 +3911,7 @@
       <c r="L193" s="2"/>
       <c r="U193" s="2"/>
     </row>
-    <row r="194" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="1"/>
@@ -3919,7 +3919,7 @@
       <c r="L194" s="2"/>
       <c r="U194" s="2"/>
     </row>
-    <row r="195" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="1"/>
@@ -3927,7 +3927,7 @@
       <c r="L195" s="2"/>
       <c r="U195" s="2"/>
     </row>
-    <row r="196" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="1"/>
@@ -3935,7 +3935,7 @@
       <c r="L196" s="2"/>
       <c r="U196" s="2"/>
     </row>
-    <row r="197" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="1"/>
@@ -3943,7 +3943,7 @@
       <c r="L197" s="2"/>
       <c r="U197" s="2"/>
     </row>
-    <row r="198" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="1"/>
@@ -3951,7 +3951,7 @@
       <c r="L198" s="2"/>
       <c r="U198" s="2"/>
     </row>
-    <row r="199" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="1"/>
@@ -3959,7 +3959,7 @@
       <c r="L199" s="2"/>
       <c r="U199" s="2"/>
     </row>
-    <row r="200" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="1"/>
@@ -3967,7 +3967,7 @@
       <c r="L200" s="2"/>
       <c r="U200" s="2"/>
     </row>
-    <row r="201" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="1"/>
@@ -3975,7 +3975,7 @@
       <c r="L201" s="2"/>
       <c r="U201" s="2"/>
     </row>
-    <row r="202" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
       <c r="E202" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="L202" s="2"/>
       <c r="U202" s="2"/>
     </row>
-    <row r="203" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
       <c r="E203" s="1"/>
@@ -3991,7 +3991,7 @@
       <c r="L203" s="2"/>
       <c r="U203" s="2"/>
     </row>
-    <row r="204" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
       <c r="E204" s="1"/>
@@ -3999,7 +3999,7 @@
       <c r="L204" s="2"/>
       <c r="U204" s="2"/>
     </row>
-    <row r="205" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
       <c r="E205" s="1"/>
@@ -4007,7 +4007,7 @@
       <c r="L205" s="2"/>
       <c r="U205" s="2"/>
     </row>
-    <row r="206" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
       <c r="E206" s="1"/>
@@ -4015,7 +4015,7 @@
       <c r="L206" s="2"/>
       <c r="U206" s="2"/>
     </row>
-    <row r="207" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="1"/>
@@ -4023,7 +4023,7 @@
       <c r="L207" s="2"/>
       <c r="U207" s="2"/>
     </row>
-    <row r="208" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C208" s="13"/>
       <c r="D208" s="13"/>
       <c r="E208" s="1"/>
@@ -4031,7 +4031,7 @@
       <c r="L208" s="2"/>
       <c r="U208" s="2"/>
     </row>
-    <row r="209" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C209" s="13"/>
       <c r="D209" s="13"/>
       <c r="E209" s="1"/>
@@ -4039,7 +4039,7 @@
       <c r="L209" s="2"/>
       <c r="U209" s="2"/>
     </row>
-    <row r="210" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C210" s="13"/>
       <c r="D210" s="13"/>
       <c r="E210" s="1"/>
@@ -4047,7 +4047,7 @@
       <c r="L210" s="2"/>
       <c r="U210" s="2"/>
     </row>
-    <row r="211" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C211" s="13"/>
       <c r="D211" s="13"/>
       <c r="E211" s="1"/>
@@ -4055,7 +4055,7 @@
       <c r="L211" s="2"/>
       <c r="U211" s="2"/>
     </row>
-    <row r="212" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C212" s="13"/>
       <c r="D212" s="13"/>
       <c r="E212" s="1"/>
@@ -4063,7 +4063,7 @@
       <c r="L212" s="2"/>
       <c r="U212" s="2"/>
     </row>
-    <row r="213" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C213" s="13"/>
       <c r="D213" s="13"/>
       <c r="E213" s="1"/>
@@ -4071,7 +4071,7 @@
       <c r="L213" s="2"/>
       <c r="U213" s="2"/>
     </row>
-    <row r="214" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C214" s="13"/>
       <c r="D214" s="13"/>
       <c r="E214" s="1"/>
@@ -4079,7 +4079,7 @@
       <c r="L214" s="2"/>
       <c r="U214" s="2"/>
     </row>
-    <row r="215" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C215" s="13"/>
       <c r="D215" s="13"/>
       <c r="E215" s="1"/>
@@ -4087,7 +4087,7 @@
       <c r="L215" s="2"/>
       <c r="U215" s="2"/>
     </row>
-    <row r="216" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C216" s="13"/>
       <c r="D216" s="13"/>
       <c r="E216" s="1"/>
@@ -4095,7 +4095,7 @@
       <c r="L216" s="2"/>
       <c r="U216" s="2"/>
     </row>
-    <row r="217" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C217" s="13"/>
       <c r="D217" s="13"/>
       <c r="E217" s="1"/>
@@ -4103,7 +4103,7 @@
       <c r="L217" s="2"/>
       <c r="U217" s="2"/>
     </row>
-    <row r="218" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C218" s="13"/>
       <c r="D218" s="13"/>
       <c r="E218" s="1"/>
@@ -4111,7 +4111,7 @@
       <c r="L218" s="2"/>
       <c r="U218" s="2"/>
     </row>
-    <row r="219" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C219" s="13"/>
       <c r="D219" s="13"/>
       <c r="E219" s="1"/>
@@ -4119,7 +4119,7 @@
       <c r="L219" s="2"/>
       <c r="U219" s="2"/>
     </row>
-    <row r="220" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C220" s="13"/>
       <c r="D220" s="13"/>
       <c r="E220" s="1"/>
@@ -4127,7 +4127,7 @@
       <c r="L220" s="2"/>
       <c r="U220" s="2"/>
     </row>
-    <row r="221" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C221" s="13"/>
       <c r="D221" s="13"/>
       <c r="E221" s="1"/>
@@ -4135,7 +4135,7 @@
       <c r="L221" s="2"/>
       <c r="U221" s="2"/>
     </row>
-    <row r="222" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C222" s="13"/>
       <c r="D222" s="13"/>
       <c r="E222" s="1"/>
@@ -4143,7 +4143,7 @@
       <c r="L222" s="2"/>
       <c r="U222" s="2"/>
     </row>
-    <row r="223" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C223" s="13"/>
       <c r="D223" s="13"/>
       <c r="E223" s="1"/>
@@ -4151,7 +4151,7 @@
       <c r="L223" s="2"/>
       <c r="U223" s="2"/>
     </row>
-    <row r="224" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C224" s="13"/>
       <c r="D224" s="13"/>
       <c r="E224" s="1"/>
@@ -4159,7 +4159,7 @@
       <c r="L224" s="2"/>
       <c r="U224" s="2"/>
     </row>
-    <row r="225" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C225" s="13"/>
       <c r="D225" s="13"/>
       <c r="E225" s="1"/>
@@ -4167,7 +4167,7 @@
       <c r="L225" s="2"/>
       <c r="U225" s="2"/>
     </row>
-    <row r="226" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
       <c r="E226" s="1"/>
@@ -4175,7 +4175,7 @@
       <c r="L226" s="2"/>
       <c r="U226" s="2"/>
     </row>
-    <row r="227" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C227" s="13"/>
       <c r="D227" s="13"/>
       <c r="E227" s="1"/>
@@ -4183,7 +4183,7 @@
       <c r="L227" s="2"/>
       <c r="U227" s="2"/>
     </row>
-    <row r="228" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C228" s="13"/>
       <c r="D228" s="13"/>
       <c r="E228" s="1"/>
@@ -4191,7 +4191,7 @@
       <c r="L228" s="2"/>
       <c r="U228" s="2"/>
     </row>
-    <row r="229" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C229" s="13"/>
       <c r="D229" s="13"/>
       <c r="E229" s="1"/>
@@ -4199,7 +4199,7 @@
       <c r="L229" s="2"/>
       <c r="U229" s="2"/>
     </row>
-    <row r="230" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C230" s="13"/>
       <c r="D230" s="13"/>
       <c r="E230" s="1"/>
@@ -4207,7 +4207,7 @@
       <c r="L230" s="2"/>
       <c r="U230" s="2"/>
     </row>
-    <row r="231" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C231" s="13"/>
       <c r="D231" s="13"/>
       <c r="E231" s="1"/>
@@ -4215,7 +4215,7 @@
       <c r="L231" s="2"/>
       <c r="U231" s="2"/>
     </row>
-    <row r="232" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C232" s="13"/>
       <c r="D232" s="13"/>
       <c r="E232" s="1"/>
@@ -4223,7 +4223,7 @@
       <c r="L232" s="2"/>
       <c r="U232" s="2"/>
     </row>
-    <row r="233" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C233" s="13"/>
       <c r="D233" s="13"/>
       <c r="E233" s="1"/>
@@ -4231,7 +4231,7 @@
       <c r="L233" s="2"/>
       <c r="U233" s="2"/>
     </row>
-    <row r="234" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C234" s="13"/>
       <c r="D234" s="13"/>
       <c r="E234" s="1"/>
@@ -4239,7 +4239,7 @@
       <c r="L234" s="2"/>
       <c r="U234" s="2"/>
     </row>
-    <row r="235" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C235" s="13"/>
       <c r="D235" s="13"/>
       <c r="E235" s="1"/>
@@ -4247,7 +4247,7 @@
       <c r="L235" s="2"/>
       <c r="U235" s="2"/>
     </row>
-    <row r="236" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="1"/>
@@ -4255,7 +4255,7 @@
       <c r="L236" s="2"/>
       <c r="U236" s="2"/>
     </row>
-    <row r="237" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C237" s="13"/>
       <c r="D237" s="13"/>
       <c r="E237" s="1"/>
@@ -4263,7 +4263,7 @@
       <c r="L237" s="2"/>
       <c r="U237" s="2"/>
     </row>
-    <row r="238" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C238" s="13"/>
       <c r="D238" s="13"/>
       <c r="E238" s="1"/>
@@ -4271,7 +4271,7 @@
       <c r="L238" s="2"/>
       <c r="U238" s="2"/>
     </row>
-    <row r="239" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="1"/>
@@ -4279,7 +4279,7 @@
       <c r="L239" s="2"/>
       <c r="U239" s="2"/>
     </row>
-    <row r="240" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C240" s="13"/>
       <c r="D240" s="13"/>
       <c r="E240" s="1"/>
@@ -4287,7 +4287,7 @@
       <c r="L240" s="2"/>
       <c r="U240" s="2"/>
     </row>
-    <row r="241" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C241" s="13"/>
       <c r="D241" s="13"/>
       <c r="E241" s="1"/>
@@ -4295,7 +4295,7 @@
       <c r="L241" s="2"/>
       <c r="U241" s="2"/>
     </row>
-    <row r="242" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C242" s="13"/>
       <c r="D242" s="13"/>
       <c r="E242" s="1"/>
@@ -4303,7 +4303,7 @@
       <c r="L242" s="2"/>
       <c r="U242" s="2"/>
     </row>
-    <row r="243" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C243" s="13"/>
       <c r="D243" s="13"/>
       <c r="E243" s="1"/>
@@ -4311,7 +4311,7 @@
       <c r="L243" s="2"/>
       <c r="U243" s="2"/>
     </row>
-    <row r="244" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C244" s="13"/>
       <c r="D244" s="13"/>
       <c r="E244" s="1"/>
@@ -4319,7 +4319,7 @@
       <c r="L244" s="2"/>
       <c r="U244" s="2"/>
     </row>
-    <row r="245" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C245" s="13"/>
       <c r="D245" s="13"/>
       <c r="E245" s="1"/>
@@ -4327,7 +4327,7 @@
       <c r="L245" s="2"/>
       <c r="U245" s="2"/>
     </row>
-    <row r="246" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C246" s="13"/>
       <c r="D246" s="13"/>
       <c r="E246" s="1"/>
@@ -4335,7 +4335,7 @@
       <c r="L246" s="2"/>
       <c r="U246" s="2"/>
     </row>
-    <row r="247" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C247" s="13"/>
       <c r="D247" s="13"/>
       <c r="E247" s="1"/>
@@ -4343,7 +4343,7 @@
       <c r="L247" s="2"/>
       <c r="U247" s="2"/>
     </row>
-    <row r="248" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C248" s="13"/>
       <c r="D248" s="13"/>
       <c r="E248" s="1"/>
@@ -4351,7 +4351,7 @@
       <c r="L248" s="2"/>
       <c r="U248" s="2"/>
     </row>
-    <row r="249" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C249" s="13"/>
       <c r="D249" s="13"/>
       <c r="E249" s="1"/>
@@ -4359,7 +4359,7 @@
       <c r="L249" s="2"/>
       <c r="U249" s="2"/>
     </row>
-    <row r="250" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="1"/>
@@ -4367,7 +4367,7 @@
       <c r="L250" s="2"/>
       <c r="U250" s="2"/>
     </row>
-    <row r="251" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C251" s="13"/>
       <c r="D251" s="13"/>
       <c r="E251" s="1"/>
@@ -4375,7 +4375,7 @@
       <c r="L251" s="2"/>
       <c r="U251" s="2"/>
     </row>
-    <row r="252" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C252" s="13"/>
       <c r="D252" s="13"/>
       <c r="E252" s="1"/>
@@ -4383,7 +4383,7 @@
       <c r="L252" s="2"/>
       <c r="U252" s="2"/>
     </row>
-    <row r="253" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C253" s="13"/>
       <c r="D253" s="13"/>
       <c r="E253" s="1"/>
@@ -4391,7 +4391,7 @@
       <c r="L253" s="2"/>
       <c r="U253" s="2"/>
     </row>
-    <row r="254" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C254" s="13"/>
       <c r="D254" s="13"/>
       <c r="E254" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="L254" s="2"/>
       <c r="U254" s="2"/>
     </row>
-    <row r="255" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C255" s="13"/>
       <c r="D255" s="13"/>
       <c r="E255" s="1"/>
@@ -4407,7 +4407,7 @@
       <c r="L255" s="2"/>
       <c r="U255" s="2"/>
     </row>
-    <row r="256" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
       <c r="E256" s="1"/>
@@ -4415,7 +4415,7 @@
       <c r="L256" s="2"/>
       <c r="U256" s="2"/>
     </row>
-    <row r="257" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C257" s="13"/>
       <c r="D257" s="13"/>
       <c r="E257" s="1"/>
@@ -4423,7 +4423,7 @@
       <c r="L257" s="2"/>
       <c r="U257" s="2"/>
     </row>
-    <row r="258" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C258" s="13"/>
       <c r="D258" s="13"/>
       <c r="E258" s="1"/>
@@ -4431,7 +4431,7 @@
       <c r="L258" s="2"/>
       <c r="U258" s="2"/>
     </row>
-    <row r="259" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C259" s="13"/>
       <c r="D259" s="13"/>
       <c r="E259" s="1"/>
@@ -4439,7 +4439,7 @@
       <c r="L259" s="2"/>
       <c r="U259" s="2"/>
     </row>
-    <row r="260" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C260" s="13"/>
       <c r="D260" s="13"/>
       <c r="E260" s="1"/>
@@ -4447,7 +4447,7 @@
       <c r="L260" s="2"/>
       <c r="U260" s="2"/>
     </row>
-    <row r="261" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="1"/>
@@ -4455,7 +4455,7 @@
       <c r="L261" s="2"/>
       <c r="U261" s="2"/>
     </row>
-    <row r="262" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C262" s="13"/>
       <c r="D262" s="13"/>
       <c r="E262" s="1"/>
@@ -4463,7 +4463,7 @@
       <c r="L262" s="2"/>
       <c r="U262" s="2"/>
     </row>
-    <row r="263" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C263" s="13"/>
       <c r="D263" s="13"/>
       <c r="E263" s="1"/>
@@ -4471,7 +4471,7 @@
       <c r="L263" s="2"/>
       <c r="U263" s="2"/>
     </row>
-    <row r="264" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C264" s="13"/>
       <c r="D264" s="13"/>
       <c r="E264" s="1"/>
@@ -4479,7 +4479,7 @@
       <c r="L264" s="2"/>
       <c r="U264" s="2"/>
     </row>
-    <row r="265" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C265" s="13"/>
       <c r="D265" s="13"/>
       <c r="E265" s="1"/>
@@ -4487,7 +4487,7 @@
       <c r="L265" s="2"/>
       <c r="U265" s="2"/>
     </row>
-    <row r="266" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C266" s="13"/>
       <c r="D266" s="13"/>
       <c r="E266" s="1"/>
@@ -4495,7 +4495,7 @@
       <c r="L266" s="2"/>
       <c r="U266" s="2"/>
     </row>
-    <row r="267" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C267" s="13"/>
       <c r="D267" s="13"/>
       <c r="E267" s="1"/>
@@ -4503,7 +4503,7 @@
       <c r="L267" s="2"/>
       <c r="U267" s="2"/>
     </row>
-    <row r="268" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C268" s="13"/>
       <c r="D268" s="13"/>
       <c r="E268" s="1"/>
@@ -4511,7 +4511,7 @@
       <c r="L268" s="2"/>
       <c r="U268" s="2"/>
     </row>
-    <row r="269" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C269" s="13"/>
       <c r="D269" s="13"/>
       <c r="E269" s="1"/>
@@ -4519,7 +4519,7 @@
       <c r="L269" s="2"/>
       <c r="U269" s="2"/>
     </row>
-    <row r="270" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C270" s="13"/>
       <c r="D270" s="13"/>
       <c r="E270" s="1"/>
@@ -4527,7 +4527,7 @@
       <c r="L270" s="2"/>
       <c r="U270" s="2"/>
     </row>
-    <row r="271" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C271" s="13"/>
       <c r="D271" s="13"/>
       <c r="E271" s="1"/>
@@ -4535,7 +4535,7 @@
       <c r="L271" s="2"/>
       <c r="U271" s="2"/>
     </row>
-    <row r="272" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C272" s="13"/>
       <c r="D272" s="13"/>
       <c r="E272" s="1"/>
@@ -4543,7 +4543,7 @@
       <c r="L272" s="2"/>
       <c r="U272" s="2"/>
     </row>
-    <row r="273" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C273" s="13"/>
       <c r="D273" s="13"/>
       <c r="E273" s="1"/>
@@ -4551,7 +4551,7 @@
       <c r="L273" s="2"/>
       <c r="U273" s="2"/>
     </row>
-    <row r="274" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C274" s="13"/>
       <c r="D274" s="13"/>
       <c r="E274" s="1"/>
@@ -4559,7 +4559,7 @@
       <c r="L274" s="2"/>
       <c r="U274" s="2"/>
     </row>
-    <row r="275" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C275" s="13"/>
       <c r="D275" s="13"/>
       <c r="E275" s="1"/>
@@ -4567,7 +4567,7 @@
       <c r="L275" s="2"/>
       <c r="U275" s="2"/>
     </row>
-    <row r="276" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C276" s="13"/>
       <c r="D276" s="13"/>
       <c r="E276" s="1"/>
@@ -4575,7 +4575,7 @@
       <c r="L276" s="2"/>
       <c r="U276" s="2"/>
     </row>
-    <row r="277" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C277" s="13"/>
       <c r="D277" s="13"/>
       <c r="E277" s="1"/>
@@ -4583,7 +4583,7 @@
       <c r="L277" s="2"/>
       <c r="U277" s="2"/>
     </row>
-    <row r="278" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C278" s="13"/>
       <c r="D278" s="13"/>
       <c r="E278" s="1"/>
@@ -4591,7 +4591,7 @@
       <c r="L278" s="2"/>
       <c r="U278" s="2"/>
     </row>
-    <row r="279" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C279" s="13"/>
       <c r="D279" s="13"/>
       <c r="E279" s="1"/>
@@ -4599,7 +4599,7 @@
       <c r="L279" s="2"/>
       <c r="U279" s="2"/>
     </row>
-    <row r="280" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C280" s="13"/>
       <c r="D280" s="13"/>
       <c r="E280" s="1"/>
@@ -4607,7 +4607,7 @@
       <c r="L280" s="2"/>
       <c r="U280" s="2"/>
     </row>
-    <row r="281" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C281" s="13"/>
       <c r="D281" s="13"/>
       <c r="E281" s="1"/>
@@ -4615,7 +4615,7 @@
       <c r="L281" s="2"/>
       <c r="U281" s="2"/>
     </row>
-    <row r="282" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C282" s="13"/>
       <c r="D282" s="13"/>
       <c r="E282" s="1"/>
@@ -4623,7 +4623,7 @@
       <c r="L282" s="2"/>
       <c r="U282" s="2"/>
     </row>
-    <row r="283" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C283" s="13"/>
       <c r="D283" s="13"/>
       <c r="E283" s="1"/>
@@ -4631,7 +4631,7 @@
       <c r="L283" s="2"/>
       <c r="U283" s="2"/>
     </row>
-    <row r="284" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C284" s="13"/>
       <c r="D284" s="13"/>
       <c r="E284" s="1"/>
@@ -4639,7 +4639,7 @@
       <c r="L284" s="2"/>
       <c r="U284" s="2"/>
     </row>
-    <row r="285" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C285" s="13"/>
       <c r="D285" s="13"/>
       <c r="E285" s="1"/>
@@ -4647,7 +4647,7 @@
       <c r="L285" s="2"/>
       <c r="U285" s="2"/>
     </row>
-    <row r="286" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
       <c r="E286" s="1"/>
@@ -4655,7 +4655,7 @@
       <c r="L286" s="2"/>
       <c r="U286" s="2"/>
     </row>
-    <row r="287" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="1"/>
@@ -4663,7 +4663,7 @@
       <c r="L287" s="2"/>
       <c r="U287" s="2"/>
     </row>
-    <row r="288" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C288" s="13"/>
       <c r="D288" s="13"/>
       <c r="E288" s="1"/>
@@ -4671,7 +4671,7 @@
       <c r="L288" s="2"/>
       <c r="U288" s="2"/>
     </row>
-    <row r="289" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C289" s="13"/>
       <c r="D289" s="13"/>
       <c r="E289" s="1"/>
@@ -4679,7 +4679,7 @@
       <c r="L289" s="2"/>
       <c r="U289" s="2"/>
     </row>
-    <row r="290" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C290" s="13"/>
       <c r="D290" s="13"/>
       <c r="E290" s="1"/>
@@ -4687,7 +4687,7 @@
       <c r="L290" s="2"/>
       <c r="U290" s="2"/>
     </row>
-    <row r="291" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C291" s="13"/>
       <c r="D291" s="13"/>
       <c r="E291" s="1"/>
@@ -4695,7 +4695,7 @@
       <c r="L291" s="2"/>
       <c r="U291" s="2"/>
     </row>
-    <row r="292" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C292" s="13"/>
       <c r="D292" s="13"/>
       <c r="E292" s="1"/>
@@ -4703,7 +4703,7 @@
       <c r="L292" s="2"/>
       <c r="U292" s="2"/>
     </row>
-    <row r="293" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C293" s="13"/>
       <c r="D293" s="13"/>
       <c r="E293" s="1"/>
@@ -4711,7 +4711,7 @@
       <c r="L293" s="2"/>
       <c r="U293" s="2"/>
     </row>
-    <row r="294" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
       <c r="E294" s="1"/>
@@ -4719,7 +4719,7 @@
       <c r="L294" s="2"/>
       <c r="U294" s="2"/>
     </row>
-    <row r="295" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C295" s="13"/>
       <c r="D295" s="13"/>
       <c r="E295" s="1"/>
@@ -4727,7 +4727,7 @@
       <c r="L295" s="2"/>
       <c r="U295" s="2"/>
     </row>
-    <row r="296" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C296" s="13"/>
       <c r="D296" s="13"/>
       <c r="E296" s="1"/>
@@ -4735,7 +4735,7 @@
       <c r="L296" s="2"/>
       <c r="U296" s="2"/>
     </row>
-    <row r="297" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C297" s="13"/>
       <c r="D297" s="13"/>
       <c r="E297" s="1"/>
@@ -4743,7 +4743,7 @@
       <c r="L297" s="2"/>
       <c r="U297" s="2"/>
     </row>
-    <row r="298" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C298" s="13"/>
       <c r="D298" s="13"/>
       <c r="E298" s="1"/>
@@ -4751,7 +4751,7 @@
       <c r="L298" s="2"/>
       <c r="U298" s="2"/>
     </row>
-    <row r="299" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C299" s="13"/>
       <c r="D299" s="13"/>
       <c r="E299" s="1"/>
@@ -4759,7 +4759,7 @@
       <c r="L299" s="2"/>
       <c r="U299" s="2"/>
     </row>
-    <row r="300" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C300" s="13"/>
       <c r="D300" s="13"/>
       <c r="E300" s="1"/>
@@ -4767,7 +4767,7 @@
       <c r="L300" s="2"/>
       <c r="U300" s="2"/>
     </row>
-    <row r="301" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C301" s="13"/>
       <c r="D301" s="13"/>
       <c r="E301" s="1"/>
@@ -4775,7 +4775,7 @@
       <c r="L301" s="2"/>
       <c r="U301" s="2"/>
     </row>
-    <row r="302" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C302" s="13"/>
       <c r="D302" s="13"/>
       <c r="E302" s="1"/>
@@ -4783,7 +4783,7 @@
       <c r="L302" s="2"/>
       <c r="U302" s="2"/>
     </row>
-    <row r="303" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C303" s="13"/>
       <c r="D303" s="13"/>
       <c r="E303" s="1"/>
@@ -4791,7 +4791,7 @@
       <c r="L303" s="2"/>
       <c r="U303" s="2"/>
     </row>
-    <row r="304" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C304" s="13"/>
       <c r="D304" s="13"/>
       <c r="E304" s="1"/>
@@ -4799,7 +4799,7 @@
       <c r="L304" s="2"/>
       <c r="U304" s="2"/>
     </row>
-    <row r="305" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C305" s="13"/>
       <c r="D305" s="13"/>
       <c r="E305" s="1"/>
@@ -4807,7 +4807,7 @@
       <c r="L305" s="2"/>
       <c r="U305" s="2"/>
     </row>
-    <row r="306" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C306" s="13"/>
       <c r="D306" s="13"/>
       <c r="E306" s="1"/>
@@ -4815,7 +4815,7 @@
       <c r="L306" s="2"/>
       <c r="U306" s="2"/>
     </row>
-    <row r="307" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C307" s="13"/>
       <c r="D307" s="13"/>
       <c r="E307" s="1"/>
@@ -4823,7 +4823,7 @@
       <c r="L307" s="2"/>
       <c r="U307" s="2"/>
     </row>
-    <row r="308" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C308" s="13"/>
       <c r="D308" s="13"/>
       <c r="E308" s="1"/>
@@ -4831,7 +4831,7 @@
       <c r="L308" s="2"/>
       <c r="U308" s="2"/>
     </row>
-    <row r="309" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C309" s="13"/>
       <c r="D309" s="13"/>
       <c r="E309" s="1"/>
@@ -4839,7 +4839,7 @@
       <c r="L309" s="2"/>
       <c r="U309" s="2"/>
     </row>
-    <row r="310" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C310" s="13"/>
       <c r="D310" s="13"/>
       <c r="E310" s="1"/>
@@ -4847,7 +4847,7 @@
       <c r="L310" s="2"/>
       <c r="U310" s="2"/>
     </row>
-    <row r="311" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C311" s="13"/>
       <c r="D311" s="13"/>
       <c r="E311" s="1"/>
@@ -4855,7 +4855,7 @@
       <c r="L311" s="2"/>
       <c r="U311" s="2"/>
     </row>
-    <row r="312" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C312" s="13"/>
       <c r="D312" s="13"/>
       <c r="E312" s="1"/>
@@ -4863,7 +4863,7 @@
       <c r="L312" s="2"/>
       <c r="U312" s="2"/>
     </row>
-    <row r="313" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C313" s="13"/>
       <c r="D313" s="13"/>
       <c r="E313" s="1"/>
@@ -4871,7 +4871,7 @@
       <c r="L313" s="2"/>
       <c r="U313" s="2"/>
     </row>
-    <row r="314" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C314" s="13"/>
       <c r="D314" s="13"/>
       <c r="E314" s="1"/>
@@ -4879,7 +4879,7 @@
       <c r="L314" s="2"/>
       <c r="U314" s="2"/>
     </row>
-    <row r="315" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C315" s="13"/>
       <c r="D315" s="13"/>
       <c r="E315" s="1"/>
@@ -4887,7 +4887,7 @@
       <c r="L315" s="2"/>
       <c r="U315" s="2"/>
     </row>
-    <row r="316" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
       <c r="E316" s="1"/>
@@ -4895,7 +4895,7 @@
       <c r="L316" s="2"/>
       <c r="U316" s="2"/>
     </row>
-    <row r="317" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C317" s="13"/>
       <c r="D317" s="13"/>
       <c r="E317" s="1"/>
@@ -4903,7 +4903,7 @@
       <c r="L317" s="2"/>
       <c r="U317" s="2"/>
     </row>
-    <row r="318" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C318" s="13"/>
       <c r="D318" s="13"/>
       <c r="E318" s="1"/>
@@ -4911,7 +4911,7 @@
       <c r="L318" s="2"/>
       <c r="U318" s="2"/>
     </row>
-    <row r="319" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C319" s="13"/>
       <c r="D319" s="13"/>
       <c r="E319" s="1"/>
@@ -4919,7 +4919,7 @@
       <c r="L319" s="2"/>
       <c r="U319" s="2"/>
     </row>
-    <row r="320" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C320" s="13"/>
       <c r="D320" s="13"/>
       <c r="E320" s="1"/>
@@ -4927,7 +4927,7 @@
       <c r="L320" s="2"/>
       <c r="U320" s="2"/>
     </row>
-    <row r="321" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C321" s="13"/>
       <c r="D321" s="13"/>
       <c r="E321" s="1"/>
@@ -4935,7 +4935,7 @@
       <c r="L321" s="2"/>
       <c r="U321" s="2"/>
     </row>
-    <row r="322" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C322" s="13"/>
       <c r="D322" s="13"/>
       <c r="E322" s="1"/>
@@ -4943,7 +4943,7 @@
       <c r="L322" s="2"/>
       <c r="U322" s="2"/>
     </row>
-    <row r="323" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C323" s="13"/>
       <c r="D323" s="13"/>
       <c r="E323" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="L323" s="2"/>
       <c r="U323" s="2"/>
     </row>
-    <row r="324" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C324" s="13"/>
       <c r="D324" s="13"/>
       <c r="E324" s="1"/>
@@ -4959,7 +4959,7 @@
       <c r="L324" s="2"/>
       <c r="U324" s="2"/>
     </row>
-    <row r="325" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C325" s="13"/>
       <c r="D325" s="13"/>
       <c r="E325" s="1"/>
@@ -4967,7 +4967,7 @@
       <c r="L325" s="2"/>
       <c r="U325" s="2"/>
     </row>
-    <row r="326" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C326" s="13"/>
       <c r="D326" s="13"/>
       <c r="E326" s="1"/>
@@ -4975,7 +4975,7 @@
       <c r="L326" s="2"/>
       <c r="U326" s="2"/>
     </row>
-    <row r="327" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C327" s="13"/>
       <c r="D327" s="13"/>
       <c r="E327" s="1"/>
@@ -4983,7 +4983,7 @@
       <c r="L327" s="2"/>
       <c r="U327" s="2"/>
     </row>
-    <row r="328" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C328" s="13"/>
       <c r="D328" s="13"/>
       <c r="E328" s="1"/>
@@ -4991,7 +4991,7 @@
       <c r="L328" s="2"/>
       <c r="U328" s="2"/>
     </row>
-    <row r="329" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C329" s="13"/>
       <c r="D329" s="13"/>
       <c r="E329" s="1"/>
@@ -4999,7 +4999,7 @@
       <c r="L329" s="2"/>
       <c r="U329" s="2"/>
     </row>
-    <row r="330" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C330" s="13"/>
       <c r="D330" s="13"/>
       <c r="E330" s="1"/>
@@ -5007,7 +5007,7 @@
       <c r="L330" s="2"/>
       <c r="U330" s="2"/>
     </row>
-    <row r="331" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C331" s="13"/>
       <c r="D331" s="13"/>
       <c r="E331" s="1"/>
@@ -5015,7 +5015,7 @@
       <c r="L331" s="2"/>
       <c r="U331" s="2"/>
     </row>
-    <row r="332" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C332" s="13"/>
       <c r="D332" s="13"/>
       <c r="E332" s="1"/>
@@ -5023,7 +5023,7 @@
       <c r="L332" s="2"/>
       <c r="U332" s="2"/>
     </row>
-    <row r="333" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C333" s="13"/>
       <c r="D333" s="13"/>
       <c r="E333" s="1"/>
@@ -5031,7 +5031,7 @@
       <c r="L333" s="2"/>
       <c r="U333" s="2"/>
     </row>
-    <row r="334" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C334" s="13"/>
       <c r="D334" s="13"/>
       <c r="E334" s="1"/>
@@ -5039,7 +5039,7 @@
       <c r="L334" s="2"/>
       <c r="U334" s="2"/>
     </row>
-    <row r="335" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C335" s="13"/>
       <c r="D335" s="13"/>
       <c r="E335" s="1"/>
@@ -5047,7 +5047,7 @@
       <c r="L335" s="2"/>
       <c r="U335" s="2"/>
     </row>
-    <row r="336" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C336" s="13"/>
       <c r="D336" s="13"/>
       <c r="E336" s="1"/>
@@ -5055,7 +5055,7 @@
       <c r="L336" s="2"/>
       <c r="U336" s="2"/>
     </row>
-    <row r="337" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C337" s="13"/>
       <c r="D337" s="13"/>
       <c r="E337" s="1"/>
@@ -5063,7 +5063,7 @@
       <c r="L337" s="2"/>
       <c r="U337" s="2"/>
     </row>
-    <row r="338" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C338" s="13"/>
       <c r="D338" s="13"/>
       <c r="E338" s="1"/>
@@ -5071,7 +5071,7 @@
       <c r="L338" s="2"/>
       <c r="U338" s="2"/>
     </row>
-    <row r="339" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C339" s="13"/>
       <c r="D339" s="13"/>
       <c r="E339" s="1"/>
@@ -5079,7 +5079,7 @@
       <c r="L339" s="2"/>
       <c r="U339" s="2"/>
     </row>
-    <row r="340" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C340" s="13"/>
       <c r="D340" s="13"/>
       <c r="E340" s="1"/>
@@ -5087,7 +5087,7 @@
       <c r="L340" s="2"/>
       <c r="U340" s="2"/>
     </row>
-    <row r="341" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C341" s="13"/>
       <c r="D341" s="13"/>
       <c r="E341" s="1"/>
@@ -5095,7 +5095,7 @@
       <c r="L341" s="2"/>
       <c r="U341" s="2"/>
     </row>
-    <row r="342" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C342" s="13"/>
       <c r="D342" s="13"/>
       <c r="E342" s="1"/>
@@ -5103,7 +5103,7 @@
       <c r="L342" s="2"/>
       <c r="U342" s="2"/>
     </row>
-    <row r="343" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C343" s="13"/>
       <c r="D343" s="13"/>
       <c r="E343" s="1"/>
@@ -5111,7 +5111,7 @@
       <c r="L343" s="2"/>
       <c r="U343" s="2"/>
     </row>
-    <row r="344" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C344" s="13"/>
       <c r="D344" s="13"/>
       <c r="E344" s="1"/>
@@ -5119,7 +5119,7 @@
       <c r="L344" s="2"/>
       <c r="U344" s="2"/>
     </row>
-    <row r="345" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C345" s="13"/>
       <c r="D345" s="13"/>
       <c r="E345" s="1"/>
@@ -5127,7 +5127,7 @@
       <c r="L345" s="2"/>
       <c r="U345" s="2"/>
     </row>
-    <row r="346" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
       <c r="E346" s="1"/>
@@ -5135,7 +5135,7 @@
       <c r="L346" s="2"/>
       <c r="U346" s="2"/>
     </row>
-    <row r="347" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C347" s="13"/>
       <c r="D347" s="13"/>
       <c r="E347" s="1"/>
@@ -5143,7 +5143,7 @@
       <c r="L347" s="2"/>
       <c r="U347" s="2"/>
     </row>
-    <row r="348" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C348" s="13"/>
       <c r="D348" s="13"/>
       <c r="E348" s="1"/>
@@ -5151,7 +5151,7 @@
       <c r="L348" s="2"/>
       <c r="U348" s="2"/>
     </row>
-    <row r="349" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C349" s="13"/>
       <c r="D349" s="13"/>
       <c r="E349" s="1"/>
@@ -5159,7 +5159,7 @@
       <c r="L349" s="2"/>
       <c r="U349" s="2"/>
     </row>
-    <row r="350" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C350" s="13"/>
       <c r="D350" s="13"/>
       <c r="E350" s="1"/>
@@ -5167,7 +5167,7 @@
       <c r="L350" s="2"/>
       <c r="U350" s="2"/>
     </row>
-    <row r="351" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C351" s="13"/>
       <c r="D351" s="13"/>
       <c r="E351" s="1"/>
@@ -5175,7 +5175,7 @@
       <c r="L351" s="2"/>
       <c r="U351" s="2"/>
     </row>
-    <row r="352" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C352" s="13"/>
       <c r="D352" s="13"/>
       <c r="E352" s="1"/>
@@ -5183,7 +5183,7 @@
       <c r="L352" s="2"/>
       <c r="U352" s="2"/>
     </row>
-    <row r="353" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C353" s="13"/>
       <c r="D353" s="13"/>
       <c r="E353" s="1"/>
@@ -5191,7 +5191,7 @@
       <c r="L353" s="2"/>
       <c r="U353" s="2"/>
     </row>
-    <row r="354" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C354" s="13"/>
       <c r="D354" s="13"/>
       <c r="E354" s="1"/>
@@ -5199,7 +5199,7 @@
       <c r="L354" s="2"/>
       <c r="U354" s="2"/>
     </row>
-    <row r="355" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C355" s="13"/>
       <c r="D355" s="13"/>
       <c r="E355" s="1"/>
@@ -5207,7 +5207,7 @@
       <c r="L355" s="2"/>
       <c r="U355" s="2"/>
     </row>
-    <row r="356" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C356" s="13"/>
       <c r="D356" s="13"/>
       <c r="E356" s="1"/>
@@ -5215,7 +5215,7 @@
       <c r="L356" s="2"/>
       <c r="U356" s="2"/>
     </row>
-    <row r="357" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C357" s="13"/>
       <c r="D357" s="13"/>
       <c r="E357" s="1"/>
@@ -5223,7 +5223,7 @@
       <c r="L357" s="2"/>
       <c r="U357" s="2"/>
     </row>
-    <row r="358" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C358" s="13"/>
       <c r="D358" s="13"/>
       <c r="E358" s="1"/>
@@ -5231,7 +5231,7 @@
       <c r="L358" s="2"/>
       <c r="U358" s="2"/>
     </row>
-    <row r="359" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C359" s="13"/>
       <c r="D359" s="13"/>
       <c r="E359" s="1"/>
@@ -5239,7 +5239,7 @@
       <c r="L359" s="2"/>
       <c r="U359" s="2"/>
     </row>
-    <row r="360" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C360" s="13"/>
       <c r="D360" s="13"/>
       <c r="E360" s="1"/>
@@ -5247,7 +5247,7 @@
       <c r="L360" s="2"/>
       <c r="U360" s="2"/>
     </row>
-    <row r="361" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C361" s="13"/>
       <c r="D361" s="13"/>
       <c r="E361" s="1"/>
@@ -5255,7 +5255,7 @@
       <c r="L361" s="2"/>
       <c r="U361" s="2"/>
     </row>
-    <row r="362" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C362" s="13"/>
       <c r="D362" s="13"/>
       <c r="E362" s="1"/>
@@ -5263,7 +5263,7 @@
       <c r="L362" s="2"/>
       <c r="U362" s="2"/>
     </row>
-    <row r="363" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C363" s="13"/>
       <c r="D363" s="13"/>
       <c r="E363" s="1"/>
@@ -5271,7 +5271,7 @@
       <c r="L363" s="2"/>
       <c r="U363" s="2"/>
     </row>
-    <row r="364" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C364" s="13"/>
       <c r="D364" s="13"/>
       <c r="E364" s="1"/>
@@ -5279,7 +5279,7 @@
       <c r="L364" s="2"/>
       <c r="U364" s="2"/>
     </row>
-    <row r="365" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C365" s="13"/>
       <c r="D365" s="13"/>
       <c r="E365" s="1"/>
@@ -5287,7 +5287,7 @@
       <c r="L365" s="2"/>
       <c r="U365" s="2"/>
     </row>
-    <row r="366" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C366" s="13"/>
       <c r="D366" s="13"/>
       <c r="E366" s="1"/>
@@ -5295,7 +5295,7 @@
       <c r="L366" s="2"/>
       <c r="U366" s="2"/>
     </row>
-    <row r="367" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C367" s="13"/>
       <c r="D367" s="13"/>
       <c r="E367" s="1"/>
@@ -5303,7 +5303,7 @@
       <c r="L367" s="2"/>
       <c r="U367" s="2"/>
     </row>
-    <row r="368" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C368" s="13"/>
       <c r="D368" s="13"/>
       <c r="E368" s="1"/>
@@ -5311,7 +5311,7 @@
       <c r="L368" s="2"/>
       <c r="U368" s="2"/>
     </row>
-    <row r="369" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
       <c r="E369" s="1"/>
@@ -5319,7 +5319,7 @@
       <c r="L369" s="2"/>
       <c r="U369" s="2"/>
     </row>
-    <row r="370" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C370" s="13"/>
       <c r="D370" s="13"/>
       <c r="E370" s="1"/>
@@ -5327,7 +5327,7 @@
       <c r="L370" s="2"/>
       <c r="U370" s="2"/>
     </row>
-    <row r="371" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C371" s="13"/>
       <c r="D371" s="13"/>
       <c r="E371" s="1"/>
@@ -5335,7 +5335,7 @@
       <c r="L371" s="2"/>
       <c r="U371" s="2"/>
     </row>
-    <row r="372" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C372" s="13"/>
       <c r="D372" s="13"/>
       <c r="E372" s="1"/>
@@ -5343,7 +5343,7 @@
       <c r="L372" s="2"/>
       <c r="U372" s="2"/>
     </row>
-    <row r="373" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C373" s="13"/>
       <c r="D373" s="13"/>
       <c r="E373" s="1"/>
@@ -5351,7 +5351,7 @@
       <c r="L373" s="2"/>
       <c r="U373" s="2"/>
     </row>
-    <row r="374" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C374" s="13"/>
       <c r="D374" s="13"/>
       <c r="E374" s="1"/>
@@ -5359,7 +5359,7 @@
       <c r="L374" s="2"/>
       <c r="U374" s="2"/>
     </row>
-    <row r="375" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C375" s="13"/>
       <c r="D375" s="13"/>
       <c r="E375" s="1"/>
@@ -5367,7 +5367,7 @@
       <c r="L375" s="2"/>
       <c r="U375" s="2"/>
     </row>
-    <row r="376" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C376" s="13"/>
       <c r="D376" s="13"/>
       <c r="E376" s="1"/>
@@ -5375,7 +5375,7 @@
       <c r="L376" s="2"/>
       <c r="U376" s="2"/>
     </row>
-    <row r="377" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C377" s="13"/>
       <c r="D377" s="13"/>
       <c r="E377" s="1"/>
@@ -5383,7 +5383,7 @@
       <c r="L377" s="2"/>
       <c r="U377" s="2"/>
     </row>
-    <row r="378" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C378" s="13"/>
       <c r="D378" s="13"/>
       <c r="E378" s="1"/>
@@ -5391,7 +5391,7 @@
       <c r="L378" s="2"/>
       <c r="U378" s="2"/>
     </row>
-    <row r="379" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C379" s="13"/>
       <c r="D379" s="13"/>
       <c r="E379" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="L379" s="2"/>
       <c r="U379" s="2"/>
     </row>
-    <row r="380" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C380" s="13"/>
       <c r="D380" s="13"/>
       <c r="E380" s="1"/>
@@ -5407,7 +5407,7 @@
       <c r="L380" s="2"/>
       <c r="U380" s="2"/>
     </row>
-    <row r="381" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C381" s="13"/>
       <c r="D381" s="13"/>
       <c r="E381" s="1"/>
@@ -5415,7 +5415,7 @@
       <c r="L381" s="2"/>
       <c r="U381" s="2"/>
     </row>
-    <row r="382" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C382" s="13"/>
       <c r="D382" s="13"/>
       <c r="E382" s="1"/>
@@ -5423,7 +5423,7 @@
       <c r="L382" s="2"/>
       <c r="U382" s="2"/>
     </row>
-    <row r="383" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C383" s="13"/>
       <c r="D383" s="13"/>
       <c r="E383" s="1"/>
@@ -5431,7 +5431,7 @@
       <c r="L383" s="2"/>
       <c r="U383" s="2"/>
     </row>
-    <row r="384" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C384" s="13"/>
       <c r="D384" s="13"/>
       <c r="E384" s="1"/>
@@ -5439,7 +5439,7 @@
       <c r="L384" s="2"/>
       <c r="U384" s="2"/>
     </row>
-    <row r="385" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C385" s="13"/>
       <c r="D385" s="13"/>
       <c r="E385" s="1"/>
@@ -5447,7 +5447,7 @@
       <c r="L385" s="2"/>
       <c r="U385" s="2"/>
     </row>
-    <row r="386" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C386" s="13"/>
       <c r="D386" s="13"/>
       <c r="E386" s="1"/>
@@ -5455,7 +5455,7 @@
       <c r="L386" s="2"/>
       <c r="U386" s="2"/>
     </row>
-    <row r="387" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C387" s="13"/>
       <c r="D387" s="13"/>
       <c r="E387" s="1"/>
@@ -5463,7 +5463,7 @@
       <c r="L387" s="2"/>
       <c r="U387" s="2"/>
     </row>
-    <row r="388" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C388" s="13"/>
       <c r="D388" s="13"/>
       <c r="E388" s="1"/>
@@ -5471,7 +5471,7 @@
       <c r="L388" s="2"/>
       <c r="U388" s="2"/>
     </row>
-    <row r="389" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C389" s="13"/>
       <c r="D389" s="13"/>
       <c r="E389" s="1"/>
@@ -5479,7 +5479,7 @@
       <c r="L389" s="2"/>
       <c r="U389" s="2"/>
     </row>
-    <row r="390" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C390" s="13"/>
       <c r="D390" s="13"/>
       <c r="E390" s="1"/>
@@ -5487,7 +5487,7 @@
       <c r="L390" s="2"/>
       <c r="U390" s="2"/>
     </row>
-    <row r="391" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C391" s="13"/>
       <c r="D391" s="13"/>
       <c r="E391" s="1"/>
@@ -5495,7 +5495,7 @@
       <c r="L391" s="2"/>
       <c r="U391" s="2"/>
     </row>
-    <row r="392" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C392" s="13"/>
       <c r="D392" s="13"/>
       <c r="E392" s="1"/>
@@ -5503,7 +5503,7 @@
       <c r="L392" s="2"/>
       <c r="U392" s="2"/>
     </row>
-    <row r="393" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C393" s="13"/>
       <c r="D393" s="13"/>
       <c r="E393" s="1"/>
@@ -5511,7 +5511,7 @@
       <c r="L393" s="2"/>
       <c r="U393" s="2"/>
     </row>
-    <row r="394" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C394" s="13"/>
       <c r="D394" s="13"/>
       <c r="E394" s="1"/>
@@ -5519,7 +5519,7 @@
       <c r="L394" s="2"/>
       <c r="U394" s="2"/>
     </row>
-    <row r="395" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C395" s="13"/>
       <c r="D395" s="13"/>
       <c r="E395" s="1"/>
@@ -5527,7 +5527,7 @@
       <c r="L395" s="2"/>
       <c r="U395" s="2"/>
     </row>
-    <row r="396" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C396" s="13"/>
       <c r="D396" s="13"/>
       <c r="E396" s="1"/>
@@ -5535,7 +5535,7 @@
       <c r="L396" s="2"/>
       <c r="U396" s="2"/>
     </row>
-    <row r="397" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C397" s="13"/>
       <c r="D397" s="13"/>
       <c r="E397" s="1"/>
@@ -5543,7 +5543,7 @@
       <c r="L397" s="2"/>
       <c r="U397" s="2"/>
     </row>
-    <row r="398" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C398" s="13"/>
       <c r="D398" s="13"/>
       <c r="E398" s="1"/>
@@ -5551,7 +5551,7 @@
       <c r="L398" s="2"/>
       <c r="U398" s="2"/>
     </row>
-    <row r="399" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C399" s="13"/>
       <c r="D399" s="13"/>
       <c r="E399" s="1"/>
@@ -5559,7 +5559,7 @@
       <c r="L399" s="2"/>
       <c r="U399" s="2"/>
     </row>
-    <row r="400" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C400" s="13"/>
       <c r="D400" s="13"/>
       <c r="E400" s="1"/>
@@ -5567,7 +5567,7 @@
       <c r="L400" s="2"/>
       <c r="U400" s="2"/>
     </row>
-    <row r="401" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C401" s="13"/>
       <c r="D401" s="13"/>
       <c r="E401" s="1"/>
@@ -5575,7 +5575,7 @@
       <c r="L401" s="2"/>
       <c r="U401" s="2"/>
     </row>
-    <row r="402" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C402" s="13"/>
       <c r="D402" s="13"/>
       <c r="E402" s="1"/>
@@ -5583,7 +5583,7 @@
       <c r="L402" s="2"/>
       <c r="U402" s="2"/>
     </row>
-    <row r="403" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C403" s="13"/>
       <c r="D403" s="13"/>
       <c r="E403" s="1"/>
@@ -5591,7 +5591,7 @@
       <c r="L403" s="2"/>
       <c r="U403" s="2"/>
     </row>
-    <row r="404" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C404" s="13"/>
       <c r="D404" s="13"/>
       <c r="E404" s="1"/>
@@ -5599,7 +5599,7 @@
       <c r="L404" s="2"/>
       <c r="U404" s="2"/>
     </row>
-    <row r="405" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C405" s="13"/>
       <c r="D405" s="13"/>
       <c r="E405" s="1"/>
@@ -5607,7 +5607,7 @@
       <c r="L405" s="2"/>
       <c r="U405" s="2"/>
     </row>
-    <row r="406" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
       <c r="E406" s="1"/>
@@ -5615,7 +5615,7 @@
       <c r="L406" s="2"/>
       <c r="U406" s="2"/>
     </row>
-    <row r="407" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C407" s="13"/>
       <c r="D407" s="13"/>
       <c r="E407" s="1"/>
@@ -5623,7 +5623,7 @@
       <c r="L407" s="2"/>
       <c r="U407" s="2"/>
     </row>
-    <row r="408" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C408" s="13"/>
       <c r="D408" s="13"/>
       <c r="E408" s="1"/>
@@ -5631,7 +5631,7 @@
       <c r="L408" s="2"/>
       <c r="U408" s="2"/>
     </row>
-    <row r="409" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C409" s="13"/>
       <c r="D409" s="13"/>
       <c r="E409" s="1"/>
@@ -5639,7 +5639,7 @@
       <c r="L409" s="2"/>
       <c r="U409" s="2"/>
     </row>
-    <row r="410" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C410" s="13"/>
       <c r="D410" s="13"/>
       <c r="E410" s="1"/>
@@ -5647,7 +5647,7 @@
       <c r="L410" s="2"/>
       <c r="U410" s="2"/>
     </row>
-    <row r="411" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C411" s="13"/>
       <c r="D411" s="13"/>
       <c r="E411" s="1"/>
@@ -5655,7 +5655,7 @@
       <c r="L411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C412" s="13"/>
       <c r="D412" s="13"/>
       <c r="E412" s="1"/>
@@ -5663,7 +5663,7 @@
       <c r="L412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C413" s="13"/>
       <c r="D413" s="13"/>
       <c r="E413" s="1"/>
@@ -5671,7 +5671,7 @@
       <c r="L413" s="2"/>
       <c r="U413" s="2"/>
     </row>
-    <row r="414" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C414" s="13"/>
       <c r="D414" s="13"/>
       <c r="E414" s="1"/>
@@ -5679,7 +5679,7 @@
       <c r="L414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C415" s="13"/>
       <c r="D415" s="13"/>
       <c r="E415" s="1"/>
@@ -5687,7 +5687,7 @@
       <c r="L415" s="2"/>
       <c r="U415" s="2"/>
     </row>
-    <row r="416" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C416" s="13"/>
       <c r="D416" s="13"/>
       <c r="E416" s="1"/>
@@ -5695,7 +5695,7 @@
       <c r="L416" s="2"/>
       <c r="U416" s="2"/>
     </row>
-    <row r="417" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C417" s="13"/>
       <c r="D417" s="13"/>
       <c r="E417" s="1"/>
@@ -5703,7 +5703,7 @@
       <c r="L417" s="2"/>
       <c r="U417" s="2"/>
     </row>
-    <row r="418" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C418" s="13"/>
       <c r="D418" s="13"/>
       <c r="E418" s="1"/>
@@ -5711,7 +5711,7 @@
       <c r="L418" s="2"/>
       <c r="U418" s="2"/>
     </row>
-    <row r="419" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C419" s="13"/>
       <c r="D419" s="13"/>
       <c r="E419" s="1"/>
@@ -5719,7 +5719,7 @@
       <c r="L419" s="2"/>
       <c r="U419" s="2"/>
     </row>
-    <row r="420" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C420" s="13"/>
       <c r="D420" s="13"/>
       <c r="E420" s="1"/>
@@ -5727,7 +5727,7 @@
       <c r="L420" s="2"/>
       <c r="U420" s="2"/>
     </row>
-    <row r="421" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C421" s="13"/>
       <c r="D421" s="13"/>
       <c r="E421" s="1"/>
@@ -5735,7 +5735,7 @@
       <c r="L421" s="2"/>
       <c r="U421" s="2"/>
     </row>
-    <row r="422" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C422" s="13"/>
       <c r="D422" s="13"/>
       <c r="E422" s="1"/>
@@ -5743,7 +5743,7 @@
       <c r="L422" s="2"/>
       <c r="U422" s="2"/>
     </row>
-    <row r="423" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C423" s="13"/>
       <c r="D423" s="13"/>
       <c r="E423" s="1"/>
@@ -5751,7 +5751,7 @@
       <c r="L423" s="2"/>
       <c r="U423" s="2"/>
     </row>
-    <row r="424" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C424" s="13"/>
       <c r="D424" s="13"/>
       <c r="E424" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="L424" s="2"/>
       <c r="U424" s="2"/>
     </row>
-    <row r="425" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C425" s="13"/>
       <c r="D425" s="13"/>
       <c r="E425" s="1"/>
@@ -5767,7 +5767,7 @@
       <c r="L425" s="2"/>
       <c r="U425" s="2"/>
     </row>
-    <row r="426" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C426" s="13"/>
       <c r="D426" s="13"/>
       <c r="E426" s="1"/>
@@ -5775,7 +5775,7 @@
       <c r="L426" s="2"/>
       <c r="U426" s="2"/>
     </row>
-    <row r="427" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C427" s="13"/>
       <c r="D427" s="13"/>
       <c r="E427" s="1"/>
@@ -5783,7 +5783,7 @@
       <c r="L427" s="2"/>
       <c r="U427" s="2"/>
     </row>
-    <row r="428" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C428" s="13"/>
       <c r="D428" s="13"/>
       <c r="E428" s="1"/>
@@ -5791,7 +5791,7 @@
       <c r="L428" s="2"/>
       <c r="U428" s="2"/>
     </row>
-    <row r="429" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C429" s="13"/>
       <c r="D429" s="13"/>
       <c r="E429" s="1"/>
@@ -5799,7 +5799,7 @@
       <c r="L429" s="2"/>
       <c r="U429" s="2"/>
     </row>
-    <row r="430" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C430" s="13"/>
       <c r="D430" s="13"/>
       <c r="E430" s="1"/>
@@ -5807,7 +5807,7 @@
       <c r="L430" s="2"/>
       <c r="U430" s="2"/>
     </row>
-    <row r="431" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C431" s="13"/>
       <c r="D431" s="13"/>
       <c r="E431" s="1"/>
@@ -5815,7 +5815,7 @@
       <c r="L431" s="2"/>
       <c r="U431" s="2"/>
     </row>
-    <row r="432" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C432" s="13"/>
       <c r="D432" s="13"/>
       <c r="E432" s="1"/>
@@ -5823,7 +5823,7 @@
       <c r="L432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C433" s="13"/>
       <c r="D433" s="13"/>
       <c r="E433" s="1"/>
@@ -5831,7 +5831,7 @@
       <c r="L433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C434" s="13"/>
       <c r="D434" s="13"/>
       <c r="E434" s="1"/>
@@ -5839,7 +5839,7 @@
       <c r="L434" s="2"/>
       <c r="U434" s="2"/>
     </row>
-    <row r="435" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C435" s="13"/>
       <c r="D435" s="13"/>
       <c r="E435" s="1"/>
@@ -5847,7 +5847,7 @@
       <c r="L435" s="2"/>
       <c r="U435" s="2"/>
     </row>
-    <row r="436" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C436" s="13"/>
       <c r="D436" s="13"/>
       <c r="E436" s="1"/>
@@ -5855,7 +5855,7 @@
       <c r="L436" s="2"/>
       <c r="U436" s="2"/>
     </row>
-    <row r="437" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C437" s="13"/>
       <c r="D437" s="13"/>
       <c r="E437" s="1"/>
@@ -5863,7 +5863,7 @@
       <c r="L437" s="2"/>
       <c r="U437" s="2"/>
     </row>
-    <row r="438" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C438" s="13"/>
       <c r="D438" s="13"/>
       <c r="E438" s="1"/>
@@ -5871,7 +5871,7 @@
       <c r="L438" s="2"/>
       <c r="U438" s="2"/>
     </row>
-    <row r="439" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C439" s="13"/>
       <c r="D439" s="13"/>
       <c r="E439" s="1"/>
@@ -5879,7 +5879,7 @@
       <c r="L439" s="2"/>
       <c r="U439" s="2"/>
     </row>
-    <row r="440" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C440" s="13"/>
       <c r="D440" s="13"/>
       <c r="E440" s="1"/>
@@ -5887,7 +5887,7 @@
       <c r="L440" s="2"/>
       <c r="U440" s="2"/>
     </row>
-    <row r="441" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C441" s="13"/>
       <c r="D441" s="13"/>
       <c r="E441" s="1"/>
@@ -5895,7 +5895,7 @@
       <c r="L441" s="2"/>
       <c r="U441" s="2"/>
     </row>
-    <row r="442" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C442" s="13"/>
       <c r="D442" s="13"/>
       <c r="E442" s="1"/>
@@ -5903,7 +5903,7 @@
       <c r="L442" s="2"/>
       <c r="U442" s="2"/>
     </row>
-    <row r="443" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C443" s="13"/>
       <c r="D443" s="13"/>
       <c r="E443" s="1"/>
@@ -5911,7 +5911,7 @@
       <c r="L443" s="2"/>
       <c r="U443" s="2"/>
     </row>
-    <row r="444" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C444" s="13"/>
       <c r="D444" s="13"/>
       <c r="E444" s="1"/>
@@ -5919,7 +5919,7 @@
       <c r="L444" s="2"/>
       <c r="U444" s="2"/>
     </row>
-    <row r="445" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C445" s="13"/>
       <c r="D445" s="13"/>
       <c r="E445" s="1"/>
@@ -5927,7 +5927,7 @@
       <c r="L445" s="2"/>
       <c r="U445" s="2"/>
     </row>
-    <row r="446" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C446" s="13"/>
       <c r="D446" s="13"/>
       <c r="E446" s="1"/>
@@ -5935,7 +5935,7 @@
       <c r="L446" s="2"/>
       <c r="U446" s="2"/>
     </row>
-    <row r="447" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C447" s="13"/>
       <c r="D447" s="13"/>
       <c r="E447" s="1"/>
@@ -5943,7 +5943,7 @@
       <c r="L447" s="2"/>
       <c r="U447" s="2"/>
     </row>
-    <row r="448" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C448" s="13"/>
       <c r="D448" s="13"/>
       <c r="E448" s="1"/>
@@ -5951,7 +5951,7 @@
       <c r="L448" s="2"/>
       <c r="U448" s="2"/>
     </row>
-    <row r="449" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C449" s="13"/>
       <c r="D449" s="13"/>
       <c r="E449" s="1"/>
@@ -5959,7 +5959,7 @@
       <c r="L449" s="2"/>
       <c r="U449" s="2"/>
     </row>
-    <row r="450" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C450" s="13"/>
       <c r="D450" s="13"/>
       <c r="E450" s="1"/>
@@ -5967,7 +5967,7 @@
       <c r="L450" s="2"/>
       <c r="U450" s="2"/>
     </row>
-    <row r="451" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C451" s="13"/>
       <c r="D451" s="13"/>
       <c r="E451" s="1"/>
@@ -5975,7 +5975,7 @@
       <c r="L451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C452" s="13"/>
       <c r="D452" s="13"/>
       <c r="E452" s="1"/>
@@ -5983,7 +5983,7 @@
       <c r="L452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C453" s="13"/>
       <c r="D453" s="13"/>
       <c r="E453" s="1"/>
@@ -5991,7 +5991,7 @@
       <c r="L453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C454" s="13"/>
       <c r="D454" s="13"/>
       <c r="E454" s="1"/>
@@ -5999,7 +5999,7 @@
       <c r="L454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C455" s="13"/>
       <c r="D455" s="13"/>
       <c r="E455" s="1"/>
@@ -6007,7 +6007,7 @@
       <c r="L455" s="2"/>
       <c r="U455" s="2"/>
     </row>
-    <row r="456" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C456" s="13"/>
       <c r="D456" s="13"/>
       <c r="E456" s="1"/>
@@ -6015,7 +6015,7 @@
       <c r="L456" s="2"/>
       <c r="U456" s="2"/>
     </row>
-    <row r="457" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C457" s="13"/>
       <c r="D457" s="13"/>
       <c r="E457" s="1"/>
@@ -6023,7 +6023,7 @@
       <c r="L457" s="2"/>
       <c r="U457" s="2"/>
     </row>
-    <row r="458" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C458" s="13"/>
       <c r="D458" s="13"/>
       <c r="E458" s="1"/>
@@ -6031,7 +6031,7 @@
       <c r="L458" s="2"/>
       <c r="U458" s="2"/>
     </row>
-    <row r="459" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C459" s="13"/>
       <c r="D459" s="13"/>
       <c r="E459" s="1"/>
@@ -6039,7 +6039,7 @@
       <c r="L459" s="2"/>
       <c r="U459" s="2"/>
     </row>
-    <row r="460" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C460" s="13"/>
       <c r="D460" s="13"/>
       <c r="E460" s="1"/>
@@ -6047,7 +6047,7 @@
       <c r="L460" s="2"/>
       <c r="U460" s="2"/>
     </row>
-    <row r="461" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C461" s="13"/>
       <c r="D461" s="13"/>
       <c r="E461" s="1"/>
@@ -6055,7 +6055,7 @@
       <c r="L461" s="2"/>
       <c r="U461" s="2"/>
     </row>
-    <row r="462" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C462" s="13"/>
       <c r="D462" s="13"/>
       <c r="E462" s="1"/>
@@ -6063,7 +6063,7 @@
       <c r="L462" s="2"/>
       <c r="U462" s="2"/>
     </row>
-    <row r="463" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C463" s="13"/>
       <c r="D463" s="13"/>
       <c r="E463" s="1"/>
@@ -6071,7 +6071,7 @@
       <c r="L463" s="2"/>
       <c r="U463" s="2"/>
     </row>
-    <row r="464" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C464" s="13"/>
       <c r="D464" s="13"/>
       <c r="E464" s="1"/>
@@ -6079,7 +6079,7 @@
       <c r="L464" s="2"/>
       <c r="U464" s="2"/>
     </row>
-    <row r="465" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C465" s="13"/>
       <c r="D465" s="13"/>
       <c r="E465" s="1"/>
@@ -6087,7 +6087,7 @@
       <c r="L465" s="2"/>
       <c r="U465" s="2"/>
     </row>
-    <row r="466" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C466" s="13"/>
       <c r="D466" s="13"/>
       <c r="E466" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="L466" s="2"/>
       <c r="U466" s="2"/>
     </row>
-    <row r="467" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C467" s="13"/>
       <c r="D467" s="13"/>
       <c r="E467" s="1"/>
@@ -6103,7 +6103,7 @@
       <c r="L467" s="2"/>
       <c r="U467" s="2"/>
     </row>
-    <row r="468" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C468" s="13"/>
       <c r="D468" s="13"/>
       <c r="E468" s="1"/>
@@ -6111,7 +6111,7 @@
       <c r="L468" s="2"/>
       <c r="U468" s="2"/>
     </row>
-    <row r="469" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C469" s="13"/>
       <c r="D469" s="13"/>
       <c r="E469" s="1"/>
@@ -6119,7 +6119,7 @@
       <c r="L469" s="2"/>
       <c r="U469" s="2"/>
     </row>
-    <row r="470" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C470" s="13"/>
       <c r="D470" s="13"/>
       <c r="E470" s="1"/>
@@ -6127,7 +6127,7 @@
       <c r="L470" s="2"/>
       <c r="U470" s="2"/>
     </row>
-    <row r="471" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C471" s="13"/>
       <c r="D471" s="13"/>
       <c r="E471" s="1"/>
@@ -6135,7 +6135,7 @@
       <c r="L471" s="2"/>
       <c r="U471" s="2"/>
     </row>
-    <row r="472" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C472" s="13"/>
       <c r="D472" s="13"/>
       <c r="E472" s="1"/>
@@ -6143,7 +6143,7 @@
       <c r="L472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C473" s="13"/>
       <c r="D473" s="13"/>
       <c r="E473" s="1"/>
@@ -6151,7 +6151,7 @@
       <c r="L473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C474" s="13"/>
       <c r="D474" s="13"/>
       <c r="E474" s="1"/>
@@ -6159,7 +6159,7 @@
       <c r="L474" s="2"/>
       <c r="U474" s="2"/>
     </row>
-    <row r="475" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C475" s="13"/>
       <c r="D475" s="13"/>
       <c r="E475" s="1"/>
@@ -6167,7 +6167,7 @@
       <c r="L475" s="2"/>
       <c r="U475" s="2"/>
     </row>
-    <row r="476" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C476" s="13"/>
       <c r="D476" s="13"/>
       <c r="E476" s="1"/>
@@ -6175,7 +6175,7 @@
       <c r="L476" s="2"/>
       <c r="U476" s="2"/>
     </row>
-    <row r="477" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C477" s="13"/>
       <c r="D477" s="13"/>
       <c r="E477" s="1"/>
@@ -6183,7 +6183,7 @@
       <c r="L477" s="2"/>
       <c r="U477" s="2"/>
     </row>
-    <row r="478" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C478" s="13"/>
       <c r="D478" s="13"/>
       <c r="E478" s="1"/>
@@ -6191,7 +6191,7 @@
       <c r="L478" s="2"/>
       <c r="U478" s="2"/>
     </row>
-    <row r="479" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C479" s="13"/>
       <c r="D479" s="13"/>
       <c r="E479" s="1"/>
@@ -6199,7 +6199,7 @@
       <c r="L479" s="2"/>
       <c r="U479" s="2"/>
     </row>
-    <row r="480" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C480" s="13"/>
       <c r="D480" s="13"/>
       <c r="E480" s="1"/>
@@ -6207,7 +6207,7 @@
       <c r="L480" s="2"/>
       <c r="U480" s="2"/>
     </row>
-    <row r="481" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C481" s="13"/>
       <c r="D481" s="13"/>
       <c r="E481" s="1"/>
@@ -6215,7 +6215,7 @@
       <c r="L481" s="2"/>
       <c r="U481" s="2"/>
     </row>
-    <row r="482" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C482" s="13"/>
       <c r="D482" s="13"/>
       <c r="E482" s="1"/>
@@ -6223,7 +6223,7 @@
       <c r="L482" s="2"/>
       <c r="U482" s="2"/>
     </row>
-    <row r="483" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C483" s="13"/>
       <c r="D483" s="13"/>
       <c r="E483" s="1"/>
@@ -6231,7 +6231,7 @@
       <c r="L483" s="2"/>
       <c r="U483" s="2"/>
     </row>
-    <row r="484" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C484" s="13"/>
       <c r="D484" s="13"/>
       <c r="E484" s="1"/>
@@ -6239,7 +6239,7 @@
       <c r="L484" s="2"/>
       <c r="U484" s="2"/>
     </row>
-    <row r="485" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C485" s="13"/>
       <c r="D485" s="13"/>
       <c r="E485" s="1"/>
@@ -6247,7 +6247,7 @@
       <c r="L485" s="2"/>
       <c r="U485" s="2"/>
     </row>
-    <row r="486" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C486" s="13"/>
       <c r="D486" s="13"/>
       <c r="E486" s="1"/>
@@ -6255,7 +6255,7 @@
       <c r="L486" s="2"/>
       <c r="U486" s="2"/>
     </row>
-    <row r="487" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C487" s="13"/>
       <c r="D487" s="13"/>
       <c r="E487" s="1"/>
@@ -6263,7 +6263,7 @@
       <c r="L487" s="2"/>
       <c r="U487" s="2"/>
     </row>
-    <row r="488" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C488" s="13"/>
       <c r="D488" s="13"/>
       <c r="E488" s="1"/>
@@ -6271,7 +6271,7 @@
       <c r="L488" s="2"/>
       <c r="U488" s="2"/>
     </row>
-    <row r="489" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C489" s="13"/>
       <c r="D489" s="13"/>
       <c r="E489" s="1"/>
@@ -6279,7 +6279,7 @@
       <c r="L489" s="2"/>
       <c r="U489" s="2"/>
     </row>
-    <row r="490" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C490" s="13"/>
       <c r="D490" s="13"/>
       <c r="E490" s="1"/>
@@ -6287,7 +6287,7 @@
       <c r="L490" s="2"/>
       <c r="U490" s="2"/>
     </row>
-    <row r="491" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C491" s="13"/>
       <c r="D491" s="13"/>
       <c r="E491" s="1"/>
@@ -6295,7 +6295,7 @@
       <c r="L491" s="2"/>
       <c r="U491" s="2"/>
     </row>
-    <row r="492" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C492" s="13"/>
       <c r="D492" s="13"/>
       <c r="E492" s="1"/>
@@ -6303,7 +6303,7 @@
       <c r="L492" s="2"/>
       <c r="U492" s="2"/>
     </row>
-    <row r="493" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C493" s="13"/>
       <c r="D493" s="13"/>
       <c r="E493" s="1"/>
@@ -6311,7 +6311,7 @@
       <c r="L493" s="2"/>
       <c r="U493" s="2"/>
     </row>
-    <row r="494" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C494" s="13"/>
       <c r="D494" s="13"/>
       <c r="E494" s="1"/>
@@ -6319,7 +6319,7 @@
       <c r="L494" s="2"/>
       <c r="U494" s="2"/>
     </row>
-    <row r="495" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C495" s="13"/>
       <c r="D495" s="13"/>
       <c r="E495" s="1"/>
@@ -6327,7 +6327,7 @@
       <c r="L495" s="2"/>
       <c r="U495" s="2"/>
     </row>
-    <row r="496" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C496" s="13"/>
       <c r="D496" s="13"/>
       <c r="E496" s="1"/>
@@ -6335,7 +6335,7 @@
       <c r="L496" s="2"/>
       <c r="U496" s="2"/>
     </row>
-    <row r="497" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C497" s="13"/>
       <c r="D497" s="13"/>
       <c r="E497" s="1"/>
@@ -6343,7 +6343,7 @@
       <c r="L497" s="2"/>
       <c r="U497" s="2"/>
     </row>
-    <row r="498" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C498" s="13"/>
       <c r="D498" s="13"/>
       <c r="E498" s="1"/>
@@ -6351,7 +6351,7 @@
       <c r="L498" s="2"/>
       <c r="U498" s="2"/>
     </row>
-    <row r="499" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C499" s="13"/>
       <c r="D499" s="13"/>
       <c r="E499" s="1"/>
@@ -6359,7 +6359,7 @@
       <c r="L499" s="2"/>
       <c r="U499" s="2"/>
     </row>
-    <row r="500" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C500" s="13"/>
       <c r="D500" s="13"/>
       <c r="E500" s="1"/>
@@ -6367,7 +6367,7 @@
       <c r="L500" s="2"/>
       <c r="U500" s="2"/>
     </row>
-    <row r="501" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C501" s="13"/>
       <c r="D501" s="13"/>
       <c r="E501" s="1"/>
@@ -6375,7 +6375,7 @@
       <c r="L501" s="2"/>
       <c r="U501" s="2"/>
     </row>
-    <row r="502" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C502" s="13"/>
       <c r="D502" s="13"/>
       <c r="E502" s="1"/>
@@ -6383,7 +6383,7 @@
       <c r="L502" s="2"/>
       <c r="U502" s="2"/>
     </row>
-    <row r="503" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C503" s="13"/>
       <c r="D503" s="13"/>
       <c r="E503" s="1"/>
@@ -6391,7 +6391,7 @@
       <c r="L503" s="2"/>
       <c r="U503" s="2"/>
     </row>
-    <row r="504" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C504" s="13"/>
       <c r="D504" s="13"/>
       <c r="E504" s="1"/>
@@ -6399,7 +6399,7 @@
       <c r="L504" s="2"/>
       <c r="U504" s="2"/>
     </row>
-    <row r="505" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C505" s="13"/>
       <c r="D505" s="13"/>
       <c r="E505" s="1"/>
@@ -6407,7 +6407,7 @@
       <c r="L505" s="2"/>
       <c r="U505" s="2"/>
     </row>
-    <row r="506" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C506" s="13"/>
       <c r="D506" s="13"/>
       <c r="E506" s="1"/>
@@ -6415,7 +6415,7 @@
       <c r="L506" s="2"/>
       <c r="U506" s="2"/>
     </row>
-    <row r="507" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C507" s="13"/>
       <c r="D507" s="13"/>
       <c r="E507" s="1"/>
@@ -6423,7 +6423,7 @@
       <c r="L507" s="2"/>
       <c r="U507" s="2"/>
     </row>
-    <row r="508" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C508" s="13"/>
       <c r="D508" s="13"/>
       <c r="E508" s="1"/>
@@ -6431,7 +6431,7 @@
       <c r="L508" s="2"/>
       <c r="U508" s="2"/>
     </row>
-    <row r="509" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C509" s="13"/>
       <c r="D509" s="13"/>
       <c r="E509" s="1"/>
@@ -6439,7 +6439,7 @@
       <c r="L509" s="2"/>
       <c r="U509" s="2"/>
     </row>
-    <row r="510" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C510" s="13"/>
       <c r="D510" s="13"/>
       <c r="E510" s="1"/>
@@ -6447,7 +6447,7 @@
       <c r="L510" s="2"/>
       <c r="U510" s="2"/>
     </row>
-    <row r="511" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C511" s="13"/>
       <c r="D511" s="13"/>
       <c r="E511" s="1"/>
@@ -6455,7 +6455,7 @@
       <c r="L511" s="2"/>
       <c r="U511" s="2"/>
     </row>
-    <row r="512" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C512" s="13"/>
       <c r="D512" s="13"/>
       <c r="E512" s="1"/>
@@ -6463,7 +6463,7 @@
       <c r="L512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C513" s="13"/>
       <c r="D513" s="13"/>
       <c r="E513" s="1"/>
@@ -6471,7 +6471,7 @@
       <c r="L513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C514" s="13"/>
       <c r="D514" s="13"/>
       <c r="E514" s="1"/>
@@ -6479,7 +6479,7 @@
       <c r="L514" s="2"/>
       <c r="U514" s="2"/>
     </row>
-    <row r="515" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C515" s="13"/>
       <c r="D515" s="13"/>
       <c r="E515" s="1"/>
@@ -6487,7 +6487,7 @@
       <c r="L515" s="2"/>
       <c r="U515" s="2"/>
     </row>
-    <row r="516" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C516" s="13"/>
       <c r="D516" s="13"/>
       <c r="E516" s="1"/>
@@ -6495,7 +6495,7 @@
       <c r="L516" s="2"/>
       <c r="U516" s="2"/>
     </row>
-    <row r="517" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C517" s="13"/>
       <c r="D517" s="13"/>
       <c r="E517" s="1"/>
@@ -6503,7 +6503,7 @@
       <c r="L517" s="2"/>
       <c r="U517" s="2"/>
     </row>
-    <row r="518" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C518" s="13"/>
       <c r="D518" s="13"/>
       <c r="E518" s="1"/>
@@ -6511,7 +6511,7 @@
       <c r="L518" s="2"/>
       <c r="U518" s="2"/>
     </row>
-    <row r="519" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C519" s="13"/>
       <c r="D519" s="13"/>
       <c r="E519" s="1"/>
@@ -6519,7 +6519,7 @@
       <c r="L519" s="2"/>
       <c r="U519" s="2"/>
     </row>
-    <row r="520" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C520" s="13"/>
       <c r="D520" s="13"/>
       <c r="E520" s="1"/>
@@ -6527,7 +6527,7 @@
       <c r="L520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C521" s="13"/>
       <c r="D521" s="13"/>
       <c r="E521" s="1"/>
@@ -6535,7 +6535,7 @@
       <c r="L521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C522" s="13"/>
       <c r="D522" s="13"/>
       <c r="E522" s="1"/>
@@ -6543,7 +6543,7 @@
       <c r="L522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C523" s="13"/>
       <c r="D523" s="13"/>
       <c r="E523" s="1"/>
@@ -6551,7 +6551,7 @@
       <c r="L523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C524" s="13"/>
       <c r="D524" s="13"/>
       <c r="E524" s="1"/>
@@ -6559,7 +6559,7 @@
       <c r="L524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C525" s="13"/>
       <c r="D525" s="13"/>
       <c r="E525" s="1"/>
@@ -6567,7 +6567,7 @@
       <c r="L525" s="2"/>
       <c r="U525" s="2"/>
     </row>
-    <row r="526" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C526" s="13"/>
       <c r="D526" s="13"/>
       <c r="E526" s="1"/>
@@ -6575,7 +6575,7 @@
       <c r="L526" s="2"/>
       <c r="U526" s="2"/>
     </row>
-    <row r="527" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C527" s="13"/>
       <c r="D527" s="13"/>
       <c r="E527" s="1"/>
@@ -6583,7 +6583,7 @@
       <c r="L527" s="2"/>
       <c r="U527" s="2"/>
     </row>
-    <row r="528" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C528" s="13"/>
       <c r="D528" s="13"/>
       <c r="E528" s="1"/>
@@ -6591,7 +6591,7 @@
       <c r="L528" s="2"/>
       <c r="U528" s="2"/>
     </row>
-    <row r="529" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C529" s="13"/>
       <c r="D529" s="13"/>
       <c r="E529" s="1"/>
@@ -6599,7 +6599,7 @@
       <c r="L529" s="2"/>
       <c r="U529" s="2"/>
     </row>
-    <row r="530" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C530" s="13"/>
       <c r="D530" s="13"/>
       <c r="E530" s="1"/>
@@ -6607,7 +6607,7 @@
       <c r="L530" s="2"/>
       <c r="U530" s="2"/>
     </row>
-    <row r="531" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C531" s="13"/>
       <c r="D531" s="13"/>
       <c r="E531" s="1"/>
@@ -6615,7 +6615,7 @@
       <c r="L531" s="2"/>
       <c r="U531" s="2"/>
     </row>
-    <row r="532" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C532" s="13"/>
       <c r="D532" s="13"/>
       <c r="E532" s="1"/>
@@ -6623,7 +6623,7 @@
       <c r="L532" s="2"/>
       <c r="U532" s="2"/>
     </row>
-    <row r="533" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C533" s="13"/>
       <c r="D533" s="13"/>
       <c r="E533" s="1"/>
@@ -6631,7 +6631,7 @@
       <c r="L533" s="2"/>
       <c r="U533" s="2"/>
     </row>
-    <row r="534" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C534" s="13"/>
       <c r="D534" s="13"/>
       <c r="E534" s="1"/>
@@ -6639,7 +6639,7 @@
       <c r="L534" s="2"/>
       <c r="U534" s="2"/>
     </row>
-    <row r="535" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C535" s="13"/>
       <c r="D535" s="13"/>
       <c r="E535" s="1"/>
@@ -6647,7 +6647,7 @@
       <c r="L535" s="2"/>
       <c r="U535" s="2"/>
     </row>
-    <row r="536" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C536" s="13"/>
       <c r="D536" s="13"/>
       <c r="E536" s="1"/>
@@ -6655,7 +6655,7 @@
       <c r="L536" s="2"/>
       <c r="U536" s="2"/>
     </row>
-    <row r="537" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C537" s="13"/>
       <c r="D537" s="13"/>
       <c r="E537" s="1"/>
@@ -6663,7 +6663,7 @@
       <c r="L537" s="2"/>
       <c r="U537" s="2"/>
     </row>
-    <row r="538" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C538" s="13"/>
       <c r="D538" s="13"/>
       <c r="E538" s="1"/>
@@ -6671,7 +6671,7 @@
       <c r="L538" s="2"/>
       <c r="U538" s="2"/>
     </row>
-    <row r="539" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C539" s="13"/>
       <c r="D539" s="13"/>
       <c r="E539" s="1"/>
@@ -6679,7 +6679,7 @@
       <c r="L539" s="2"/>
       <c r="U539" s="2"/>
     </row>
-    <row r="540" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C540" s="13"/>
       <c r="D540" s="13"/>
       <c r="E540" s="1"/>
@@ -6687,7 +6687,7 @@
       <c r="L540" s="2"/>
       <c r="U540" s="2"/>
     </row>
-    <row r="541" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C541" s="13"/>
       <c r="D541" s="13"/>
       <c r="E541" s="1"/>
@@ -6695,7 +6695,7 @@
       <c r="L541" s="2"/>
       <c r="U541" s="2"/>
     </row>
-    <row r="542" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C542" s="13"/>
       <c r="D542" s="13"/>
       <c r="E542" s="1"/>
@@ -6703,7 +6703,7 @@
       <c r="L542" s="2"/>
       <c r="U542" s="2"/>
     </row>
-    <row r="543" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C543" s="13"/>
       <c r="D543" s="13"/>
       <c r="E543" s="1"/>
@@ -6711,7 +6711,7 @@
       <c r="L543" s="2"/>
       <c r="U543" s="2"/>
     </row>
-    <row r="544" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C544" s="13"/>
       <c r="D544" s="13"/>
       <c r="E544" s="1"/>
@@ -6719,7 +6719,7 @@
       <c r="L544" s="2"/>
       <c r="U544" s="2"/>
     </row>
-    <row r="545" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C545" s="13"/>
       <c r="D545" s="13"/>
       <c r="E545" s="1"/>
@@ -6727,7 +6727,7 @@
       <c r="L545" s="2"/>
       <c r="U545" s="2"/>
     </row>
-    <row r="546" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C546" s="13"/>
       <c r="D546" s="13"/>
       <c r="E546" s="1"/>
@@ -6735,7 +6735,7 @@
       <c r="L546" s="2"/>
       <c r="U546" s="2"/>
     </row>
-    <row r="547" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C547" s="13"/>
       <c r="D547" s="13"/>
       <c r="E547" s="1"/>
@@ -6743,7 +6743,7 @@
       <c r="L547" s="2"/>
       <c r="U547" s="2"/>
     </row>
-    <row r="548" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C548" s="13"/>
       <c r="D548" s="13"/>
       <c r="E548" s="1"/>
@@ -6751,7 +6751,7 @@
       <c r="L548" s="2"/>
       <c r="U548" s="2"/>
     </row>
-    <row r="549" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C549" s="13"/>
       <c r="D549" s="13"/>
       <c r="E549" s="1"/>
@@ -6759,7 +6759,7 @@
       <c r="L549" s="2"/>
       <c r="U549" s="2"/>
     </row>
-    <row r="550" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C550" s="13"/>
       <c r="D550" s="13"/>
       <c r="E550" s="1"/>
@@ -6767,7 +6767,7 @@
       <c r="L550" s="2"/>
       <c r="U550" s="2"/>
     </row>
-    <row r="551" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C551" s="13"/>
       <c r="D551" s="13"/>
       <c r="E551" s="1"/>
@@ -6775,7 +6775,7 @@
       <c r="L551" s="2"/>
       <c r="U551" s="2"/>
     </row>
-    <row r="552" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C552" s="13"/>
       <c r="D552" s="13"/>
       <c r="E552" s="1"/>
@@ -6783,7 +6783,7 @@
       <c r="L552" s="2"/>
       <c r="U552" s="2"/>
     </row>
-    <row r="553" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C553" s="13"/>
       <c r="D553" s="13"/>
       <c r="E553" s="1"/>
@@ -6791,7 +6791,7 @@
       <c r="L553" s="2"/>
       <c r="U553" s="2"/>
     </row>
-    <row r="554" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C554" s="13"/>
       <c r="D554" s="13"/>
       <c r="E554" s="1"/>
@@ -6799,7 +6799,7 @@
       <c r="L554" s="2"/>
       <c r="U554" s="2"/>
     </row>
-    <row r="555" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C555" s="13"/>
       <c r="D555" s="13"/>
       <c r="E555" s="1"/>
@@ -6807,7 +6807,7 @@
       <c r="L555" s="2"/>
       <c r="U555" s="2"/>
     </row>
-    <row r="556" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C556" s="13"/>
       <c r="D556" s="13"/>
       <c r="E556" s="1"/>
@@ -6815,7 +6815,7 @@
       <c r="L556" s="2"/>
       <c r="U556" s="2"/>
     </row>
-    <row r="557" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C557" s="13"/>
       <c r="D557" s="13"/>
       <c r="E557" s="1"/>
@@ -6823,7 +6823,7 @@
       <c r="L557" s="2"/>
       <c r="U557" s="2"/>
     </row>
-    <row r="558" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C558" s="13"/>
       <c r="D558" s="13"/>
       <c r="E558" s="1"/>
@@ -6831,7 +6831,7 @@
       <c r="L558" s="2"/>
       <c r="U558" s="2"/>
     </row>
-    <row r="559" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C559" s="13"/>
       <c r="D559" s="13"/>
       <c r="E559" s="1"/>
@@ -6839,7 +6839,7 @@
       <c r="L559" s="2"/>
       <c r="U559" s="2"/>
     </row>
-    <row r="560" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C560" s="13"/>
       <c r="D560" s="13"/>
       <c r="E560" s="1"/>
@@ -6847,7 +6847,7 @@
       <c r="L560" s="2"/>
       <c r="U560" s="2"/>
     </row>
-    <row r="561" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C561" s="13"/>
       <c r="D561" s="13"/>
       <c r="E561" s="1"/>
@@ -6855,7 +6855,7 @@
       <c r="L561" s="2"/>
       <c r="U561" s="2"/>
     </row>
-    <row r="562" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C562" s="13"/>
       <c r="D562" s="13"/>
       <c r="E562" s="1"/>
@@ -6863,7 +6863,7 @@
       <c r="L562" s="2"/>
       <c r="U562" s="2"/>
     </row>
-    <row r="563" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C563" s="13"/>
       <c r="D563" s="13"/>
       <c r="E563" s="1"/>
@@ -6871,7 +6871,7 @@
       <c r="L563" s="2"/>
       <c r="U563" s="2"/>
     </row>
-    <row r="564" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C564" s="13"/>
       <c r="D564" s="13"/>
       <c r="E564" s="1"/>
@@ -6879,7 +6879,7 @@
       <c r="L564" s="2"/>
       <c r="U564" s="2"/>
     </row>
-    <row r="565" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C565" s="13"/>
       <c r="D565" s="13"/>
       <c r="E565" s="1"/>
@@ -6887,7 +6887,7 @@
       <c r="L565" s="2"/>
       <c r="U565" s="2"/>
     </row>
-    <row r="566" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C566" s="13"/>
       <c r="D566" s="13"/>
       <c r="E566" s="1"/>
@@ -6895,7 +6895,7 @@
       <c r="L566" s="2"/>
       <c r="U566" s="2"/>
     </row>
-    <row r="567" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C567" s="13"/>
       <c r="D567" s="13"/>
       <c r="E567" s="1"/>
@@ -6903,7 +6903,7 @@
       <c r="L567" s="2"/>
       <c r="U567" s="2"/>
     </row>
-    <row r="568" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C568" s="13"/>
       <c r="D568" s="13"/>
       <c r="E568" s="1"/>
@@ -6911,7 +6911,7 @@
       <c r="L568" s="2"/>
       <c r="U568" s="2"/>
     </row>
-    <row r="569" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C569" s="13"/>
       <c r="D569" s="13"/>
       <c r="E569" s="1"/>
@@ -6919,7 +6919,7 @@
       <c r="L569" s="2"/>
       <c r="U569" s="2"/>
     </row>
-    <row r="570" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C570" s="13"/>
       <c r="D570" s="13"/>
       <c r="E570" s="1"/>
@@ -6927,7 +6927,7 @@
       <c r="L570" s="2"/>
       <c r="U570" s="2"/>
     </row>
-    <row r="571" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C571" s="13"/>
       <c r="D571" s="13"/>
       <c r="E571" s="1"/>
@@ -6935,7 +6935,7 @@
       <c r="L571" s="2"/>
       <c r="U571" s="2"/>
     </row>
-    <row r="572" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C572" s="13"/>
       <c r="D572" s="13"/>
       <c r="E572" s="1"/>
@@ -6943,7 +6943,7 @@
       <c r="L572" s="2"/>
       <c r="U572" s="2"/>
     </row>
-    <row r="573" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C573" s="13"/>
       <c r="D573" s="13"/>
       <c r="E573" s="1"/>
@@ -6951,7 +6951,7 @@
       <c r="L573" s="2"/>
       <c r="U573" s="2"/>
     </row>
-    <row r="574" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C574" s="13"/>
       <c r="D574" s="13"/>
       <c r="E574" s="1"/>
@@ -6959,7 +6959,7 @@
       <c r="L574" s="2"/>
       <c r="U574" s="2"/>
     </row>
-    <row r="575" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C575" s="13"/>
       <c r="D575" s="13"/>
       <c r="E575" s="1"/>
@@ -6967,7 +6967,7 @@
       <c r="L575" s="2"/>
       <c r="U575" s="2"/>
     </row>
-    <row r="576" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C576" s="13"/>
       <c r="D576" s="13"/>
       <c r="E576" s="1"/>
@@ -6975,7 +6975,7 @@
       <c r="L576" s="2"/>
       <c r="U576" s="2"/>
     </row>
-    <row r="577" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C577" s="13"/>
       <c r="D577" s="13"/>
       <c r="E577" s="1"/>
@@ -6983,7 +6983,7 @@
       <c r="L577" s="2"/>
       <c r="U577" s="2"/>
     </row>
-    <row r="578" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C578" s="13"/>
       <c r="D578" s="13"/>
       <c r="E578" s="1"/>
@@ -6991,7 +6991,7 @@
       <c r="L578" s="2"/>
       <c r="U578" s="2"/>
     </row>
-    <row r="579" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C579" s="13"/>
       <c r="D579" s="13"/>
       <c r="E579" s="1"/>
@@ -6999,7 +6999,7 @@
       <c r="L579" s="2"/>
       <c r="U579" s="2"/>
     </row>
-    <row r="580" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C580" s="13"/>
       <c r="D580" s="13"/>
       <c r="E580" s="1"/>
@@ -7007,7 +7007,7 @@
       <c r="L580" s="2"/>
       <c r="U580" s="2"/>
     </row>
-    <row r="581" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C581" s="13"/>
       <c r="D581" s="13"/>
       <c r="E581" s="1"/>
@@ -7015,7 +7015,7 @@
       <c r="L581" s="2"/>
       <c r="U581" s="2"/>
     </row>
-    <row r="582" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C582" s="13"/>
       <c r="D582" s="13"/>
       <c r="E582" s="1"/>
@@ -7023,7 +7023,7 @@
       <c r="L582" s="2"/>
       <c r="U582" s="2"/>
     </row>
-    <row r="583" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C583" s="13"/>
       <c r="D583" s="13"/>
       <c r="E583" s="1"/>
@@ -7031,7 +7031,7 @@
       <c r="L583" s="2"/>
       <c r="U583" s="2"/>
     </row>
-    <row r="584" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C584" s="13"/>
       <c r="D584" s="13"/>
       <c r="E584" s="1"/>
@@ -7039,7 +7039,7 @@
       <c r="L584" s="2"/>
       <c r="U584" s="2"/>
     </row>
-    <row r="585" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C585" s="13"/>
       <c r="D585" s="13"/>
       <c r="E585" s="1"/>
@@ -7047,7 +7047,7 @@
       <c r="L585" s="2"/>
       <c r="U585" s="2"/>
     </row>
-    <row r="586" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C586" s="13"/>
       <c r="D586" s="13"/>
       <c r="E586" s="1"/>
@@ -7055,7 +7055,7 @@
       <c r="L586" s="2"/>
       <c r="U586" s="2"/>
     </row>
-    <row r="587" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C587" s="13"/>
       <c r="D587" s="13"/>
       <c r="E587" s="1"/>
@@ -7063,7 +7063,7 @@
       <c r="L587" s="2"/>
       <c r="U587" s="2"/>
     </row>
-    <row r="588" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C588" s="13"/>
       <c r="D588" s="13"/>
       <c r="E588" s="1"/>
@@ -7071,7 +7071,7 @@
       <c r="L588" s="2"/>
       <c r="U588" s="2"/>
     </row>
-    <row r="589" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C589" s="13"/>
       <c r="D589" s="13"/>
       <c r="E589" s="1"/>
@@ -7079,7 +7079,7 @@
       <c r="L589" s="2"/>
       <c r="U589" s="2"/>
     </row>
-    <row r="590" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C590" s="13"/>
       <c r="D590" s="13"/>
       <c r="E590" s="1"/>
@@ -7087,7 +7087,7 @@
       <c r="L590" s="2"/>
       <c r="U590" s="2"/>
     </row>
-    <row r="591" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C591" s="13"/>
       <c r="D591" s="13"/>
       <c r="E591" s="1"/>
@@ -7095,7 +7095,7 @@
       <c r="L591" s="2"/>
       <c r="U591" s="2"/>
     </row>
-    <row r="592" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C592" s="13"/>
       <c r="D592" s="13"/>
       <c r="E592" s="1"/>
@@ -7103,7 +7103,7 @@
       <c r="L592" s="2"/>
       <c r="U592" s="2"/>
     </row>
-    <row r="593" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C593" s="13"/>
       <c r="D593" s="13"/>
       <c r="E593" s="1"/>
@@ -7111,7 +7111,7 @@
       <c r="L593" s="2"/>
       <c r="U593" s="2"/>
     </row>
-    <row r="594" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C594" s="13"/>
       <c r="D594" s="13"/>
       <c r="E594" s="1"/>
@@ -7119,7 +7119,7 @@
       <c r="L594" s="2"/>
       <c r="U594" s="2"/>
     </row>
-    <row r="595" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C595" s="13"/>
       <c r="D595" s="13"/>
       <c r="E595" s="1"/>
@@ -7127,7 +7127,7 @@
       <c r="L595" s="2"/>
       <c r="U595" s="2"/>
     </row>
-    <row r="596" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C596" s="13"/>
       <c r="D596" s="13"/>
       <c r="E596" s="1"/>
@@ -7135,7 +7135,7 @@
       <c r="L596" s="2"/>
       <c r="U596" s="2"/>
     </row>
-    <row r="597" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C597" s="13"/>
       <c r="D597" s="13"/>
       <c r="E597" s="1"/>
@@ -7143,7 +7143,7 @@
       <c r="L597" s="2"/>
       <c r="U597" s="2"/>
     </row>
-    <row r="598" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C598" s="13"/>
       <c r="D598" s="13"/>
       <c r="E598" s="1"/>
@@ -7151,7 +7151,7 @@
       <c r="L598" s="2"/>
       <c r="U598" s="2"/>
     </row>
-    <row r="599" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C599" s="13"/>
       <c r="D599" s="13"/>
       <c r="E599" s="1"/>
@@ -7159,7 +7159,7 @@
       <c r="L599" s="2"/>
       <c r="U599" s="2"/>
     </row>
-    <row r="600" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C600" s="13"/>
       <c r="D600" s="13"/>
       <c r="E600" s="1"/>
@@ -7167,7 +7167,7 @@
       <c r="L600" s="2"/>
       <c r="U600" s="2"/>
     </row>
-    <row r="601" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C601" s="13"/>
       <c r="D601" s="13"/>
       <c r="E601" s="1"/>
@@ -7175,7 +7175,7 @@
       <c r="L601" s="2"/>
       <c r="U601" s="2"/>
     </row>
-    <row r="602" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C602" s="13"/>
       <c r="D602" s="13"/>
       <c r="E602" s="1"/>
@@ -7183,7 +7183,7 @@
       <c r="L602" s="2"/>
       <c r="U602" s="2"/>
     </row>
-    <row r="603" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C603" s="13"/>
       <c r="D603" s="13"/>
       <c r="E603" s="1"/>
@@ -7191,7 +7191,7 @@
       <c r="L603" s="2"/>
       <c r="U603" s="2"/>
     </row>
-    <row r="604" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C604" s="13"/>
       <c r="D604" s="13"/>
       <c r="E604" s="1"/>
@@ -7199,7 +7199,7 @@
       <c r="L604" s="2"/>
       <c r="U604" s="2"/>
     </row>
-    <row r="605" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C605" s="13"/>
       <c r="D605" s="13"/>
       <c r="E605" s="1"/>
@@ -7207,7 +7207,7 @@
       <c r="L605" s="2"/>
       <c r="U605" s="2"/>
     </row>
-    <row r="606" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C606" s="13"/>
       <c r="D606" s="13"/>
       <c r="E606" s="1"/>
@@ -7215,7 +7215,7 @@
       <c r="L606" s="2"/>
       <c r="U606" s="2"/>
     </row>
-    <row r="607" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C607" s="13"/>
       <c r="D607" s="13"/>
       <c r="E607" s="1"/>
@@ -7223,7 +7223,7 @@
       <c r="L607" s="2"/>
       <c r="U607" s="2"/>
     </row>
-    <row r="608" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C608" s="13"/>
       <c r="D608" s="13"/>
       <c r="E608" s="1"/>
@@ -7231,7 +7231,7 @@
       <c r="L608" s="2"/>
       <c r="U608" s="2"/>
     </row>
-    <row r="609" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C609" s="13"/>
       <c r="D609" s="13"/>
       <c r="E609" s="1"/>
@@ -7239,7 +7239,7 @@
       <c r="L609" s="2"/>
       <c r="U609" s="2"/>
     </row>
-    <row r="610" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C610" s="13"/>
       <c r="D610" s="13"/>
       <c r="E610" s="1"/>
@@ -7247,7 +7247,7 @@
       <c r="L610" s="2"/>
       <c r="U610" s="2"/>
     </row>
-    <row r="611" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C611" s="13"/>
       <c r="D611" s="13"/>
       <c r="E611" s="1"/>
@@ -7255,7 +7255,7 @@
       <c r="L611" s="2"/>
       <c r="U611" s="2"/>
     </row>
-    <row r="612" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C612" s="13"/>
       <c r="D612" s="13"/>
       <c r="E612" s="1"/>
@@ -7263,7 +7263,7 @@
       <c r="L612" s="2"/>
       <c r="U612" s="2"/>
     </row>
-    <row r="613" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C613" s="13"/>
       <c r="D613" s="13"/>
       <c r="E613" s="1"/>
@@ -7271,7 +7271,7 @@
       <c r="L613" s="2"/>
       <c r="U613" s="2"/>
     </row>
-    <row r="614" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C614" s="13"/>
       <c r="D614" s="13"/>
       <c r="E614" s="1"/>
@@ -7279,7 +7279,7 @@
       <c r="L614" s="2"/>
       <c r="U614" s="2"/>
     </row>
-    <row r="615" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C615" s="13"/>
       <c r="D615" s="13"/>
       <c r="E615" s="1"/>
@@ -7287,7 +7287,7 @@
       <c r="L615" s="2"/>
       <c r="U615" s="2"/>
     </row>
-    <row r="616" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C616" s="13"/>
       <c r="D616" s="13"/>
       <c r="E616" s="1"/>
@@ -7295,7 +7295,7 @@
       <c r="L616" s="2"/>
       <c r="U616" s="2"/>
     </row>
-    <row r="617" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C617" s="13"/>
       <c r="D617" s="13"/>
       <c r="E617" s="1"/>
@@ -7303,7 +7303,7 @@
       <c r="L617" s="2"/>
       <c r="U617" s="2"/>
     </row>
-    <row r="618" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C618" s="13"/>
       <c r="D618" s="13"/>
       <c r="E618" s="1"/>
@@ -7311,7 +7311,7 @@
       <c r="L618" s="2"/>
       <c r="U618" s="2"/>
     </row>
-    <row r="619" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C619" s="13"/>
       <c r="D619" s="13"/>
       <c r="E619" s="1"/>
@@ -7319,7 +7319,7 @@
       <c r="L619" s="2"/>
       <c r="U619" s="2"/>
     </row>
-    <row r="620" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C620" s="13"/>
       <c r="D620" s="13"/>
       <c r="E620" s="1"/>
@@ -7327,7 +7327,7 @@
       <c r="L620" s="2"/>
       <c r="U620" s="2"/>
     </row>
-    <row r="621" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C621" s="13"/>
       <c r="D621" s="13"/>
       <c r="E621" s="1"/>
@@ -7335,7 +7335,7 @@
       <c r="L621" s="2"/>
       <c r="U621" s="2"/>
     </row>
-    <row r="622" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C622" s="13"/>
       <c r="D622" s="13"/>
       <c r="E622" s="1"/>
@@ -7343,7 +7343,7 @@
       <c r="L622" s="2"/>
       <c r="U622" s="2"/>
     </row>
-    <row r="623" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C623" s="13"/>
       <c r="D623" s="13"/>
       <c r="E623" s="1"/>
@@ -7351,7 +7351,7 @@
       <c r="L623" s="2"/>
       <c r="U623" s="2"/>
     </row>
-    <row r="624" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C624" s="13"/>
       <c r="D624" s="13"/>
       <c r="E624" s="1"/>
@@ -7359,7 +7359,7 @@
       <c r="L624" s="2"/>
       <c r="U624" s="2"/>
     </row>
-    <row r="625" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C625" s="13"/>
       <c r="D625" s="13"/>
       <c r="E625" s="1"/>
@@ -7367,7 +7367,7 @@
       <c r="L625" s="2"/>
       <c r="U625" s="2"/>
     </row>
-    <row r="626" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C626" s="13"/>
       <c r="D626" s="13"/>
       <c r="E626" s="1"/>
@@ -7375,7 +7375,7 @@
       <c r="L626" s="2"/>
       <c r="U626" s="2"/>
     </row>
-    <row r="627" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C627" s="13"/>
       <c r="D627" s="13"/>
       <c r="E627" s="1"/>
@@ -7383,7 +7383,7 @@
       <c r="L627" s="2"/>
       <c r="U627" s="2"/>
     </row>
-    <row r="628" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C628" s="13"/>
       <c r="D628" s="13"/>
       <c r="E628" s="1"/>
@@ -7391,7 +7391,7 @@
       <c r="L628" s="2"/>
       <c r="U628" s="2"/>
     </row>
-    <row r="629" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C629" s="13"/>
       <c r="D629" s="13"/>
       <c r="E629" s="1"/>
@@ -7399,7 +7399,7 @@
       <c r="L629" s="2"/>
       <c r="U629" s="2"/>
     </row>
-    <row r="630" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C630" s="13"/>
       <c r="D630" s="13"/>
       <c r="E630" s="1"/>
@@ -7407,7 +7407,7 @@
       <c r="L630" s="2"/>
       <c r="U630" s="2"/>
     </row>
-    <row r="631" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C631" s="13"/>
       <c r="D631" s="13"/>
       <c r="E631" s="1"/>
@@ -7415,7 +7415,7 @@
       <c r="L631" s="2"/>
       <c r="U631" s="2"/>
     </row>
-    <row r="632" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C632" s="13"/>
       <c r="D632" s="13"/>
       <c r="E632" s="1"/>
@@ -7423,7 +7423,7 @@
       <c r="L632" s="2"/>
       <c r="U632" s="2"/>
     </row>
-    <row r="633" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C633" s="13"/>
       <c r="D633" s="13"/>
       <c r="E633" s="1"/>
@@ -7431,7 +7431,7 @@
       <c r="L633" s="2"/>
       <c r="U633" s="2"/>
     </row>
-    <row r="634" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C634" s="13"/>
       <c r="D634" s="13"/>
       <c r="E634" s="1"/>
@@ -7439,7 +7439,7 @@
       <c r="L634" s="2"/>
       <c r="U634" s="2"/>
     </row>
-    <row r="635" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C635" s="13"/>
       <c r="D635" s="13"/>
       <c r="E635" s="1"/>
@@ -7447,7 +7447,7 @@
       <c r="L635" s="2"/>
       <c r="U635" s="2"/>
     </row>
-    <row r="636" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C636" s="13"/>
       <c r="D636" s="13"/>
       <c r="E636" s="1"/>
@@ -7455,7 +7455,7 @@
       <c r="L636" s="2"/>
       <c r="U636" s="2"/>
     </row>
-    <row r="637" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C637" s="13"/>
       <c r="D637" s="13"/>
       <c r="E637" s="1"/>
@@ -7463,7 +7463,7 @@
       <c r="L637" s="2"/>
       <c r="U637" s="2"/>
     </row>
-    <row r="638" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C638" s="13"/>
       <c r="D638" s="13"/>
       <c r="E638" s="1"/>
@@ -7471,7 +7471,7 @@
       <c r="L638" s="2"/>
       <c r="U638" s="2"/>
     </row>
-    <row r="639" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C639" s="13"/>
       <c r="D639" s="13"/>
       <c r="E639" s="1"/>
@@ -7479,7 +7479,7 @@
       <c r="L639" s="2"/>
       <c r="U639" s="2"/>
     </row>
-    <row r="640" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C640" s="13"/>
       <c r="D640" s="13"/>
       <c r="E640" s="1"/>
@@ -7487,7 +7487,7 @@
       <c r="L640" s="2"/>
       <c r="U640" s="2"/>
     </row>
-    <row r="641" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C641" s="13"/>
       <c r="D641" s="13"/>
       <c r="E641" s="1"/>
@@ -7495,7 +7495,7 @@
       <c r="L641" s="2"/>
       <c r="U641" s="2"/>
     </row>
-    <row r="642" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C642" s="13"/>
       <c r="D642" s="13"/>
       <c r="E642" s="1"/>
@@ -7503,7 +7503,7 @@
       <c r="L642" s="2"/>
       <c r="U642" s="2"/>
     </row>
-    <row r="643" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C643" s="13"/>
       <c r="D643" s="13"/>
       <c r="E643" s="1"/>
@@ -7511,7 +7511,7 @@
       <c r="L643" s="2"/>
       <c r="U643" s="2"/>
     </row>
-    <row r="644" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C644" s="13"/>
       <c r="D644" s="13"/>
       <c r="E644" s="1"/>
@@ -7519,7 +7519,7 @@
       <c r="L644" s="2"/>
       <c r="U644" s="2"/>
     </row>
-    <row r="645" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C645" s="13"/>
       <c r="D645" s="13"/>
       <c r="E645" s="1"/>
@@ -7527,7 +7527,7 @@
       <c r="L645" s="2"/>
       <c r="U645" s="2"/>
     </row>
-    <row r="646" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C646" s="13"/>
       <c r="D646" s="13"/>
       <c r="E646" s="1"/>
@@ -7535,7 +7535,7 @@
       <c r="L646" s="2"/>
       <c r="U646" s="2"/>
     </row>
-    <row r="647" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C647" s="13"/>
       <c r="D647" s="13"/>
       <c r="E647" s="1"/>
@@ -7543,7 +7543,7 @@
       <c r="L647" s="2"/>
       <c r="U647" s="2"/>
     </row>
-    <row r="648" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C648" s="13"/>
       <c r="D648" s="13"/>
       <c r="E648" s="1"/>
@@ -7551,7 +7551,7 @@
       <c r="L648" s="2"/>
       <c r="U648" s="2"/>
     </row>
-    <row r="649" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C649" s="13"/>
       <c r="D649" s="13"/>
       <c r="E649" s="1"/>
@@ -7559,7 +7559,7 @@
       <c r="L649" s="2"/>
       <c r="U649" s="2"/>
     </row>
-    <row r="650" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C650" s="13"/>
       <c r="D650" s="13"/>
       <c r="E650" s="1"/>
@@ -7567,7 +7567,7 @@
       <c r="L650" s="2"/>
       <c r="U650" s="2"/>
     </row>
-    <row r="651" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C651" s="13"/>
       <c r="D651" s="13"/>
       <c r="E651" s="1"/>
@@ -7575,7 +7575,7 @@
       <c r="L651" s="2"/>
       <c r="U651" s="2"/>
     </row>
-    <row r="652" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C652" s="13"/>
       <c r="D652" s="13"/>
       <c r="E652" s="1"/>
@@ -7583,7 +7583,7 @@
       <c r="L652" s="2"/>
       <c r="U652" s="2"/>
     </row>
-    <row r="653" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C653" s="13"/>
       <c r="D653" s="13"/>
       <c r="E653" s="1"/>
@@ -7591,7 +7591,7 @@
       <c r="L653" s="2"/>
       <c r="U653" s="2"/>
     </row>
-    <row r="654" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C654" s="13"/>
       <c r="D654" s="13"/>
       <c r="E654" s="1"/>
@@ -7599,7 +7599,7 @@
       <c r="L654" s="2"/>
       <c r="U654" s="2"/>
     </row>
-    <row r="655" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C655" s="13"/>
       <c r="D655" s="13"/>
       <c r="E655" s="1"/>
@@ -7607,7 +7607,7 @@
       <c r="L655" s="2"/>
       <c r="U655" s="2"/>
     </row>
-    <row r="656" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C656" s="13"/>
       <c r="D656" s="13"/>
       <c r="E656" s="1"/>
@@ -7615,7 +7615,7 @@
       <c r="L656" s="2"/>
       <c r="U656" s="2"/>
     </row>
-    <row r="657" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C657" s="13"/>
       <c r="D657" s="13"/>
       <c r="E657" s="1"/>
@@ -7623,7 +7623,7 @@
       <c r="L657" s="2"/>
       <c r="U657" s="2"/>
     </row>
-    <row r="658" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C658" s="13"/>
       <c r="D658" s="13"/>
       <c r="E658" s="1"/>
@@ -7631,7 +7631,7 @@
       <c r="L658" s="2"/>
       <c r="U658" s="2"/>
     </row>
-    <row r="659" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C659" s="13"/>
       <c r="D659" s="13"/>
       <c r="E659" s="1"/>
@@ -7639,7 +7639,7 @@
       <c r="L659" s="2"/>
       <c r="U659" s="2"/>
     </row>
-    <row r="660" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C660" s="13"/>
       <c r="D660" s="13"/>
       <c r="E660" s="1"/>
@@ -7647,7 +7647,7 @@
       <c r="L660" s="2"/>
       <c r="U660" s="2"/>
     </row>
-    <row r="661" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C661" s="13"/>
       <c r="D661" s="13"/>
       <c r="E661" s="1"/>
@@ -7655,7 +7655,7 @@
       <c r="L661" s="2"/>
       <c r="U661" s="2"/>
     </row>
-    <row r="662" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C662" s="13"/>
       <c r="D662" s="13"/>
       <c r="E662" s="1"/>
@@ -7663,7 +7663,7 @@
       <c r="L662" s="2"/>
       <c r="U662" s="2"/>
     </row>
-    <row r="663" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C663" s="13"/>
       <c r="D663" s="13"/>
       <c r="E663" s="1"/>
@@ -7671,7 +7671,7 @@
       <c r="L663" s="2"/>
       <c r="U663" s="2"/>
     </row>
-    <row r="664" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C664" s="13"/>
       <c r="D664" s="13"/>
       <c r="E664" s="1"/>
@@ -7679,7 +7679,7 @@
       <c r="L664" s="2"/>
       <c r="U664" s="2"/>
     </row>
-    <row r="665" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C665" s="13"/>
       <c r="D665" s="13"/>
       <c r="E665" s="1"/>
@@ -7687,7 +7687,7 @@
       <c r="L665" s="2"/>
       <c r="U665" s="2"/>
     </row>
-    <row r="666" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C666" s="13"/>
       <c r="D666" s="13"/>
       <c r="E666" s="1"/>
@@ -7695,7 +7695,7 @@
       <c r="L666" s="2"/>
       <c r="U666" s="2"/>
     </row>
-    <row r="667" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C667" s="13"/>
       <c r="D667" s="13"/>
       <c r="E667" s="1"/>
@@ -7703,7 +7703,7 @@
       <c r="L667" s="2"/>
       <c r="U667" s="2"/>
     </row>
-    <row r="668" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C668" s="13"/>
       <c r="D668" s="13"/>
       <c r="E668" s="1"/>
@@ -7711,7 +7711,7 @@
       <c r="L668" s="2"/>
       <c r="U668" s="2"/>
     </row>
-    <row r="669" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C669" s="13"/>
       <c r="D669" s="13"/>
       <c r="E669" s="1"/>
@@ -7719,7 +7719,7 @@
       <c r="L669" s="2"/>
       <c r="U669" s="2"/>
     </row>
-    <row r="670" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C670" s="13"/>
       <c r="D670" s="13"/>
       <c r="E670" s="1"/>
@@ -7727,7 +7727,7 @@
       <c r="L670" s="2"/>
       <c r="U670" s="2"/>
     </row>
-    <row r="671" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C671" s="13"/>
       <c r="D671" s="13"/>
       <c r="E671" s="1"/>
@@ -7735,7 +7735,7 @@
       <c r="L671" s="2"/>
       <c r="U671" s="2"/>
     </row>
-    <row r="672" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C672" s="13"/>
       <c r="D672" s="13"/>
       <c r="E672" s="1"/>
@@ -7743,7 +7743,7 @@
       <c r="L672" s="2"/>
       <c r="U672" s="2"/>
     </row>
-    <row r="673" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C673" s="13"/>
       <c r="D673" s="13"/>
       <c r="E673" s="1"/>
@@ -7751,7 +7751,7 @@
       <c r="L673" s="2"/>
       <c r="U673" s="2"/>
     </row>
-    <row r="674" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C674" s="13"/>
       <c r="D674" s="13"/>
       <c r="E674" s="1"/>
@@ -7759,7 +7759,7 @@
       <c r="L674" s="2"/>
       <c r="U674" s="2"/>
     </row>
-    <row r="675" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C675" s="13"/>
       <c r="D675" s="13"/>
       <c r="E675" s="1"/>
@@ -7767,7 +7767,7 @@
       <c r="L675" s="2"/>
       <c r="U675" s="2"/>
     </row>
-    <row r="676" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C676" s="13"/>
       <c r="D676" s="13"/>
       <c r="E676" s="1"/>
@@ -7775,7 +7775,7 @@
       <c r="L676" s="2"/>
       <c r="U676" s="2"/>
     </row>
-    <row r="677" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C677" s="13"/>
       <c r="D677" s="13"/>
       <c r="E677" s="1"/>
@@ -7783,7 +7783,7 @@
       <c r="L677" s="2"/>
       <c r="U677" s="2"/>
     </row>
-    <row r="678" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C678" s="13"/>
       <c r="D678" s="13"/>
       <c r="E678" s="1"/>
@@ -7791,7 +7791,7 @@
       <c r="L678" s="2"/>
       <c r="U678" s="2"/>
     </row>
-    <row r="679" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C679" s="13"/>
       <c r="D679" s="13"/>
       <c r="E679" s="1"/>
@@ -7799,7 +7799,7 @@
       <c r="L679" s="2"/>
       <c r="U679" s="2"/>
     </row>
-    <row r="680" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C680" s="13"/>
       <c r="D680" s="13"/>
       <c r="E680" s="1"/>
@@ -7807,7 +7807,7 @@
       <c r="L680" s="2"/>
       <c r="U680" s="2"/>
     </row>
-    <row r="681" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C681" s="13"/>
       <c r="D681" s="13"/>
       <c r="E681" s="1"/>
@@ -7815,7 +7815,7 @@
       <c r="L681" s="2"/>
       <c r="U681" s="2"/>
     </row>
-    <row r="682" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C682" s="13"/>
       <c r="D682" s="13"/>
       <c r="E682" s="1"/>
@@ -7823,7 +7823,7 @@
       <c r="L682" s="2"/>
       <c r="U682" s="2"/>
     </row>
-    <row r="683" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C683" s="13"/>
       <c r="D683" s="13"/>
       <c r="E683" s="1"/>
@@ -7831,7 +7831,7 @@
       <c r="L683" s="2"/>
       <c r="U683" s="2"/>
     </row>
-    <row r="684" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C684" s="13"/>
       <c r="D684" s="13"/>
       <c r="E684" s="1"/>
@@ -7839,7 +7839,7 @@
       <c r="L684" s="2"/>
       <c r="U684" s="2"/>
     </row>
-    <row r="685" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C685" s="13"/>
       <c r="D685" s="13"/>
       <c r="E685" s="1"/>
@@ -7847,7 +7847,7 @@
       <c r="L685" s="2"/>
       <c r="U685" s="2"/>
     </row>
-    <row r="686" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C686" s="13"/>
       <c r="D686" s="13"/>
       <c r="E686" s="1"/>
@@ -7855,7 +7855,7 @@
       <c r="L686" s="2"/>
       <c r="U686" s="2"/>
     </row>
-    <row r="687" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C687" s="13"/>
       <c r="D687" s="13"/>
       <c r="E687" s="1"/>
@@ -7863,7 +7863,7 @@
       <c r="L687" s="2"/>
       <c r="U687" s="2"/>
     </row>
-    <row r="688" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C688" s="13"/>
       <c r="D688" s="13"/>
       <c r="E688" s="1"/>
@@ -7871,7 +7871,7 @@
       <c r="L688" s="2"/>
       <c r="U688" s="2"/>
     </row>
-    <row r="689" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C689" s="13"/>
       <c r="D689" s="13"/>
       <c r="E689" s="1"/>
@@ -7879,7 +7879,7 @@
       <c r="L689" s="2"/>
       <c r="U689" s="2"/>
     </row>
-    <row r="690" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C690" s="13"/>
       <c r="D690" s="13"/>
       <c r="E690" s="1"/>
@@ -7887,7 +7887,7 @@
       <c r="L690" s="2"/>
       <c r="U690" s="2"/>
     </row>
-    <row r="691" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C691" s="13"/>
       <c r="D691" s="13"/>
       <c r="E691" s="1"/>
@@ -7895,7 +7895,7 @@
       <c r="L691" s="2"/>
       <c r="U691" s="2"/>
     </row>
-    <row r="692" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C692" s="13"/>
       <c r="D692" s="13"/>
       <c r="E692" s="1"/>
@@ -7903,7 +7903,7 @@
       <c r="L692" s="2"/>
       <c r="U692" s="2"/>
     </row>
-    <row r="693" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C693" s="13"/>
       <c r="D693" s="13"/>
       <c r="E693" s="1"/>
@@ -7911,7 +7911,7 @@
       <c r="L693" s="2"/>
       <c r="U693" s="2"/>
     </row>
-    <row r="694" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C694" s="13"/>
       <c r="D694" s="13"/>
       <c r="E694" s="1"/>
@@ -7919,7 +7919,7 @@
       <c r="L694" s="2"/>
       <c r="U694" s="2"/>
     </row>
-    <row r="695" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C695" s="13"/>
       <c r="D695" s="13"/>
       <c r="E695" s="1"/>
@@ -7927,7 +7927,7 @@
       <c r="L695" s="2"/>
       <c r="U695" s="2"/>
     </row>
-    <row r="696" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C696" s="13"/>
       <c r="D696" s="13"/>
       <c r="E696" s="1"/>
@@ -7935,7 +7935,7 @@
       <c r="L696" s="2"/>
       <c r="U696" s="2"/>
     </row>
-    <row r="697" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C697" s="13"/>
       <c r="D697" s="13"/>
       <c r="E697" s="1"/>
@@ -7943,7 +7943,7 @@
       <c r="L697" s="2"/>
       <c r="U697" s="2"/>
     </row>
-    <row r="698" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C698" s="13"/>
       <c r="D698" s="13"/>
       <c r="E698" s="1"/>
@@ -7951,7 +7951,7 @@
       <c r="L698" s="2"/>
       <c r="U698" s="2"/>
     </row>
-    <row r="699" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C699" s="13"/>
       <c r="D699" s="13"/>
       <c r="E699" s="1"/>
@@ -7959,7 +7959,7 @@
       <c r="L699" s="2"/>
       <c r="U699" s="2"/>
     </row>
-    <row r="700" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C700" s="13"/>
       <c r="D700" s="13"/>
       <c r="E700" s="1"/>
@@ -7967,7 +7967,7 @@
       <c r="L700" s="2"/>
       <c r="U700" s="2"/>
     </row>
-    <row r="701" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C701" s="13"/>
       <c r="D701" s="13"/>
       <c r="E701" s="1"/>
@@ -7975,7 +7975,7 @@
       <c r="L701" s="2"/>
       <c r="U701" s="2"/>
     </row>
-    <row r="702" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C702" s="13"/>
       <c r="D702" s="13"/>
       <c r="E702" s="1"/>
@@ -7983,7 +7983,7 @@
       <c r="L702" s="2"/>
       <c r="U702" s="2"/>
     </row>
-    <row r="703" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C703" s="13"/>
       <c r="D703" s="13"/>
       <c r="E703" s="1"/>
@@ -7991,7 +7991,7 @@
       <c r="L703" s="2"/>
       <c r="U703" s="2"/>
     </row>
-    <row r="704" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C704" s="13"/>
       <c r="D704" s="13"/>
       <c r="E704" s="1"/>
@@ -7999,7 +7999,7 @@
       <c r="L704" s="2"/>
       <c r="U704" s="2"/>
     </row>
-    <row r="705" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C705" s="13"/>
       <c r="D705" s="13"/>
       <c r="E705" s="1"/>
@@ -8007,7 +8007,7 @@
       <c r="L705" s="2"/>
       <c r="U705" s="2"/>
     </row>
-    <row r="706" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C706" s="13"/>
       <c r="D706" s="13"/>
       <c r="E706" s="1"/>
@@ -8015,7 +8015,7 @@
       <c r="L706" s="2"/>
       <c r="U706" s="2"/>
     </row>
-    <row r="707" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C707" s="13"/>
       <c r="D707" s="13"/>
       <c r="E707" s="1"/>
@@ -8023,7 +8023,7 @@
       <c r="L707" s="2"/>
       <c r="U707" s="2"/>
     </row>
-    <row r="708" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C708" s="13"/>
       <c r="D708" s="13"/>
       <c r="E708" s="1"/>
@@ -8031,7 +8031,7 @@
       <c r="L708" s="2"/>
       <c r="U708" s="2"/>
     </row>
-    <row r="709" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C709" s="13"/>
       <c r="D709" s="13"/>
       <c r="E709" s="1"/>
@@ -8039,7 +8039,7 @@
       <c r="L709" s="2"/>
       <c r="U709" s="2"/>
     </row>
-    <row r="710" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C710" s="13"/>
       <c r="D710" s="13"/>
       <c r="E710" s="1"/>
@@ -8047,7 +8047,7 @@
       <c r="L710" s="2"/>
       <c r="U710" s="2"/>
     </row>
-    <row r="711" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C711" s="13"/>
       <c r="D711" s="13"/>
       <c r="E711" s="1"/>
@@ -8055,7 +8055,7 @@
       <c r="L711" s="2"/>
       <c r="U711" s="2"/>
     </row>
-    <row r="712" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C712" s="13"/>
       <c r="D712" s="13"/>
       <c r="E712" s="1"/>
@@ -8063,7 +8063,7 @@
       <c r="L712" s="2"/>
       <c r="U712" s="2"/>
     </row>
-    <row r="713" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C713" s="13"/>
       <c r="D713" s="13"/>
       <c r="E713" s="1"/>
@@ -8071,7 +8071,7 @@
       <c r="L713" s="2"/>
       <c r="U713" s="2"/>
     </row>
-    <row r="714" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C714" s="13"/>
       <c r="D714" s="13"/>
       <c r="E714" s="1"/>
@@ -8079,7 +8079,7 @@
       <c r="L714" s="2"/>
       <c r="U714" s="2"/>
     </row>
-    <row r="715" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C715" s="13"/>
       <c r="D715" s="13"/>
       <c r="E715" s="1"/>
@@ -8087,7 +8087,7 @@
       <c r="L715" s="2"/>
       <c r="U715" s="2"/>
     </row>
-    <row r="716" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C716" s="13"/>
       <c r="D716" s="13"/>
       <c r="E716" s="1"/>
@@ -8095,7 +8095,7 @@
       <c r="L716" s="2"/>
       <c r="U716" s="2"/>
     </row>
-    <row r="717" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C717" s="13"/>
       <c r="D717" s="13"/>
       <c r="E717" s="1"/>
@@ -8103,7 +8103,7 @@
       <c r="L717" s="2"/>
       <c r="U717" s="2"/>
     </row>
-    <row r="718" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C718" s="13"/>
       <c r="D718" s="13"/>
       <c r="E718" s="1"/>
@@ -8111,7 +8111,7 @@
       <c r="L718" s="2"/>
       <c r="U718" s="2"/>
     </row>
-    <row r="719" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C719" s="13"/>
       <c r="D719" s="13"/>
       <c r="E719" s="1"/>
@@ -8119,7 +8119,7 @@
       <c r="L719" s="2"/>
       <c r="U719" s="2"/>
     </row>
-    <row r="720" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C720" s="13"/>
       <c r="D720" s="13"/>
       <c r="E720" s="1"/>
@@ -8127,7 +8127,7 @@
       <c r="L720" s="2"/>
       <c r="U720" s="2"/>
     </row>
-    <row r="721" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C721" s="13"/>
       <c r="D721" s="13"/>
       <c r="E721" s="1"/>
@@ -8135,7 +8135,7 @@
       <c r="L721" s="2"/>
       <c r="U721" s="2"/>
     </row>
-    <row r="722" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C722" s="13"/>
       <c r="D722" s="13"/>
       <c r="E722" s="1"/>
@@ -8143,7 +8143,7 @@
       <c r="L722" s="2"/>
       <c r="U722" s="2"/>
     </row>
-    <row r="723" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C723" s="13"/>
       <c r="D723" s="13"/>
       <c r="E723" s="1"/>
@@ -8151,7 +8151,7 @@
       <c r="L723" s="2"/>
       <c r="U723" s="2"/>
     </row>
-    <row r="724" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C724" s="13"/>
       <c r="D724" s="13"/>
       <c r="E724" s="1"/>
@@ -8159,7 +8159,7 @@
       <c r="L724" s="2"/>
       <c r="U724" s="2"/>
     </row>
-    <row r="725" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C725" s="13"/>
       <c r="D725" s="13"/>
       <c r="E725" s="1"/>
@@ -8167,7 +8167,7 @@
       <c r="L725" s="2"/>
       <c r="U725" s="2"/>
     </row>
-    <row r="726" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C726" s="13"/>
       <c r="D726" s="13"/>
       <c r="E726" s="1"/>
@@ -8175,7 +8175,7 @@
       <c r="L726" s="2"/>
       <c r="U726" s="2"/>
     </row>
-    <row r="727" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C727" s="13"/>
       <c r="D727" s="13"/>
       <c r="E727" s="1"/>
@@ -8183,7 +8183,7 @@
       <c r="L727" s="2"/>
       <c r="U727" s="2"/>
     </row>
-    <row r="728" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C728" s="13"/>
       <c r="D728" s="13"/>
       <c r="E728" s="1"/>
@@ -8191,7 +8191,7 @@
       <c r="L728" s="2"/>
       <c r="U728" s="2"/>
     </row>
-    <row r="729" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C729" s="13"/>
       <c r="D729" s="13"/>
       <c r="E729" s="1"/>
@@ -8199,7 +8199,7 @@
       <c r="L729" s="2"/>
       <c r="U729" s="2"/>
     </row>
-    <row r="730" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C730" s="13"/>
       <c r="D730" s="13"/>
       <c r="E730" s="1"/>
@@ -8207,7 +8207,7 @@
       <c r="L730" s="2"/>
       <c r="U730" s="2"/>
     </row>
-    <row r="731" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C731" s="13"/>
       <c r="D731" s="13"/>
       <c r="E731" s="1"/>
@@ -8215,7 +8215,7 @@
       <c r="L731" s="2"/>
       <c r="U731" s="2"/>
     </row>
-    <row r="732" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C732" s="13"/>
       <c r="D732" s="13"/>
       <c r="E732" s="1"/>
@@ -8223,7 +8223,7 @@
       <c r="L732" s="2"/>
       <c r="U732" s="2"/>
     </row>
-    <row r="733" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C733" s="13"/>
       <c r="D733" s="13"/>
       <c r="E733" s="1"/>
@@ -8231,7 +8231,7 @@
       <c r="L733" s="2"/>
       <c r="U733" s="2"/>
     </row>
-    <row r="734" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C734" s="13"/>
       <c r="D734" s="13"/>
       <c r="E734" s="1"/>
@@ -8239,7 +8239,7 @@
       <c r="L734" s="2"/>
       <c r="U734" s="2"/>
     </row>
-    <row r="735" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C735" s="13"/>
       <c r="D735" s="13"/>
       <c r="E735" s="1"/>
@@ -8247,7 +8247,7 @@
       <c r="L735" s="2"/>
       <c r="U735" s="2"/>
     </row>
-    <row r="736" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C736" s="13"/>
       <c r="D736" s="13"/>
       <c r="E736" s="1"/>
@@ -8255,7 +8255,7 @@
       <c r="L736" s="2"/>
       <c r="U736" s="2"/>
     </row>
-    <row r="737" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C737" s="13"/>
       <c r="D737" s="13"/>
       <c r="E737" s="1"/>
@@ -8263,7 +8263,7 @@
       <c r="L737" s="2"/>
       <c r="U737" s="2"/>
     </row>
-    <row r="738" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C738" s="13"/>
       <c r="D738" s="13"/>
       <c r="E738" s="1"/>
@@ -8271,7 +8271,7 @@
       <c r="L738" s="2"/>
       <c r="U738" s="2"/>
     </row>
-    <row r="739" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C739" s="13"/>
       <c r="D739" s="13"/>
       <c r="E739" s="1"/>
@@ -8279,7 +8279,7 @@
       <c r="L739" s="2"/>
       <c r="U739" s="2"/>
     </row>
-    <row r="740" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C740" s="13"/>
       <c r="D740" s="13"/>
       <c r="E740" s="1"/>
@@ -8287,7 +8287,7 @@
       <c r="L740" s="2"/>
       <c r="U740" s="2"/>
     </row>
-    <row r="741" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C741" s="13"/>
       <c r="D741" s="13"/>
       <c r="E741" s="1"/>
@@ -8295,7 +8295,7 @@
       <c r="L741" s="2"/>
       <c r="U741" s="2"/>
     </row>
-    <row r="742" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C742" s="13"/>
       <c r="D742" s="13"/>
       <c r="E742" s="1"/>
@@ -8303,7 +8303,7 @@
       <c r="L742" s="2"/>
       <c r="U742" s="2"/>
     </row>
-    <row r="743" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C743" s="13"/>
       <c r="D743" s="13"/>
       <c r="E743" s="1"/>
@@ -8311,7 +8311,7 @@
       <c r="L743" s="2"/>
       <c r="U743" s="2"/>
     </row>
-    <row r="744" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C744" s="13"/>
       <c r="D744" s="13"/>
       <c r="E744" s="1"/>
@@ -8319,7 +8319,7 @@
       <c r="L744" s="2"/>
       <c r="U744" s="2"/>
     </row>
-    <row r="745" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C745" s="13"/>
       <c r="D745" s="13"/>
       <c r="E745" s="1"/>
@@ -8327,7 +8327,7 @@
       <c r="L745" s="2"/>
       <c r="U745" s="2"/>
     </row>
-    <row r="746" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C746" s="13"/>
       <c r="D746" s="13"/>
       <c r="E746" s="1"/>
@@ -8335,7 +8335,7 @@
       <c r="L746" s="2"/>
       <c r="U746" s="2"/>
     </row>
-    <row r="747" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C747" s="13"/>
       <c r="D747" s="13"/>
       <c r="E747" s="1"/>
@@ -8343,7 +8343,7 @@
       <c r="L747" s="2"/>
       <c r="U747" s="2"/>
     </row>
-    <row r="748" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C748" s="13"/>
       <c r="D748" s="13"/>
       <c r="E748" s="1"/>
@@ -8351,7 +8351,7 @@
       <c r="L748" s="2"/>
       <c r="U748" s="2"/>
     </row>
-    <row r="749" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C749" s="13"/>
       <c r="D749" s="13"/>
       <c r="E749" s="1"/>
@@ -8359,7 +8359,7 @@
       <c r="L749" s="2"/>
       <c r="U749" s="2"/>
     </row>
-    <row r="750" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C750" s="13"/>
       <c r="D750" s="13"/>
       <c r="E750" s="1"/>
@@ -8367,7 +8367,7 @@
       <c r="L750" s="2"/>
       <c r="U750" s="2"/>
     </row>
-    <row r="751" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C751" s="13"/>
       <c r="D751" s="13"/>
       <c r="E751" s="1"/>
@@ -8375,7 +8375,7 @@
       <c r="L751" s="2"/>
       <c r="U751" s="2"/>
     </row>
-    <row r="752" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C752" s="13"/>
       <c r="D752" s="13"/>
       <c r="E752" s="1"/>
@@ -8383,7 +8383,7 @@
       <c r="L752" s="2"/>
       <c r="U752" s="2"/>
     </row>
-    <row r="753" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C753" s="13"/>
       <c r="D753" s="13"/>
       <c r="E753" s="1"/>
@@ -8391,7 +8391,7 @@
       <c r="L753" s="2"/>
       <c r="U753" s="2"/>
     </row>
-    <row r="754" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C754" s="13"/>
       <c r="D754" s="13"/>
       <c r="E754" s="1"/>
@@ -8399,7 +8399,7 @@
       <c r="L754" s="2"/>
       <c r="U754" s="2"/>
     </row>
-    <row r="755" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C755" s="13"/>
       <c r="D755" s="13"/>
       <c r="E755" s="1"/>
@@ -8407,7 +8407,7 @@
       <c r="L755" s="2"/>
       <c r="U755" s="2"/>
     </row>
-    <row r="756" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C756" s="13"/>
       <c r="D756" s="13"/>
       <c r="E756" s="1"/>
@@ -8415,7 +8415,7 @@
       <c r="L756" s="2"/>
       <c r="U756" s="2"/>
     </row>
-    <row r="757" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C757" s="13"/>
       <c r="D757" s="13"/>
       <c r="E757" s="1"/>
@@ -8423,7 +8423,7 @@
       <c r="L757" s="2"/>
       <c r="U757" s="2"/>
     </row>
-    <row r="758" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C758" s="13"/>
       <c r="D758" s="13"/>
       <c r="E758" s="1"/>
@@ -8431,7 +8431,7 @@
       <c r="L758" s="2"/>
       <c r="U758" s="2"/>
     </row>
-    <row r="759" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C759" s="13"/>
       <c r="D759" s="13"/>
       <c r="E759" s="1"/>
@@ -8439,7 +8439,7 @@
       <c r="L759" s="2"/>
       <c r="U759" s="2"/>
     </row>
-    <row r="760" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C760" s="13"/>
       <c r="D760" s="13"/>
       <c r="E760" s="1"/>
@@ -8447,7 +8447,7 @@
       <c r="L760" s="2"/>
       <c r="U760" s="2"/>
     </row>
-    <row r="761" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C761" s="13"/>
       <c r="D761" s="13"/>
       <c r="E761" s="1"/>
@@ -8455,7 +8455,7 @@
       <c r="L761" s="2"/>
       <c r="U761" s="2"/>
     </row>
-    <row r="762" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C762" s="13"/>
       <c r="D762" s="13"/>
       <c r="E762" s="1"/>
@@ -8463,7 +8463,7 @@
       <c r="L762" s="2"/>
       <c r="U762" s="2"/>
     </row>
-    <row r="763" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C763" s="13"/>
       <c r="D763" s="13"/>
       <c r="E763" s="1"/>
@@ -8471,7 +8471,7 @@
       <c r="L763" s="2"/>
       <c r="U763" s="2"/>
     </row>
-    <row r="764" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C764" s="13"/>
       <c r="D764" s="13"/>
       <c r="E764" s="1"/>
@@ -8479,7 +8479,7 @@
       <c r="L764" s="2"/>
       <c r="U764" s="2"/>
     </row>
-    <row r="765" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C765" s="13"/>
       <c r="D765" s="13"/>
       <c r="E765" s="1"/>
@@ -8487,7 +8487,7 @@
       <c r="L765" s="2"/>
       <c r="U765" s="2"/>
     </row>
-    <row r="766" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C766" s="13"/>
       <c r="D766" s="13"/>
       <c r="E766" s="1"/>
@@ -8495,7 +8495,7 @@
       <c r="L766" s="2"/>
       <c r="U766" s="2"/>
     </row>
-    <row r="767" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C767" s="13"/>
       <c r="D767" s="13"/>
       <c r="E767" s="1"/>
@@ -8503,7 +8503,7 @@
       <c r="L767" s="2"/>
       <c r="U767" s="2"/>
     </row>
-    <row r="768" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C768" s="13"/>
       <c r="D768" s="13"/>
       <c r="E768" s="1"/>
@@ -8511,7 +8511,7 @@
       <c r="L768" s="2"/>
       <c r="U768" s="2"/>
     </row>
-    <row r="769" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C769" s="13"/>
       <c r="D769" s="13"/>
       <c r="E769" s="1"/>
@@ -8519,7 +8519,7 @@
       <c r="L769" s="2"/>
       <c r="U769" s="2"/>
     </row>
-    <row r="770" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C770" s="13"/>
       <c r="D770" s="13"/>
       <c r="E770" s="1"/>
@@ -8527,7 +8527,7 @@
       <c r="L770" s="2"/>
       <c r="U770" s="2"/>
     </row>
-    <row r="771" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C771" s="13"/>
       <c r="D771" s="13"/>
       <c r="E771" s="1"/>
@@ -8535,7 +8535,7 @@
       <c r="L771" s="2"/>
       <c r="U771" s="2"/>
     </row>
-    <row r="772" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C772" s="13"/>
       <c r="D772" s="13"/>
       <c r="E772" s="1"/>
@@ -8543,7 +8543,7 @@
       <c r="L772" s="2"/>
       <c r="U772" s="2"/>
     </row>
-    <row r="773" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C773" s="13"/>
       <c r="D773" s="13"/>
       <c r="E773" s="1"/>
@@ -8551,7 +8551,7 @@
       <c r="L773" s="2"/>
       <c r="U773" s="2"/>
     </row>
-    <row r="774" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C774" s="13"/>
       <c r="D774" s="13"/>
       <c r="E774" s="1"/>
@@ -8559,7 +8559,7 @@
       <c r="L774" s="2"/>
       <c r="U774" s="2"/>
     </row>
-    <row r="775" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C775" s="13"/>
       <c r="D775" s="13"/>
       <c r="E775" s="1"/>
@@ -8567,7 +8567,7 @@
       <c r="L775" s="2"/>
       <c r="U775" s="2"/>
     </row>
-    <row r="776" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C776" s="13"/>
       <c r="D776" s="13"/>
       <c r="E776" s="1"/>
@@ -8575,7 +8575,7 @@
       <c r="L776" s="2"/>
       <c r="U776" s="2"/>
     </row>
-    <row r="777" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C777" s="13"/>
       <c r="D777" s="13"/>
       <c r="E777" s="1"/>
@@ -8583,7 +8583,7 @@
       <c r="L777" s="2"/>
       <c r="U777" s="2"/>
     </row>
-    <row r="778" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C778" s="13"/>
       <c r="D778" s="13"/>
       <c r="E778" s="1"/>
@@ -8591,7 +8591,7 @@
       <c r="L778" s="2"/>
       <c r="U778" s="2"/>
     </row>
-    <row r="779" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C779" s="13"/>
       <c r="D779" s="13"/>
       <c r="E779" s="1"/>
@@ -8599,7 +8599,7 @@
       <c r="L779" s="2"/>
       <c r="U779" s="2"/>
     </row>
-    <row r="780" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C780" s="13"/>
       <c r="D780" s="13"/>
       <c r="E780" s="1"/>
@@ -8607,7 +8607,7 @@
       <c r="L780" s="2"/>
       <c r="U780" s="2"/>
     </row>
-    <row r="781" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C781" s="13"/>
       <c r="D781" s="13"/>
       <c r="E781" s="1"/>
@@ -8615,7 +8615,7 @@
       <c r="L781" s="2"/>
       <c r="U781" s="2"/>
     </row>
-    <row r="782" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C782" s="13"/>
       <c r="D782" s="13"/>
       <c r="E782" s="1"/>
@@ -8623,7 +8623,7 @@
       <c r="L782" s="2"/>
       <c r="U782" s="2"/>
     </row>
-    <row r="783" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C783" s="13"/>
       <c r="D783" s="13"/>
       <c r="E783" s="1"/>
@@ -8631,7 +8631,7 @@
       <c r="L783" s="2"/>
       <c r="U783" s="2"/>
     </row>
-    <row r="784" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C784" s="13"/>
       <c r="D784" s="13"/>
       <c r="E784" s="1"/>
@@ -8639,7 +8639,7 @@
       <c r="L784" s="2"/>
       <c r="U784" s="2"/>
     </row>
-    <row r="785" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C785" s="13"/>
       <c r="D785" s="13"/>
       <c r="E785" s="1"/>
@@ -8647,7 +8647,7 @@
       <c r="L785" s="2"/>
       <c r="U785" s="2"/>
     </row>
-    <row r="786" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C786" s="13"/>
       <c r="D786" s="13"/>
       <c r="E786" s="1"/>
@@ -8655,7 +8655,7 @@
       <c r="L786" s="2"/>
       <c r="U786" s="2"/>
     </row>
-    <row r="787" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C787" s="13"/>
       <c r="D787" s="13"/>
       <c r="E787" s="1"/>
@@ -8663,7 +8663,7 @@
       <c r="L787" s="2"/>
       <c r="U787" s="2"/>
     </row>
-    <row r="788" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C788" s="13"/>
       <c r="D788" s="13"/>
       <c r="E788" s="1"/>
@@ -8671,7 +8671,7 @@
       <c r="L788" s="2"/>
       <c r="U788" s="2"/>
     </row>
-    <row r="789" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C789" s="13"/>
       <c r="D789" s="13"/>
       <c r="E789" s="1"/>
@@ -8679,7 +8679,7 @@
       <c r="L789" s="2"/>
       <c r="U789" s="2"/>
     </row>
-    <row r="790" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C790" s="13"/>
       <c r="D790" s="13"/>
       <c r="E790" s="1"/>
@@ -8687,7 +8687,7 @@
       <c r="L790" s="2"/>
       <c r="U790" s="2"/>
     </row>
-    <row r="791" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C791" s="13"/>
       <c r="D791" s="13"/>
       <c r="E791" s="1"/>
@@ -8695,7 +8695,7 @@
       <c r="L791" s="2"/>
       <c r="U791" s="2"/>
     </row>
-    <row r="792" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C792" s="13"/>
       <c r="D792" s="13"/>
       <c r="E792" s="1"/>
@@ -8703,7 +8703,7 @@
       <c r="L792" s="2"/>
       <c r="U792" s="2"/>
     </row>
-    <row r="793" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C793" s="13"/>
       <c r="D793" s="13"/>
       <c r="E793" s="1"/>
@@ -8711,7 +8711,7 @@
       <c r="L793" s="2"/>
       <c r="U793" s="2"/>
     </row>
-    <row r="794" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C794" s="13"/>
       <c r="D794" s="13"/>
       <c r="E794" s="1"/>
@@ -8719,7 +8719,7 @@
       <c r="L794" s="2"/>
       <c r="U794" s="2"/>
     </row>
-    <row r="795" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C795" s="13"/>
       <c r="D795" s="13"/>
       <c r="E795" s="1"/>
@@ -8727,7 +8727,7 @@
       <c r="L795" s="2"/>
       <c r="U795" s="2"/>
     </row>
-    <row r="796" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C796" s="13"/>
       <c r="D796" s="13"/>
       <c r="E796" s="1"/>
@@ -8735,7 +8735,7 @@
       <c r="L796" s="2"/>
       <c r="U796" s="2"/>
     </row>
-    <row r="797" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C797" s="13"/>
       <c r="D797" s="13"/>
       <c r="E797" s="1"/>
@@ -8743,7 +8743,7 @@
       <c r="L797" s="2"/>
       <c r="U797" s="2"/>
     </row>
-    <row r="798" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C798" s="13"/>
       <c r="D798" s="13"/>
       <c r="E798" s="1"/>
@@ -8751,7 +8751,7 @@
       <c r="L798" s="2"/>
       <c r="U798" s="2"/>
     </row>
-    <row r="799" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C799" s="13"/>
       <c r="D799" s="13"/>
       <c r="E799" s="1"/>
@@ -8759,7 +8759,7 @@
       <c r="L799" s="2"/>
       <c r="U799" s="2"/>
     </row>
-    <row r="800" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C800" s="13"/>
       <c r="D800" s="13"/>
       <c r="E800" s="1"/>
@@ -8767,7 +8767,7 @@
       <c r="L800" s="2"/>
       <c r="U800" s="2"/>
     </row>
-    <row r="801" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C801" s="13"/>
       <c r="D801" s="13"/>
       <c r="E801" s="1"/>
@@ -8775,7 +8775,7 @@
       <c r="L801" s="2"/>
       <c r="U801" s="2"/>
     </row>
-    <row r="802" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C802" s="13"/>
       <c r="D802" s="13"/>
       <c r="E802" s="1"/>
@@ -8783,7 +8783,7 @@
       <c r="L802" s="2"/>
       <c r="U802" s="2"/>
     </row>
-    <row r="803" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C803" s="13"/>
       <c r="D803" s="13"/>
       <c r="E803" s="1"/>
@@ -8791,7 +8791,7 @@
       <c r="L803" s="2"/>
       <c r="U803" s="2"/>
     </row>
-    <row r="804" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C804" s="13"/>
       <c r="D804" s="13"/>
       <c r="E804" s="1"/>
@@ -8799,7 +8799,7 @@
       <c r="L804" s="2"/>
       <c r="U804" s="2"/>
     </row>
-    <row r="805" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C805" s="13"/>
       <c r="D805" s="13"/>
       <c r="E805" s="1"/>
@@ -8807,7 +8807,7 @@
       <c r="L805" s="2"/>
       <c r="U805" s="2"/>
     </row>
-    <row r="806" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C806" s="13"/>
       <c r="D806" s="13"/>
       <c r="E806" s="1"/>
@@ -8815,7 +8815,7 @@
       <c r="L806" s="2"/>
       <c r="U806" s="2"/>
     </row>
-    <row r="807" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C807" s="13"/>
       <c r="D807" s="13"/>
       <c r="E807" s="1"/>
@@ -8823,7 +8823,7 @@
       <c r="L807" s="2"/>
       <c r="U807" s="2"/>
     </row>
-    <row r="808" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C808" s="13"/>
       <c r="D808" s="13"/>
       <c r="E808" s="1"/>
@@ -8831,7 +8831,7 @@
       <c r="L808" s="2"/>
       <c r="U808" s="2"/>
     </row>
-    <row r="809" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C809" s="13"/>
       <c r="D809" s="13"/>
       <c r="E809" s="1"/>
@@ -8839,7 +8839,7 @@
       <c r="L809" s="2"/>
       <c r="U809" s="2"/>
     </row>
-    <row r="810" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C810" s="13"/>
       <c r="D810" s="13"/>
       <c r="E810" s="1"/>
@@ -8847,7 +8847,7 @@
       <c r="L810" s="2"/>
       <c r="U810" s="2"/>
     </row>
-    <row r="811" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C811" s="13"/>
       <c r="D811" s="13"/>
       <c r="E811" s="1"/>
@@ -8855,7 +8855,7 @@
       <c r="L811" s="2"/>
       <c r="U811" s="2"/>
     </row>
-    <row r="812" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C812" s="13"/>
       <c r="D812" s="13"/>
       <c r="E812" s="1"/>
@@ -8863,7 +8863,7 @@
       <c r="L812" s="2"/>
       <c r="U812" s="2"/>
     </row>
-    <row r="813" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C813" s="13"/>
       <c r="D813" s="13"/>
       <c r="E813" s="1"/>
@@ -8871,7 +8871,7 @@
       <c r="L813" s="2"/>
       <c r="U813" s="2"/>
     </row>
-    <row r="814" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C814" s="13"/>
       <c r="D814" s="13"/>
       <c r="E814" s="1"/>
@@ -8879,7 +8879,7 @@
       <c r="L814" s="2"/>
       <c r="U814" s="2"/>
     </row>
-    <row r="815" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C815" s="13"/>
       <c r="D815" s="13"/>
       <c r="E815" s="1"/>
@@ -8887,7 +8887,7 @@
       <c r="L815" s="2"/>
       <c r="U815" s="2"/>
     </row>
-    <row r="816" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C816" s="13"/>
       <c r="D816" s="13"/>
       <c r="E816" s="1"/>
@@ -8895,7 +8895,7 @@
       <c r="L816" s="2"/>
       <c r="U816" s="2"/>
     </row>
-    <row r="817" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C817" s="13"/>
       <c r="D817" s="13"/>
       <c r="E817" s="1"/>
@@ -8903,7 +8903,7 @@
       <c r="L817" s="2"/>
       <c r="U817" s="2"/>
     </row>
-    <row r="818" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C818" s="13"/>
       <c r="D818" s="13"/>
       <c r="E818" s="1"/>
@@ -8911,7 +8911,7 @@
       <c r="L818" s="2"/>
       <c r="U818" s="2"/>
     </row>
-    <row r="819" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C819" s="13"/>
       <c r="D819" s="13"/>
       <c r="E819" s="1"/>
@@ -8919,7 +8919,7 @@
       <c r="L819" s="2"/>
       <c r="U819" s="2"/>
     </row>
-    <row r="820" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C820" s="13"/>
       <c r="D820" s="13"/>
       <c r="E820" s="1"/>
@@ -8927,7 +8927,7 @@
       <c r="L820" s="2"/>
       <c r="U820" s="2"/>
     </row>
-    <row r="821" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C821" s="13"/>
       <c r="D821" s="13"/>
       <c r="E821" s="1"/>
@@ -8935,7 +8935,7 @@
       <c r="L821" s="2"/>
       <c r="U821" s="2"/>
     </row>
-    <row r="822" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C822" s="13"/>
       <c r="D822" s="13"/>
       <c r="E822" s="1"/>
@@ -8943,7 +8943,7 @@
       <c r="L822" s="2"/>
       <c r="U822" s="2"/>
     </row>
-    <row r="823" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C823" s="13"/>
       <c r="D823" s="13"/>
       <c r="E823" s="1"/>
@@ -8951,7 +8951,7 @@
       <c r="L823" s="2"/>
       <c r="U823" s="2"/>
     </row>
-    <row r="824" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C824" s="13"/>
       <c r="D824" s="13"/>
       <c r="E824" s="1"/>
@@ -8959,7 +8959,7 @@
       <c r="L824" s="2"/>
       <c r="U824" s="2"/>
     </row>
-    <row r="825" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C825" s="13"/>
       <c r="D825" s="13"/>
       <c r="E825" s="1"/>
@@ -8967,7 +8967,7 @@
       <c r="L825" s="2"/>
       <c r="U825" s="2"/>
     </row>
-    <row r="826" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C826" s="13"/>
       <c r="D826" s="13"/>
       <c r="E826" s="1"/>
@@ -8975,7 +8975,7 @@
       <c r="L826" s="2"/>
       <c r="U826" s="2"/>
     </row>
-    <row r="827" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C827" s="13"/>
       <c r="D827" s="13"/>
       <c r="E827" s="1"/>
@@ -8983,7 +8983,7 @@
       <c r="L827" s="2"/>
       <c r="U827" s="2"/>
     </row>
-    <row r="828" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C828" s="13"/>
       <c r="D828" s="13"/>
       <c r="E828" s="1"/>
@@ -8991,7 +8991,7 @@
       <c r="L828" s="2"/>
       <c r="U828" s="2"/>
     </row>
-    <row r="829" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C829" s="13"/>
       <c r="D829" s="13"/>
       <c r="E829" s="1"/>
@@ -8999,7 +8999,7 @@
       <c r="L829" s="2"/>
       <c r="U829" s="2"/>
     </row>
-    <row r="830" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C830" s="13"/>
       <c r="D830" s="13"/>
       <c r="E830" s="1"/>
@@ -9007,7 +9007,7 @@
       <c r="L830" s="2"/>
       <c r="U830" s="2"/>
     </row>
-    <row r="831" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C831" s="13"/>
       <c r="D831" s="13"/>
       <c r="E831" s="1"/>
@@ -9015,7 +9015,7 @@
       <c r="L831" s="2"/>
       <c r="U831" s="2"/>
     </row>
-    <row r="832" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C832" s="13"/>
       <c r="D832" s="13"/>
       <c r="E832" s="1"/>
@@ -9023,7 +9023,7 @@
       <c r="L832" s="2"/>
       <c r="U832" s="2"/>
     </row>
-    <row r="833" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C833" s="13"/>
       <c r="D833" s="13"/>
       <c r="E833" s="1"/>
@@ -9031,7 +9031,7 @@
       <c r="L833" s="2"/>
       <c r="U833" s="2"/>
     </row>
-    <row r="834" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C834" s="13"/>
       <c r="D834" s="13"/>
       <c r="E834" s="1"/>
@@ -9039,7 +9039,7 @@
       <c r="L834" s="2"/>
       <c r="U834" s="2"/>
     </row>
-    <row r="835" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C835" s="13"/>
       <c r="D835" s="13"/>
       <c r="E835" s="1"/>
@@ -9047,7 +9047,7 @@
       <c r="L835" s="2"/>
       <c r="U835" s="2"/>
     </row>
-    <row r="836" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C836" s="13"/>
       <c r="D836" s="13"/>
       <c r="E836" s="1"/>
@@ -9055,7 +9055,7 @@
       <c r="L836" s="2"/>
       <c r="U836" s="2"/>
     </row>
-    <row r="837" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C837" s="13"/>
       <c r="D837" s="13"/>
       <c r="E837" s="1"/>
@@ -9063,7 +9063,7 @@
       <c r="L837" s="2"/>
       <c r="U837" s="2"/>
     </row>
-    <row r="838" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C838" s="13"/>
       <c r="D838" s="13"/>
       <c r="E838" s="1"/>
@@ -9071,7 +9071,7 @@
       <c r="L838" s="2"/>
       <c r="U838" s="2"/>
     </row>
-    <row r="839" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C839" s="13"/>
       <c r="D839" s="13"/>
       <c r="E839" s="1"/>
@@ -9079,7 +9079,7 @@
       <c r="L839" s="2"/>
       <c r="U839" s="2"/>
     </row>
-    <row r="840" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C840" s="13"/>
       <c r="D840" s="13"/>
       <c r="E840" s="1"/>
@@ -9087,7 +9087,7 @@
       <c r="L840" s="2"/>
       <c r="U840" s="2"/>
     </row>
-    <row r="841" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C841" s="13"/>
       <c r="D841" s="13"/>
       <c r="E841" s="1"/>
@@ -9095,7 +9095,7 @@
       <c r="L841" s="2"/>
       <c r="U841" s="2"/>
     </row>
-    <row r="842" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C842" s="13"/>
       <c r="D842" s="13"/>
       <c r="E842" s="1"/>
@@ -9103,7 +9103,7 @@
       <c r="L842" s="2"/>
       <c r="U842" s="2"/>
     </row>
-    <row r="843" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C843" s="13"/>
       <c r="D843" s="13"/>
       <c r="E843" s="1"/>
@@ -9111,7 +9111,7 @@
       <c r="L843" s="2"/>
       <c r="U843" s="2"/>
     </row>
-    <row r="844" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C844" s="13"/>
       <c r="D844" s="13"/>
       <c r="E844" s="1"/>
@@ -9119,7 +9119,7 @@
       <c r="L844" s="2"/>
       <c r="U844" s="2"/>
     </row>
-    <row r="845" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C845" s="13"/>
       <c r="D845" s="13"/>
       <c r="E845" s="1"/>
@@ -9127,7 +9127,7 @@
       <c r="L845" s="2"/>
       <c r="U845" s="2"/>
     </row>
-    <row r="846" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C846" s="13"/>
       <c r="D846" s="13"/>
       <c r="E846" s="1"/>
@@ -9135,7 +9135,7 @@
       <c r="L846" s="2"/>
       <c r="U846" s="2"/>
     </row>
-    <row r="847" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C847" s="13"/>
       <c r="D847" s="13"/>
       <c r="E847" s="1"/>
@@ -9143,7 +9143,7 @@
       <c r="L847" s="2"/>
       <c r="U847" s="2"/>
     </row>
-    <row r="848" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C848" s="13"/>
       <c r="D848" s="13"/>
       <c r="E848" s="1"/>
@@ -9151,7 +9151,7 @@
       <c r="L848" s="2"/>
       <c r="U848" s="2"/>
     </row>
-    <row r="849" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C849" s="13"/>
       <c r="D849" s="13"/>
       <c r="E849" s="1"/>
@@ -9159,7 +9159,7 @@
       <c r="L849" s="2"/>
       <c r="U849" s="2"/>
     </row>
-    <row r="850" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C850" s="13"/>
       <c r="D850" s="13"/>
       <c r="E850" s="1"/>
@@ -9167,7 +9167,7 @@
       <c r="L850" s="2"/>
       <c r="U850" s="2"/>
     </row>
-    <row r="851" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C851" s="13"/>
       <c r="D851" s="13"/>
       <c r="E851" s="1"/>
@@ -9175,7 +9175,7 @@
       <c r="L851" s="2"/>
       <c r="U851" s="2"/>
     </row>
-    <row r="852" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C852" s="13"/>
       <c r="D852" s="13"/>
       <c r="E852" s="1"/>
@@ -9183,7 +9183,7 @@
       <c r="L852" s="2"/>
       <c r="U852" s="2"/>
     </row>
-    <row r="853" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C853" s="13"/>
       <c r="D853" s="13"/>
       <c r="E853" s="1"/>
@@ -9191,7 +9191,7 @@
       <c r="L853" s="2"/>
       <c r="U853" s="2"/>
     </row>
-    <row r="854" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C854" s="13"/>
       <c r="D854" s="13"/>
       <c r="E854" s="1"/>
@@ -9199,7 +9199,7 @@
       <c r="L854" s="2"/>
       <c r="U854" s="2"/>
     </row>
-    <row r="855" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C855" s="13"/>
       <c r="D855" s="13"/>
       <c r="E855" s="1"/>
@@ -9207,7 +9207,7 @@
       <c r="L855" s="2"/>
       <c r="U855" s="2"/>
     </row>
-    <row r="856" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C856" s="13"/>
       <c r="D856" s="13"/>
       <c r="E856" s="1"/>
@@ -9215,7 +9215,7 @@
       <c r="L856" s="2"/>
       <c r="U856" s="2"/>
     </row>
-    <row r="857" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C857" s="13"/>
       <c r="D857" s="13"/>
       <c r="E857" s="1"/>
@@ -9223,7 +9223,7 @@
       <c r="L857" s="2"/>
       <c r="U857" s="2"/>
     </row>
-    <row r="858" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C858" s="13"/>
       <c r="D858" s="13"/>
       <c r="E858" s="1"/>
@@ -9231,7 +9231,7 @@
       <c r="L858" s="2"/>
       <c r="U858" s="2"/>
     </row>
-    <row r="859" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C859" s="13"/>
       <c r="D859" s="13"/>
       <c r="E859" s="1"/>
@@ -9239,7 +9239,7 @@
       <c r="L859" s="2"/>
       <c r="U859" s="2"/>
     </row>
-    <row r="860" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C860" s="13"/>
       <c r="D860" s="13"/>
       <c r="E860" s="1"/>
@@ -9247,7 +9247,7 @@
       <c r="L860" s="2"/>
       <c r="U860" s="2"/>
     </row>
-    <row r="861" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C861" s="13"/>
       <c r="D861" s="13"/>
       <c r="E861" s="1"/>
@@ -9255,7 +9255,7 @@
       <c r="L861" s="2"/>
       <c r="U861" s="2"/>
     </row>
-    <row r="862" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C862" s="13"/>
       <c r="D862" s="13"/>
       <c r="E862" s="1"/>
@@ -9263,7 +9263,7 @@
       <c r="L862" s="2"/>
       <c r="U862" s="2"/>
     </row>
-    <row r="863" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C863" s="13"/>
       <c r="D863" s="13"/>
       <c r="E863" s="1"/>
@@ -9271,7 +9271,7 @@
       <c r="L863" s="2"/>
       <c r="U863" s="2"/>
     </row>
-    <row r="864" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C864" s="13"/>
       <c r="D864" s="13"/>
       <c r="E864" s="1"/>
@@ -9279,7 +9279,7 @@
       <c r="L864" s="2"/>
       <c r="U864" s="2"/>
     </row>
-    <row r="865" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C865" s="13"/>
       <c r="D865" s="13"/>
       <c r="E865" s="1"/>
@@ -9287,7 +9287,7 @@
       <c r="L865" s="2"/>
       <c r="U865" s="2"/>
     </row>
-    <row r="866" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C866" s="13"/>
       <c r="D866" s="13"/>
       <c r="E866" s="1"/>
@@ -9295,7 +9295,7 @@
       <c r="L866" s="2"/>
       <c r="U866" s="2"/>
     </row>
-    <row r="867" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C867" s="13"/>
       <c r="D867" s="13"/>
       <c r="E867" s="1"/>
@@ -9303,7 +9303,7 @@
       <c r="L867" s="2"/>
       <c r="U867" s="2"/>
     </row>
-    <row r="868" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C868" s="13"/>
       <c r="D868" s="13"/>
       <c r="E868" s="1"/>
@@ -9311,7 +9311,7 @@
       <c r="L868" s="2"/>
       <c r="U868" s="2"/>
     </row>
-    <row r="869" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C869" s="13"/>
       <c r="D869" s="13"/>
       <c r="E869" s="1"/>
@@ -9319,7 +9319,7 @@
       <c r="L869" s="2"/>
       <c r="U869" s="2"/>
     </row>
-    <row r="870" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C870" s="13"/>
       <c r="D870" s="13"/>
       <c r="E870" s="1"/>
@@ -9327,7 +9327,7 @@
       <c r="L870" s="2"/>
       <c r="U870" s="2"/>
     </row>
-    <row r="871" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C871" s="13"/>
       <c r="D871" s="13"/>
       <c r="E871" s="1"/>
@@ -9335,7 +9335,7 @@
       <c r="L871" s="2"/>
       <c r="U871" s="2"/>
     </row>
-    <row r="872" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C872" s="13"/>
       <c r="D872" s="13"/>
       <c r="E872" s="1"/>
@@ -9343,7 +9343,7 @@
       <c r="L872" s="2"/>
       <c r="U872" s="2"/>
     </row>
-    <row r="873" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C873" s="13"/>
       <c r="D873" s="13"/>
       <c r="E873" s="1"/>
@@ -9351,7 +9351,7 @@
       <c r="L873" s="2"/>
       <c r="U873" s="2"/>
     </row>
-    <row r="874" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C874" s="13"/>
       <c r="D874" s="13"/>
       <c r="E874" s="1"/>
@@ -9359,7 +9359,7 @@
       <c r="L874" s="2"/>
       <c r="U874" s="2"/>
     </row>
-    <row r="875" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C875" s="13"/>
       <c r="D875" s="13"/>
       <c r="E875" s="1"/>
@@ -9367,7 +9367,7 @@
       <c r="L875" s="2"/>
       <c r="U875" s="2"/>
     </row>
-    <row r="876" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C876" s="13"/>
       <c r="D876" s="13"/>
       <c r="E876" s="1"/>
@@ -9375,7 +9375,7 @@
       <c r="L876" s="2"/>
       <c r="U876" s="2"/>
     </row>
-    <row r="877" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C877" s="13"/>
       <c r="D877" s="13"/>
       <c r="E877" s="1"/>
@@ -9383,7 +9383,7 @@
       <c r="L877" s="2"/>
       <c r="U877" s="2"/>
     </row>
-    <row r="878" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C878" s="13"/>
       <c r="D878" s="13"/>
       <c r="E878" s="1"/>
@@ -9391,7 +9391,7 @@
       <c r="L878" s="2"/>
       <c r="U878" s="2"/>
     </row>
-    <row r="879" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C879" s="13"/>
       <c r="D879" s="13"/>
       <c r="E879" s="1"/>
@@ -9399,7 +9399,7 @@
       <c r="L879" s="2"/>
       <c r="U879" s="2"/>
     </row>
-    <row r="880" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C880" s="13"/>
       <c r="D880" s="13"/>
       <c r="E880" s="1"/>
@@ -9407,7 +9407,7 @@
       <c r="L880" s="2"/>
       <c r="U880" s="2"/>
     </row>
-    <row r="881" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C881" s="13"/>
       <c r="D881" s="13"/>
       <c r="E881" s="1"/>
@@ -9415,7 +9415,7 @@
       <c r="L881" s="2"/>
       <c r="U881" s="2"/>
     </row>
-    <row r="882" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C882" s="13"/>
       <c r="D882" s="13"/>
       <c r="E882" s="1"/>
@@ -9423,7 +9423,7 @@
       <c r="L882" s="2"/>
       <c r="U882" s="2"/>
     </row>
-    <row r="883" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C883" s="13"/>
       <c r="D883" s="13"/>
       <c r="E883" s="1"/>
@@ -9431,7 +9431,7 @@
       <c r="L883" s="2"/>
       <c r="U883" s="2"/>
     </row>
-    <row r="884" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C884" s="13"/>
       <c r="D884" s="13"/>
       <c r="E884" s="1"/>
@@ -9439,7 +9439,7 @@
       <c r="L884" s="2"/>
       <c r="U884" s="2"/>
     </row>
-    <row r="885" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C885" s="13"/>
       <c r="D885" s="13"/>
       <c r="E885" s="1"/>
@@ -9447,7 +9447,7 @@
       <c r="L885" s="2"/>
       <c r="U885" s="2"/>
     </row>
-    <row r="886" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C886" s="13"/>
       <c r="D886" s="13"/>
       <c r="E886" s="1"/>
@@ -9455,7 +9455,7 @@
       <c r="L886" s="2"/>
       <c r="U886" s="2"/>
     </row>
-    <row r="887" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C887" s="13"/>
       <c r="D887" s="13"/>
       <c r="E887" s="1"/>
@@ -9463,7 +9463,7 @@
       <c r="L887" s="2"/>
       <c r="U887" s="2"/>
     </row>
-    <row r="888" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C888" s="13"/>
       <c r="D888" s="13"/>
       <c r="E888" s="1"/>
@@ -9471,7 +9471,7 @@
       <c r="L888" s="2"/>
       <c r="U888" s="2"/>
     </row>
-    <row r="889" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C889" s="13"/>
       <c r="D889" s="13"/>
       <c r="E889" s="1"/>
@@ -9479,7 +9479,7 @@
       <c r="L889" s="2"/>
       <c r="U889" s="2"/>
     </row>
-    <row r="890" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C890" s="13"/>
       <c r="D890" s="13"/>
       <c r="E890" s="1"/>
@@ -9487,7 +9487,7 @@
       <c r="L890" s="2"/>
       <c r="U890" s="2"/>
     </row>
-    <row r="891" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C891" s="13"/>
       <c r="D891" s="13"/>
       <c r="E891" s="1"/>
@@ -9495,7 +9495,7 @@
       <c r="L891" s="2"/>
       <c r="U891" s="2"/>
     </row>
-    <row r="892" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C892" s="13"/>
       <c r="D892" s="13"/>
       <c r="E892" s="1"/>
@@ -9503,7 +9503,7 @@
       <c r="L892" s="2"/>
       <c r="U892" s="2"/>
     </row>
-    <row r="893" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C893" s="13"/>
       <c r="D893" s="13"/>
       <c r="E893" s="1"/>
@@ -9511,7 +9511,7 @@
       <c r="L893" s="2"/>
       <c r="U893" s="2"/>
     </row>
-    <row r="894" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C894" s="13"/>
       <c r="D894" s="13"/>
       <c r="E894" s="1"/>
@@ -9519,7 +9519,7 @@
       <c r="L894" s="2"/>
       <c r="U894" s="2"/>
     </row>
-    <row r="895" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C895" s="13"/>
       <c r="D895" s="13"/>
       <c r="E895" s="1"/>
@@ -9527,7 +9527,7 @@
       <c r="L895" s="2"/>
       <c r="U895" s="2"/>
     </row>
-    <row r="896" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C896" s="13"/>
       <c r="D896" s="13"/>
       <c r="E896" s="1"/>
@@ -9535,7 +9535,7 @@
       <c r="L896" s="2"/>
       <c r="U896" s="2"/>
     </row>
-    <row r="897" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C897" s="13"/>
       <c r="D897" s="13"/>
       <c r="E897" s="1"/>
@@ -9543,7 +9543,7 @@
       <c r="L897" s="2"/>
       <c r="U897" s="2"/>
     </row>
-    <row r="898" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C898" s="13"/>
       <c r="D898" s="13"/>
       <c r="E898" s="1"/>
@@ -9551,7 +9551,7 @@
       <c r="L898" s="2"/>
       <c r="U898" s="2"/>
     </row>
-    <row r="899" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C899" s="13"/>
       <c r="D899" s="13"/>
       <c r="E899" s="1"/>
@@ -9559,7 +9559,7 @@
       <c r="L899" s="2"/>
       <c r="U899" s="2"/>
     </row>
-    <row r="900" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C900" s="13"/>
       <c r="D900" s="13"/>
       <c r="E900" s="1"/>
@@ -9567,7 +9567,7 @@
       <c r="L900" s="2"/>
       <c r="U900" s="2"/>
     </row>
-    <row r="901" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C901" s="13"/>
       <c r="D901" s="13"/>
       <c r="E901" s="1"/>
@@ -9575,7 +9575,7 @@
       <c r="L901" s="2"/>
       <c r="U901" s="2"/>
     </row>
-    <row r="902" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C902" s="13"/>
       <c r="D902" s="13"/>
       <c r="E902" s="1"/>
@@ -9583,7 +9583,7 @@
       <c r="L902" s="2"/>
       <c r="U902" s="2"/>
     </row>
-    <row r="903" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C903" s="13"/>
       <c r="D903" s="13"/>
       <c r="E903" s="1"/>
@@ -9591,7 +9591,7 @@
       <c r="L903" s="2"/>
       <c r="U903" s="2"/>
     </row>
-    <row r="904" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C904" s="13"/>
       <c r="D904" s="13"/>
       <c r="E904" s="1"/>
@@ -9599,7 +9599,7 @@
       <c r="L904" s="2"/>
       <c r="U904" s="2"/>
     </row>
-    <row r="905" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C905" s="13"/>
       <c r="D905" s="13"/>
       <c r="E905" s="1"/>
@@ -9607,7 +9607,7 @@
       <c r="L905" s="2"/>
       <c r="U905" s="2"/>
     </row>
-    <row r="906" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C906" s="13"/>
       <c r="D906" s="13"/>
       <c r="E906" s="1"/>
@@ -9615,7 +9615,7 @@
       <c r="L906" s="2"/>
       <c r="U906" s="2"/>
     </row>
-    <row r="907" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C907" s="13"/>
       <c r="D907" s="13"/>
       <c r="E907" s="1"/>
@@ -9623,7 +9623,7 @@
       <c r="L907" s="2"/>
       <c r="U907" s="2"/>
     </row>
-    <row r="908" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C908" s="13"/>
       <c r="D908" s="13"/>
       <c r="E908" s="1"/>
@@ -9631,7 +9631,7 @@
       <c r="L908" s="2"/>
       <c r="U908" s="2"/>
     </row>
-    <row r="909" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C909" s="13"/>
       <c r="D909" s="13"/>
       <c r="E909" s="1"/>
@@ -9639,7 +9639,7 @@
       <c r="L909" s="2"/>
       <c r="U909" s="2"/>
     </row>
-    <row r="910" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C910" s="13"/>
       <c r="D910" s="13"/>
       <c r="E910" s="1"/>
@@ -9647,7 +9647,7 @@
       <c r="L910" s="2"/>
       <c r="U910" s="2"/>
     </row>
-    <row r="911" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C911" s="13"/>
       <c r="D911" s="13"/>
       <c r="E911" s="1"/>
@@ -9655,7 +9655,7 @@
       <c r="L911" s="2"/>
       <c r="U911" s="2"/>
     </row>
-    <row r="912" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C912" s="13"/>
       <c r="D912" s="13"/>
       <c r="E912" s="1"/>
@@ -9663,7 +9663,7 @@
       <c r="L912" s="2"/>
       <c r="U912" s="2"/>
     </row>
-    <row r="913" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C913" s="13"/>
       <c r="D913" s="13"/>
       <c r="E913" s="1"/>
@@ -9671,7 +9671,7 @@
       <c r="L913" s="2"/>
       <c r="U913" s="2"/>
     </row>
-    <row r="914" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C914" s="13"/>
       <c r="D914" s="13"/>
       <c r="E914" s="1"/>
@@ -9679,7 +9679,7 @@
       <c r="L914" s="2"/>
       <c r="U914" s="2"/>
     </row>
-    <row r="915" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C915" s="13"/>
       <c r="D915" s="13"/>
       <c r="E915" s="1"/>
@@ -9687,7 +9687,7 @@
       <c r="L915" s="2"/>
       <c r="U915" s="2"/>
     </row>
-    <row r="916" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C916" s="13"/>
       <c r="D916" s="13"/>
       <c r="E916" s="1"/>
@@ -9695,7 +9695,7 @@
       <c r="L916" s="2"/>
       <c r="U916" s="2"/>
     </row>
-    <row r="917" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C917" s="13"/>
       <c r="D917" s="13"/>
       <c r="E917" s="1"/>
@@ -9703,7 +9703,7 @@
       <c r="L917" s="2"/>
       <c r="U917" s="2"/>
     </row>
-    <row r="918" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C918" s="13"/>
       <c r="D918" s="13"/>
       <c r="E918" s="1"/>
@@ -9711,7 +9711,7 @@
       <c r="L918" s="2"/>
       <c r="U918" s="2"/>
     </row>
-    <row r="919" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C919" s="13"/>
       <c r="D919" s="13"/>
       <c r="E919" s="1"/>
@@ -9719,7 +9719,7 @@
       <c r="L919" s="2"/>
       <c r="U919" s="2"/>
     </row>
-    <row r="920" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C920" s="13"/>
       <c r="D920" s="13"/>
       <c r="E920" s="1"/>
@@ -9727,7 +9727,7 @@
       <c r="L920" s="2"/>
       <c r="U920" s="2"/>
     </row>
-    <row r="921" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C921" s="13"/>
       <c r="D921" s="13"/>
       <c r="E921" s="1"/>
@@ -9735,7 +9735,7 @@
       <c r="L921" s="2"/>
       <c r="U921" s="2"/>
     </row>
-    <row r="922" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C922" s="13"/>
       <c r="D922" s="13"/>
       <c r="E922" s="1"/>
@@ -9743,7 +9743,7 @@
       <c r="L922" s="2"/>
       <c r="U922" s="2"/>
     </row>
-    <row r="923" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C923" s="13"/>
       <c r="D923" s="13"/>
       <c r="E923" s="1"/>
@@ -9751,7 +9751,7 @@
       <c r="L923" s="2"/>
       <c r="U923" s="2"/>
     </row>
-    <row r="924" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C924" s="13"/>
       <c r="D924" s="13"/>
       <c r="E924" s="1"/>
@@ -9759,7 +9759,7 @@
       <c r="L924" s="2"/>
       <c r="U924" s="2"/>
     </row>
-    <row r="925" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C925" s="13"/>
       <c r="D925" s="13"/>
       <c r="E925" s="1"/>
@@ -9767,7 +9767,7 @@
       <c r="L925" s="2"/>
       <c r="U925" s="2"/>
     </row>
-    <row r="926" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C926" s="13"/>
       <c r="D926" s="13"/>
       <c r="E926" s="1"/>
@@ -9775,7 +9775,7 @@
       <c r="L926" s="2"/>
       <c r="U926" s="2"/>
     </row>
-    <row r="927" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C927" s="13"/>
       <c r="D927" s="13"/>
       <c r="E927" s="1"/>
@@ -9783,7 +9783,7 @@
       <c r="L927" s="2"/>
       <c r="U927" s="2"/>
     </row>
-    <row r="928" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C928" s="13"/>
       <c r="D928" s="13"/>
       <c r="E928" s="1"/>
@@ -9791,7 +9791,7 @@
       <c r="L928" s="2"/>
       <c r="U928" s="2"/>
     </row>
-    <row r="929" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C929" s="13"/>
       <c r="D929" s="13"/>
       <c r="E929" s="1"/>
@@ -9799,7 +9799,7 @@
       <c r="L929" s="2"/>
       <c r="U929" s="2"/>
     </row>
-    <row r="930" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C930" s="13"/>
       <c r="D930" s="13"/>
       <c r="E930" s="1"/>
@@ -9807,7 +9807,7 @@
       <c r="L930" s="2"/>
       <c r="U930" s="2"/>
     </row>
-    <row r="931" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C931" s="13"/>
       <c r="D931" s="13"/>
       <c r="E931" s="1"/>
@@ -9815,7 +9815,7 @@
       <c r="L931" s="2"/>
       <c r="U931" s="2"/>
     </row>
-    <row r="932" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C932" s="13"/>
       <c r="D932" s="13"/>
       <c r="E932" s="1"/>
@@ -9823,7 +9823,7 @@
       <c r="L932" s="2"/>
       <c r="U932" s="2"/>
     </row>
-    <row r="933" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C933" s="13"/>
       <c r="D933" s="13"/>
       <c r="E933" s="1"/>
@@ -9831,7 +9831,7 @@
       <c r="L933" s="2"/>
       <c r="U933" s="2"/>
     </row>
-    <row r="934" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C934" s="13"/>
       <c r="D934" s="13"/>
       <c r="E934" s="1"/>
@@ -9839,7 +9839,7 @@
       <c r="L934" s="2"/>
       <c r="U934" s="2"/>
     </row>
-    <row r="935" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C935" s="13"/>
       <c r="D935" s="13"/>
       <c r="E935" s="1"/>
@@ -9847,7 +9847,7 @@
       <c r="L935" s="2"/>
       <c r="U935" s="2"/>
     </row>
-    <row r="936" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C936" s="13"/>
       <c r="D936" s="13"/>
       <c r="E936" s="1"/>
@@ -9855,7 +9855,7 @@
       <c r="L936" s="2"/>
       <c r="U936" s="2"/>
     </row>
-    <row r="937" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C937" s="13"/>
       <c r="D937" s="13"/>
       <c r="E937" s="1"/>
@@ -9863,7 +9863,7 @@
       <c r="L937" s="2"/>
       <c r="U937" s="2"/>
     </row>
-    <row r="938" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C938" s="13"/>
       <c r="D938" s="13"/>
       <c r="E938" s="1"/>
@@ -9871,7 +9871,7 @@
       <c r="L938" s="2"/>
       <c r="U938" s="2"/>
     </row>
-    <row r="939" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C939" s="13"/>
       <c r="D939" s="13"/>
       <c r="E939" s="1"/>
@@ -9879,7 +9879,7 @@
       <c r="L939" s="2"/>
       <c r="U939" s="2"/>
     </row>
-    <row r="940" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C940" s="13"/>
       <c r="D940" s="13"/>
       <c r="E940" s="1"/>
@@ -9887,7 +9887,7 @@
       <c r="L940" s="2"/>
       <c r="U940" s="2"/>
     </row>
-    <row r="941" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C941" s="13"/>
       <c r="D941" s="13"/>
       <c r="E941" s="1"/>
@@ -9895,7 +9895,7 @@
       <c r="L941" s="2"/>
       <c r="U941" s="2"/>
     </row>
-    <row r="942" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C942" s="13"/>
       <c r="D942" s="13"/>
       <c r="E942" s="1"/>
@@ -9903,7 +9903,7 @@
       <c r="L942" s="2"/>
       <c r="U942" s="2"/>
     </row>
-    <row r="943" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C943" s="13"/>
       <c r="D943" s="13"/>
       <c r="E943" s="1"/>
@@ -9911,7 +9911,7 @@
       <c r="L943" s="2"/>
       <c r="U943" s="2"/>
     </row>
-    <row r="944" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C944" s="13"/>
       <c r="D944" s="13"/>
       <c r="E944" s="1"/>
@@ -9919,7 +9919,7 @@
       <c r="L944" s="2"/>
       <c r="U944" s="2"/>
     </row>
-    <row r="945" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C945" s="13"/>
       <c r="D945" s="13"/>
       <c r="E945" s="1"/>
@@ -9927,7 +9927,7 @@
       <c r="L945" s="2"/>
       <c r="U945" s="2"/>
     </row>
-    <row r="946" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C946" s="13"/>
       <c r="D946" s="13"/>
       <c r="E946" s="1"/>
@@ -9935,7 +9935,7 @@
       <c r="L946" s="2"/>
       <c r="U946" s="2"/>
     </row>
-    <row r="947" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C947" s="13"/>
       <c r="D947" s="13"/>
       <c r="E947" s="1"/>
@@ -9943,7 +9943,7 @@
       <c r="L947" s="2"/>
       <c r="U947" s="2"/>
     </row>
-    <row r="948" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C948" s="13"/>
       <c r="D948" s="13"/>
       <c r="E948" s="1"/>
@@ -9951,7 +9951,7 @@
       <c r="L948" s="2"/>
       <c r="U948" s="2"/>
     </row>
-    <row r="949" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C949" s="13"/>
       <c r="D949" s="13"/>
       <c r="E949" s="1"/>
@@ -9959,7 +9959,7 @@
       <c r="L949" s="2"/>
       <c r="U949" s="2"/>
     </row>
-    <row r="950" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C950" s="13"/>
       <c r="D950" s="13"/>
       <c r="E950" s="1"/>
@@ -9967,7 +9967,7 @@
       <c r="L950" s="2"/>
       <c r="U950" s="2"/>
     </row>
-    <row r="951" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C951" s="13"/>
       <c r="D951" s="13"/>
       <c r="E951" s="1"/>
@@ -9975,7 +9975,7 @@
       <c r="L951" s="2"/>
       <c r="U951" s="2"/>
     </row>
-    <row r="952" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C952" s="13"/>
       <c r="D952" s="13"/>
       <c r="E952" s="1"/>
@@ -9983,7 +9983,7 @@
       <c r="L952" s="2"/>
       <c r="U952" s="2"/>
     </row>
-    <row r="953" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C953" s="13"/>
       <c r="D953" s="13"/>
       <c r="E953" s="1"/>
@@ -9991,7 +9991,7 @@
       <c r="L953" s="2"/>
       <c r="U953" s="2"/>
     </row>
-    <row r="954" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C954" s="13"/>
       <c r="D954" s="13"/>
       <c r="E954" s="1"/>
@@ -9999,7 +9999,7 @@
       <c r="L954" s="2"/>
       <c r="U954" s="2"/>
     </row>
-    <row r="955" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C955" s="13"/>
       <c r="D955" s="13"/>
       <c r="E955" s="1"/>
@@ -10007,7 +10007,7 @@
       <c r="L955" s="2"/>
       <c r="U955" s="2"/>
     </row>
-    <row r="956" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C956" s="13"/>
       <c r="D956" s="13"/>
       <c r="E956" s="1"/>
@@ -10015,7 +10015,7 @@
       <c r="L956" s="2"/>
       <c r="U956" s="2"/>
     </row>
-    <row r="957" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C957" s="13"/>
       <c r="D957" s="13"/>
       <c r="E957" s="1"/>
@@ -10023,7 +10023,7 @@
       <c r="L957" s="2"/>
       <c r="U957" s="2"/>
     </row>
-    <row r="958" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C958" s="13"/>
       <c r="D958" s="13"/>
       <c r="E958" s="1"/>
@@ -10031,7 +10031,7 @@
       <c r="L958" s="2"/>
       <c r="U958" s="2"/>
     </row>
-    <row r="959" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C959" s="13"/>
       <c r="D959" s="13"/>
       <c r="E959" s="1"/>
@@ -10039,7 +10039,7 @@
       <c r="L959" s="2"/>
       <c r="U959" s="2"/>
     </row>
-    <row r="960" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C960" s="13"/>
       <c r="D960" s="13"/>
       <c r="E960" s="1"/>
@@ -10047,7 +10047,7 @@
       <c r="L960" s="2"/>
       <c r="U960" s="2"/>
     </row>
-    <row r="961" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C961" s="13"/>
       <c r="D961" s="13"/>
       <c r="E961" s="1"/>
@@ -10055,7 +10055,7 @@
       <c r="L961" s="2"/>
       <c r="U961" s="2"/>
     </row>
-    <row r="962" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C962" s="13"/>
       <c r="D962" s="13"/>
       <c r="E962" s="1"/>
@@ -10063,7 +10063,7 @@
       <c r="L962" s="2"/>
       <c r="U962" s="2"/>
     </row>
-    <row r="963" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C963" s="13"/>
       <c r="D963" s="13"/>
       <c r="E963" s="1"/>
@@ -10071,7 +10071,7 @@
       <c r="L963" s="2"/>
       <c r="U963" s="2"/>
     </row>
-    <row r="964" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C964" s="13"/>
       <c r="D964" s="13"/>
       <c r="E964" s="1"/>
@@ -10079,7 +10079,7 @@
       <c r="L964" s="2"/>
       <c r="U964" s="2"/>
     </row>
-    <row r="965" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C965" s="13"/>
       <c r="D965" s="13"/>
       <c r="E965" s="1"/>
@@ -10087,7 +10087,7 @@
       <c r="L965" s="2"/>
       <c r="U965" s="2"/>
     </row>
-    <row r="966" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C966" s="13"/>
       <c r="D966" s="13"/>
       <c r="E966" s="1"/>
@@ -10095,7 +10095,7 @@
       <c r="L966" s="2"/>
       <c r="U966" s="2"/>
     </row>
-    <row r="967" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C967" s="13"/>
       <c r="D967" s="13"/>
       <c r="E967" s="1"/>
@@ -10103,7 +10103,7 @@
       <c r="L967" s="2"/>
       <c r="U967" s="2"/>
     </row>
-    <row r="968" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C968" s="13"/>
       <c r="D968" s="13"/>
       <c r="E968" s="1"/>
@@ -10111,7 +10111,7 @@
       <c r="L968" s="2"/>
       <c r="U968" s="2"/>
     </row>
-    <row r="969" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C969" s="13"/>
       <c r="D969" s="13"/>
       <c r="E969" s="1"/>
@@ -10119,7 +10119,7 @@
       <c r="L969" s="2"/>
       <c r="U969" s="2"/>
     </row>
-    <row r="970" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C970" s="13"/>
       <c r="D970" s="13"/>
       <c r="E970" s="1"/>
@@ -10127,7 +10127,7 @@
       <c r="L970" s="2"/>
       <c r="U970" s="2"/>
     </row>
-    <row r="971" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C971" s="13"/>
       <c r="D971" s="13"/>
       <c r="E971" s="1"/>
@@ -10135,7 +10135,7 @@
       <c r="L971" s="2"/>
       <c r="U971" s="2"/>
     </row>
-    <row r="972" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C972" s="13"/>
       <c r="D972" s="13"/>
       <c r="E972" s="1"/>
@@ -10143,7 +10143,7 @@
       <c r="L972" s="2"/>
       <c r="U972" s="2"/>
     </row>
-    <row r="973" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C973" s="13"/>
       <c r="D973" s="13"/>
       <c r="E973" s="1"/>
@@ -10151,7 +10151,7 @@
       <c r="L973" s="2"/>
       <c r="U973" s="2"/>
     </row>
-    <row r="974" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C974" s="13"/>
       <c r="D974" s="13"/>
       <c r="E974" s="1"/>
@@ -10159,7 +10159,7 @@
       <c r="L974" s="2"/>
       <c r="U974" s="2"/>
     </row>
-    <row r="975" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C975" s="13"/>
       <c r="D975" s="13"/>
       <c r="E975" s="1"/>
@@ -10167,7 +10167,7 @@
       <c r="L975" s="2"/>
       <c r="U975" s="2"/>
     </row>
-    <row r="976" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C976" s="13"/>
       <c r="D976" s="13"/>
       <c r="E976" s="1"/>
@@ -10175,7 +10175,7 @@
       <c r="L976" s="2"/>
       <c r="U976" s="2"/>
     </row>
-    <row r="977" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C977" s="13"/>
       <c r="D977" s="13"/>
       <c r="E977" s="1"/>
@@ -10183,7 +10183,7 @@
       <c r="L977" s="2"/>
       <c r="U977" s="2"/>
     </row>
-    <row r="978" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C978" s="13"/>
       <c r="D978" s="13"/>
       <c r="E978" s="1"/>
@@ -10191,7 +10191,7 @@
       <c r="L978" s="2"/>
       <c r="U978" s="2"/>
     </row>
-    <row r="979" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C979" s="13"/>
       <c r="D979" s="13"/>
       <c r="E979" s="1"/>
@@ -10199,7 +10199,7 @@
       <c r="L979" s="2"/>
       <c r="U979" s="2"/>
     </row>
-    <row r="980" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C980" s="13"/>
       <c r="D980" s="13"/>
       <c r="E980" s="1"/>
@@ -10207,7 +10207,7 @@
       <c r="L980" s="2"/>
       <c r="U980" s="2"/>
     </row>
-    <row r="981" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C981" s="13"/>
       <c r="D981" s="13"/>
       <c r="E981" s="1"/>
@@ -10215,7 +10215,7 @@
       <c r="L981" s="2"/>
       <c r="U981" s="2"/>
     </row>
-    <row r="982" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C982" s="13"/>
       <c r="D982" s="13"/>
       <c r="E982" s="1"/>
@@ -10223,7 +10223,7 @@
       <c r="L982" s="2"/>
       <c r="U982" s="2"/>
     </row>
-    <row r="983" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C983" s="13"/>
       <c r="D983" s="13"/>
       <c r="E983" s="1"/>
@@ -10231,7 +10231,7 @@
       <c r="L983" s="2"/>
       <c r="U983" s="2"/>
     </row>
-    <row r="984" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C984" s="13"/>
       <c r="D984" s="13"/>
       <c r="E984" s="1"/>
@@ -10239,7 +10239,7 @@
       <c r="L984" s="2"/>
       <c r="U984" s="2"/>
     </row>
-    <row r="985" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C985" s="13"/>
       <c r="D985" s="13"/>
       <c r="E985" s="1"/>
@@ -10247,7 +10247,7 @@
       <c r="L985" s="2"/>
       <c r="U985" s="2"/>
     </row>
-    <row r="986" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C986" s="13"/>
       <c r="D986" s="13"/>
       <c r="E986" s="1"/>
@@ -10255,7 +10255,7 @@
       <c r="L986" s="2"/>
       <c r="U986" s="2"/>
     </row>
-    <row r="987" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C987" s="13"/>
       <c r="D987" s="13"/>
       <c r="E987" s="1"/>
@@ -10263,7 +10263,7 @@
       <c r="L987" s="2"/>
       <c r="U987" s="2"/>
     </row>
-    <row r="988" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C988" s="13"/>
       <c r="D988" s="13"/>
       <c r="E988" s="1"/>
@@ -10271,7 +10271,7 @@
       <c r="L988" s="2"/>
       <c r="U988" s="2"/>
     </row>
-    <row r="989" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C989" s="13"/>
       <c r="D989" s="13"/>
       <c r="E989" s="1"/>
@@ -10279,7 +10279,7 @@
       <c r="L989" s="2"/>
       <c r="U989" s="2"/>
     </row>
-    <row r="990" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C990" s="13"/>
       <c r="D990" s="13"/>
       <c r="E990" s="1"/>
@@ -10287,7 +10287,7 @@
       <c r="L990" s="2"/>
       <c r="U990" s="2"/>
     </row>
-    <row r="991" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C991" s="13"/>
       <c r="D991" s="13"/>
       <c r="E991" s="1"/>
@@ -10295,7 +10295,7 @@
       <c r="L991" s="2"/>
       <c r="U991" s="2"/>
     </row>
-    <row r="992" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C992" s="13"/>
       <c r="D992" s="13"/>
       <c r="E992" s="1"/>
@@ -10303,7 +10303,7 @@
       <c r="L992" s="2"/>
       <c r="U992" s="2"/>
     </row>
-    <row r="993" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C993" s="13"/>
       <c r="D993" s="13"/>
       <c r="E993" s="1"/>
@@ -10311,7 +10311,7 @@
       <c r="L993" s="2"/>
       <c r="U993" s="2"/>
     </row>
-    <row r="994" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C994" s="13"/>
       <c r="D994" s="13"/>
       <c r="E994" s="1"/>
@@ -10319,7 +10319,7 @@
       <c r="L994" s="2"/>
       <c r="U994" s="2"/>
     </row>
-    <row r="995" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C995" s="13"/>
       <c r="D995" s="13"/>
       <c r="E995" s="1"/>
@@ -10327,7 +10327,7 @@
       <c r="L995" s="2"/>
       <c r="U995" s="2"/>
     </row>
-    <row r="996" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C996" s="13"/>
       <c r="D996" s="13"/>
       <c r="E996" s="1"/>
@@ -10335,7 +10335,7 @@
       <c r="L996" s="2"/>
       <c r="U996" s="2"/>
     </row>
-    <row r="997" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C997" s="13"/>
       <c r="D997" s="13"/>
       <c r="E997" s="1"/>
@@ -10343,7 +10343,7 @@
       <c r="L997" s="2"/>
       <c r="U997" s="2"/>
     </row>
-    <row r="998" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C998" s="13"/>
       <c r="D998" s="13"/>
       <c r="E998" s="1"/>
@@ -10351,7 +10351,7 @@
       <c r="L998" s="2"/>
       <c r="U998" s="2"/>
     </row>
-    <row r="999" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C999" s="13"/>
       <c r="D999" s="13"/>
       <c r="E999" s="1"/>
@@ -10359,7 +10359,7 @@
       <c r="L999" s="2"/>
       <c r="U999" s="2"/>
     </row>
-    <row r="1000" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C1000" s="13"/>
       <c r="D1000" s="13"/>
       <c r="E1000" s="1"/>
@@ -10367,7 +10367,7 @@
       <c r="L1000" s="2"/>
       <c r="U1000" s="2"/>
     </row>
-    <row r="1001" spans="3:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="3:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C1001" s="13"/>
       <c r="D1001" s="13"/>
       <c r="E1001" s="1"/>
